--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44334</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44396</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44602</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44273.60354166666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>44512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44351.30972222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44715</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44515.4119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44851.38383101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44566.46680555555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44566.46861111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2445,14 +2445,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 34530-2024</t>
+          <t>A 61986-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45525</v>
+        <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2464,8 +2464,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2502,14 +2507,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 61986-2021</t>
+          <t>A 42048-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44502</v>
+        <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2521,13 +2526,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2564,14 +2564,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 42048-2021</t>
+          <t>A 62220-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44426</v>
+        <v>44922.66780092593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2621,14 +2621,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 29648-2025</t>
+          <t>A 417-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45825</v>
+        <v>44929</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2678,14 +2678,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 53179-2023</t>
+          <t>A 22789-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45229.40875</v>
+        <v>44715</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2735,14 +2735,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 58101-2023</t>
+          <t>A 29822-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45249.38699074074</v>
+        <v>45107.56379629629</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.1</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2792,14 +2792,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 19306-2025</t>
+          <t>A 45054-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45769.56755787037</v>
+        <v>45191</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2811,13 +2811,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2854,14 +2849,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 65114-2021</t>
+          <t>A 15684-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44515.41678240741</v>
+        <v>45021</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2874,7 +2869,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2911,14 +2906,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 17611-2025</t>
+          <t>A 58150-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45757.79642361111</v>
+        <v>44900.7941087963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2931,7 +2926,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2968,14 +2963,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 16618-2025</t>
+          <t>A 10115-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45754.31761574074</v>
+        <v>44986.34202546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2987,8 +2982,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15409-2024</t>
+          <t>A 418-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45401.34701388889</v>
+        <v>44929</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 47650-2023</t>
+          <t>A 419-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45203</v>
+        <v>44929</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 53160-2023</t>
+          <t>A 5564-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45229.37484953704</v>
+        <v>44960</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 53253-2023</t>
+          <t>A 10235-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45229.52552083333</v>
+        <v>44986.65542824074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 45881-2024</t>
+          <t>A 420-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45580</v>
+        <v>44929</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 17335-2025</t>
+          <t>A 506-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45756</v>
+        <v>44930</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 60264-2024</t>
+          <t>A 48901-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45642.8599537037</v>
+        <v>45209.52467592592</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.9</v>
+        <v>18.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3424,14 +3424,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 40687-2025</t>
+          <t>A 36868-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45896.87452546296</v>
+        <v>44805.6289699074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3481,14 +3481,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41130-2025</t>
+          <t>A 25065-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45898</v>
+        <v>45799.70430555556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3538,14 +3538,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 40685-2025</t>
+          <t>A 25063-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45896.87293981481</v>
+        <v>45799.70287037037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3595,14 +3595,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40686-2025</t>
+          <t>A 60264-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45896.87371527778</v>
+        <v>45642.8599537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3652,14 +3652,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 57527-2025</t>
+          <t>A 62221-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45980.63293981482</v>
+        <v>44922</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3709,14 +3709,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 40758-2025</t>
+          <t>A 40687-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45897</v>
+        <v>45896.87452546296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3766,14 +3766,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 58365-2022</t>
+          <t>A 40758-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44901.62020833333</v>
+        <v>45897</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3823,14 +3823,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 43013-2025</t>
+          <t>A 40685-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45909.49075231481</v>
+        <v>45896.87293981481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3880,14 +3880,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 43125-2025</t>
+          <t>A 40686-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45909.72638888889</v>
+        <v>45896.87371527778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3937,14 +3937,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 43124-2025</t>
+          <t>A 41130-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45909.70793981481</v>
+        <v>45898</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3994,14 +3994,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 27671-2025</t>
+          <t>A 28703-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45813</v>
+        <v>45820.23819444444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4051,14 +4051,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 55788-2023</t>
+          <t>A 14383-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45239</v>
+        <v>45394</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4108,14 +4108,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 45248-2025</t>
+          <t>A 8877-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45919.61190972223</v>
+        <v>45713.37665509259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>7.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4165,14 +4165,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2761-2023</t>
+          <t>A 53160-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44944.61564814814</v>
+        <v>45229.37484953704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4222,14 +4222,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 45821-2025</t>
+          <t>A 43124-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45923.59707175926</v>
+        <v>45909.70793981481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4279,14 +4279,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 62219-2022</t>
+          <t>A 43125-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44922.66564814815</v>
+        <v>45909.72638888889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4336,14 +4336,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 419-2023</t>
+          <t>A 43013-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44929</v>
+        <v>45909.49075231481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4393,14 +4393,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 35048-2024</t>
+          <t>A 29819-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45527.64537037037</v>
+        <v>45825.84666666666</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4450,14 +4450,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 60253-2024</t>
+          <t>A 6355-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45642</v>
+        <v>45338.47413194444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4507,14 +4507,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60258-2024</t>
+          <t>A 35055-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45642</v>
+        <v>45527</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4564,14 +4564,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 60259-2024</t>
+          <t>A 58365-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45642</v>
+        <v>44901.62020833333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4621,14 +4621,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 61133-2025</t>
+          <t>A 27671-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46000.49719907407</v>
+        <v>45813</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4678,14 +4678,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 6355-2024</t>
+          <t>A 45248-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45338.47413194444</v>
+        <v>45919.61190972223</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4735,14 +4735,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 7179-2023</t>
+          <t>A 45821-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44965</v>
+        <v>45923.59707175926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4792,14 +4792,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 47903-2025</t>
+          <t>A 62219-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45932</v>
+        <v>44922.66564814815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4849,14 +4849,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47649-2023</t>
+          <t>A 61975-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45203</v>
+        <v>44502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4868,8 +4868,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4906,14 +4911,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 33522-2024</t>
+          <t>A 47649-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45519</v>
+        <v>45203</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4926,7 +4931,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4963,14 +4968,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 48279-2025</t>
+          <t>A 2761-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45933.58763888889</v>
+        <v>44944.61564814814</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4983,7 +4988,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5020,14 +5025,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 21738-2023</t>
+          <t>A 31677-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45063</v>
+        <v>45834.37809027778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5040,7 +5045,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5077,14 +5082,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 61701-2025</t>
+          <t>A 48279-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46002.53532407407</v>
+        <v>45933.58763888889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5097,7 +5102,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5134,14 +5139,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 1878-2022</t>
+          <t>A 47903-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44574</v>
+        <v>45932</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5154,7 +5159,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5191,14 +5196,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 40671-2024</t>
+          <t>A 19306-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45558.36265046296</v>
+        <v>45769.56755787037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5210,8 +5215,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5248,14 +5258,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16924-2025</t>
+          <t>A 8969-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45755.3825462963</v>
+        <v>44979.50427083333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5267,13 +5277,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5310,14 +5315,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4002-2026</t>
+          <t>A 15409-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46044</v>
+        <v>45401.34701388889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5330,7 +5335,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5367,14 +5372,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 51117-2025</t>
+          <t>A 64438-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45947.52902777777</v>
+        <v>45280.68280092593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5387,7 +5392,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5424,14 +5429,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35055-2024</t>
+          <t>A 34419-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45527</v>
+        <v>45846.66137731481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5444,7 +5449,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5481,14 +5486,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 61975-2021</t>
+          <t>A 34402-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44502</v>
+        <v>45846.61403935185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5500,13 +5505,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5543,14 +5543,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 62223-2022</t>
+          <t>A 34411-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44922.67252314815</v>
+        <v>45846.64509259259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5600,14 +5600,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 10115-2023</t>
+          <t>A 41931-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44986.34202546296</v>
+        <v>45561.56418981482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5619,13 +5619,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>5.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5662,14 +5657,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 53651-2025</t>
+          <t>A 51117-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45960.52734953703</v>
+        <v>45947.52902777777</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5682,7 +5677,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5719,14 +5714,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 45665-2021</t>
+          <t>A 34530-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44441.32771990741</v>
+        <v>45525</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5739,7 +5734,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5776,14 +5771,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 7310-2026</t>
+          <t>A 45665-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46058.66219907408</v>
+        <v>44441.32771990741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5796,7 +5791,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5833,14 +5828,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 54449-2025</t>
+          <t>A 10836-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45965.54233796296</v>
+        <v>44991</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5890,14 +5885,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 60254-2024</t>
+          <t>A 10737-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45642</v>
+        <v>44984</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5910,7 +5905,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>13.4</v>
+        <v>3.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5947,14 +5942,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 60260-2024</t>
+          <t>A 52631-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45642</v>
+        <v>45610.30113425926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5967,7 +5962,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6004,14 +5999,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 5564-2023</t>
+          <t>A 29648-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44960</v>
+        <v>45825</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6024,7 +6019,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6061,14 +6056,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 417-2023</t>
+          <t>A 53651-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44929</v>
+        <v>45960.52734953703</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6081,7 +6076,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6118,14 +6113,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 17150-2023</t>
+          <t>A 54449-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45034</v>
+        <v>45965.54233796296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6138,7 +6133,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6175,14 +6170,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 39211-2023</t>
+          <t>A 58101-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45166.41819444444</v>
+        <v>45249.38699074074</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6195,7 +6190,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>6.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6232,14 +6227,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 56101-2025</t>
+          <t>A 16921-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45973.71033564815</v>
+        <v>45755.37600694445</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6251,8 +6246,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6289,14 +6289,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 58150-2022</t>
+          <t>A 16618-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44900.7941087963</v>
+        <v>45754.31761574074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6346,14 +6346,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 22789-2022</t>
+          <t>A 56101-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44715</v>
+        <v>45973.71033564815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6403,14 +6403,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 52631-2024</t>
+          <t>A 60254-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45610.30113425926</v>
+        <v>45642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.7</v>
+        <v>13.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6460,14 +6460,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 42016-2023</t>
+          <t>A 60260-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45177.47246527778</v>
+        <v>45642</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6517,14 +6517,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 10235-2023</t>
+          <t>A 57527-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44986.65542824074</v>
+        <v>45980.63293981482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6574,14 +6574,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 8877-2025</t>
+          <t>A 53253-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45713.37665509259</v>
+        <v>45229.52552083333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.3</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6631,14 +6631,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 15684-2023</t>
+          <t>A 39459-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45021</v>
+        <v>45166.81715277778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6688,14 +6688,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 506-2023</t>
+          <t>A 55788-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44930</v>
+        <v>45239</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6745,14 +6745,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 420-2023</t>
+          <t>A 19310-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44929</v>
+        <v>45769.57109953704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6764,8 +6764,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6802,14 +6807,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 38792-2024</t>
+          <t>A 2763-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45547.48993055556</v>
+        <v>44944.62079861111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6822,7 +6827,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6859,14 +6864,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 9954-2025</t>
+          <t>A 35048-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45719.35216435185</v>
+        <v>45527.64537037037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6879,7 +6884,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6916,14 +6921,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 45669-2023</t>
+          <t>A 4316-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45194.87333333334</v>
+        <v>45324.65905092593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6936,7 +6941,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6973,14 +6978,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 54948-2024</t>
+          <t>A 61133-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45619</v>
+        <v>46000.49719907407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6993,7 +6998,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7030,14 +7035,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 20430-2025</t>
+          <t>A 16924-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45775.47766203704</v>
+        <v>45755.3825462963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7049,8 +7054,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7087,14 +7097,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 41931-2024</t>
+          <t>A 61701-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45561.56418981482</v>
+        <v>46002.53532407407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7107,7 +7117,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7144,14 +7154,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 64438-2023</t>
+          <t>A 4002-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45280.68280092593</v>
+        <v>46044</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7164,7 +7174,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7201,14 +7211,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 19310-2025</t>
+          <t>A 7179-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45769.57109953704</v>
+        <v>44965</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7220,13 +7230,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7263,14 +7268,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 16921-2025</t>
+          <t>A 40671-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45755.37600694445</v>
+        <v>45558.36265046296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7282,13 +7287,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7325,14 +7325,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 48901-2023</t>
+          <t>A 21738-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45209.52467592592</v>
+        <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>18.3</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7382,14 +7382,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 39459-2023</t>
+          <t>A 45669-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45166.81715277778</v>
+        <v>45194.87333333334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7439,14 +7439,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 36868-2022</t>
+          <t>A 33522-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44805.6289699074</v>
+        <v>45519</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7496,14 +7496,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 4241-2023</t>
+          <t>A 20430-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44953</v>
+        <v>45775.47766203704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7553,14 +7553,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 4242-2023</t>
+          <t>A 45588-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44953</v>
+        <v>44845.54098379629</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7610,14 +7610,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 45054-2023</t>
+          <t>A 7310-2026</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45191</v>
+        <v>46058.66219907408</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7667,14 +7667,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 29728-2022</t>
+          <t>A 17150-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44755.45465277778</v>
+        <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7724,14 +7724,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 48510-2024</t>
+          <t>A 65114-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45591</v>
+        <v>44515.41678240741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7781,14 +7781,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 6872-2022</t>
+          <t>A 62223-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44602.75136574074</v>
+        <v>44922.67252314815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7838,14 +7838,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 29822-2023</t>
+          <t>A 1878-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45107.56379629629</v>
+        <v>44574</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7895,14 +7895,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 62221-2022</t>
+          <t>A 39211-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44922</v>
+        <v>45166.41819444444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7952,14 +7952,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 2763-2023</t>
+          <t>A 38792-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44944.62079861111</v>
+        <v>45547.48993055556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8009,14 +8009,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 19384-2023</t>
+          <t>A 59273-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45049</v>
+        <v>45253.55516203704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8066,14 +8066,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 16687-2025</t>
+          <t>A 45881-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45754.45372685185</v>
+        <v>45580</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8123,14 +8123,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 62220-2022</t>
+          <t>A 17611-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44922.66780092593</v>
+        <v>45757.79642361111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8180,14 +8180,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 418-2023</t>
+          <t>A 19384-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44929</v>
+        <v>45049</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8237,14 +8237,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 10836-2023</t>
+          <t>A 16687-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44991</v>
+        <v>45754.45372685185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8294,14 +8294,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 14383-2024</t>
+          <t>A 60258-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45394</v>
+        <v>45642</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8351,14 +8351,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 4316-2024</t>
+          <t>A 60259-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45324.65905092593</v>
+        <v>45642</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8408,14 +8408,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 10737-2023</t>
+          <t>A 47650-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44984</v>
+        <v>45203</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8465,14 +8465,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 45588-2022</t>
+          <t>A 6872-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44845.54098379629</v>
+        <v>44602.75136574074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>45251.56759259259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8579,14 +8579,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 59273-2023</t>
+          <t>A 29728-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45253.55516203704</v>
+        <v>44755.45465277778</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8636,14 +8636,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 8969-2023</t>
+          <t>A 17335-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44979.50427083333</v>
+        <v>45756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8693,14 +8693,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 54412-2024</t>
+          <t>A 48510-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45617</v>
+        <v>45591</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8750,14 +8750,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 3572-2025</t>
+          <t>A 54948-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45680.71428240741</v>
+        <v>45619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8807,14 +8807,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 22418-2025</t>
+          <t>A 9954-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45786.56079861111</v>
+        <v>45719.35216435185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8826,13 +8826,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8869,14 +8864,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 22028-2025</t>
+          <t>A 4241-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45785.21606481481</v>
+        <v>44953</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8889,7 +8884,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8926,14 +8921,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 22828-2025</t>
+          <t>A 4242-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45789.84356481482</v>
+        <v>44953</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8946,7 +8941,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8983,14 +8978,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 22358-2025</t>
+          <t>A 60253-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45786.46289351852</v>
+        <v>45642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9002,13 +8997,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9045,14 +9035,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 22827-2025</t>
+          <t>A 53179-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45789.84092592593</v>
+        <v>45229.40875</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9065,7 +9055,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9102,14 +9092,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 8450-2025</t>
+          <t>A 42016-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45709.45519675926</v>
+        <v>45177.47246527778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9122,7 +9112,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9159,14 +9149,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 12954-2025</t>
+          <t>A 22028-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45734.40412037037</v>
+        <v>45785.21606481481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9179,7 +9169,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9216,14 +9206,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 1191-2025</t>
+          <t>A 3572-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45666</v>
+        <v>45680.71428240741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9236,7 +9226,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9273,14 +9263,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 45599-2024</t>
+          <t>A 54412-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45579.43138888889</v>
+        <v>45617</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9293,7 +9283,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>6.8</v>
+        <v>1.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9330,14 +9320,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 10462-2025</t>
+          <t>A 22418-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45720.7705787037</v>
+        <v>45786.56079861111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9349,8 +9339,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9387,14 +9382,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 25065-2025</t>
+          <t>A 22358-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45799.70430555556</v>
+        <v>45786.46289351852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9406,8 +9401,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9444,14 +9444,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 25063-2025</t>
+          <t>A 1191-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45799.70287037037</v>
+        <v>45666</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 28703-2025</t>
+          <t>A 22828-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45820.23819444444</v>
+        <v>45789.84356481482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>7.8</v>
+        <v>0.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9558,14 +9558,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 29819-2025</t>
+          <t>A 12954-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45825.84666666666</v>
+        <v>45734.40412037037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 31677-2025</t>
+          <t>A 22827-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45834.37809027778</v>
+        <v>45789.84092592593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9672,14 +9672,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 34402-2025</t>
+          <t>A 45599-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45846.61403935185</v>
+        <v>45579.43138888889</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9729,14 +9729,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 34411-2025</t>
+          <t>A 8450-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45846.64509259259</v>
+        <v>45709.45519675926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9786,14 +9786,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 34419-2025</t>
+          <t>A 10462-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45846.66137731481</v>
+        <v>45720.7705787037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44334</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44396</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44602</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44273.60354166666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>44512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44351.30972222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44715</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44515.4119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44851.38383101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44566.46680555555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44566.46861111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44922.66780092593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44929</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>44715</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>45107.56379629629</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>45191</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>45021</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44900.7941087963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>44986.34202546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44929</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44929</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44960</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44986.65542824074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44929</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44930</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45209.52467592592</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44805.6289699074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>45799.70430555556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>45799.70287037037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>45642.8599537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44922</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>45896.87452546296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45897</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45896.87293981481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>45896.87371527778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>45898</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>45820.23819444444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>45394</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>45713.37665509259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>45229.37484953704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>45909.70793981481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>45909.72638888889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>45909.49075231481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45825.84666666666</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45338.47413194444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45527</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>44901.62020833333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>45813</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>45919.61190972223</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>45923.59707175926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44922.66564814815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45203</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44944.61564814814</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45834.37809027778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45933.58763888889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>45932</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>45769.56755787037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44979.50427083333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45401.34701388889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>45280.68280092593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>45846.66137731481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>45846.61403935185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>45846.64509259259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45561.56418981482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>45947.52902777777</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45525</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44441.32771990741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44991</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>44984</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>45610.30113425926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>45825</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>45960.52734953703</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>45965.54233796296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>45249.38699074074</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>45755.37600694445</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>45754.31761574074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>45973.71033564815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>45642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>45642</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>45980.63293981482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>45229.52552083333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>45166.81715277778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>45239</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45769.57109953704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>44944.62079861111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45527.64537037037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45324.65905092593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>46000.49719907407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45755.3825462963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>46002.53532407407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>46044</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>44965</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45558.36265046296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45194.87333333334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45519</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45775.47766203704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44845.54098379629</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>46058.66219907408</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44515.41678240741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44922.67252314815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44574</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>45166.41819444444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>45547.48993055556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>45253.55516203704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>45580</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>45757.79642361111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45049</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45754.45372685185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>45642</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45642</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>45203</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>44602.75136574074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45251.56759259259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>44755.45465277778</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>45756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>45591</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>45619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>45719.35216435185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>44953</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>44953</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45229.40875</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>45177.47246527778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>45785.21606481481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45680.71428240741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45617</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>45786.56079861111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>45786.46289351852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45666</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>45789.84356481482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>45734.40412037037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>45789.84092592593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45579.43138888889</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         <v>45709.45519675926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>45720.7705787037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44334</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44396</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44602</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44273.60354166666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>44512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44351.30972222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44715</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44515.4119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44851.38383101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44566.46680555555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44566.46861111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44922.66780092593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44929</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>44715</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>45107.56379629629</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>45191</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>45021</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44900.7941087963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>44986.34202546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44929</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44929</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44960</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44986.65542824074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44929</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44930</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45209.52467592592</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44805.6289699074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>45799.70430555556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>45799.70287037037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>45642.8599537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44922</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>45896.87452546296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45897</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45896.87293981481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>45896.87371527778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>45898</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>45820.23819444444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>45394</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>45713.37665509259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>45229.37484953704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>45909.70793981481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>45909.72638888889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>45909.49075231481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45825.84666666666</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45338.47413194444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45527</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>44901.62020833333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>45813</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>45919.61190972223</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>45923.59707175926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44922.66564814815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45203</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44944.61564814814</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45834.37809027778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45933.58763888889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>45932</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>45769.56755787037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44979.50427083333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45401.34701388889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>45280.68280092593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>45846.66137731481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>45846.61403935185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>45846.64509259259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45561.56418981482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>45947.52902777777</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45525</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44441.32771990741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44991</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>44984</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>45610.30113425926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>45825</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>45960.52734953703</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>45965.54233796296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>45249.38699074074</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>45755.37600694445</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>45754.31761574074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>45973.71033564815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>45642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>45642</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>45980.63293981482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>45229.52552083333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>45166.81715277778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>45239</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45769.57109953704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>44944.62079861111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45527.64537037037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45324.65905092593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>46000.49719907407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45755.3825462963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>46002.53532407407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>46044</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>44965</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45558.36265046296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45194.87333333334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45519</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45775.47766203704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44845.54098379629</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>46058.66219907408</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44515.41678240741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44922.67252314815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44574</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>45166.41819444444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>45547.48993055556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>45253.55516203704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>45580</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>45757.79642361111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45049</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45754.45372685185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>45642</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45642</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>45203</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>44602.75136574074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45251.56759259259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>44755.45465277778</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>45756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>45591</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>45619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>45719.35216435185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>44953</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>44953</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45229.40875</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>45177.47246527778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>45785.21606481481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45680.71428240741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45617</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>45786.56079861111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>45786.46289351852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45666</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>45789.84356481482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>45734.40412037037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>45789.84092592593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45579.43138888889</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         <v>45709.45519675926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>45720.7705787037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 23790-2021</t>
+          <t>A 37242-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44334</v>
+        <v>44396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>10.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1114,14 +1114,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 37242-2021</t>
+          <t>A 37243-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>10.3</v>
+        <v>4.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1171,14 +1171,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 37243-2021</t>
+          <t>A 23790-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44396</v>
+        <v>44334</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44602</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1689,14 +1689,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 21436-2021</t>
+          <t>A 13461-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44318</v>
+        <v>44273.60354166666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1746,14 +1746,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 13461-2021</t>
+          <t>A 21436-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44273.60354166666</v>
+        <v>44318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>44512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44351.30972222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44715</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44515.4119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44851.38383101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44566.46680555555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44566.46861111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2564,14 +2564,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62220-2022</t>
+          <t>A 53179-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44922.66780092593</v>
+        <v>45229.40875</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2621,14 +2621,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 417-2023</t>
+          <t>A 15409-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44929</v>
+        <v>45401.34701388889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2678,14 +2678,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 22789-2022</t>
+          <t>A 65114-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44715</v>
+        <v>44515.41678240741</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2735,14 +2735,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 29822-2023</t>
+          <t>A 58365-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45107.56379629629</v>
+        <v>44901.62020833333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2792,14 +2792,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 45054-2023</t>
+          <t>A 55788-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45191</v>
+        <v>45239</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2849,14 +2849,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15684-2023</t>
+          <t>A 2761-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45021</v>
+        <v>44944.61564814814</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2906,14 +2906,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 58150-2022</t>
+          <t>A 62219-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44900.7941087963</v>
+        <v>44922.66564814815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2963,14 +2963,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 10115-2023</t>
+          <t>A 60253-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44986.34202546296</v>
+        <v>45642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2980,11 +2980,6 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>TIBRO</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -3025,14 +3020,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 418-2023</t>
+          <t>A 60258-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44929</v>
+        <v>45642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3045,7 +3040,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3082,14 +3077,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 419-2023</t>
+          <t>A 60259-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44929</v>
+        <v>45642</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3102,7 +3097,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3139,14 +3134,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 5564-2023</t>
+          <t>A 33522-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44960</v>
+        <v>45519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3159,7 +3154,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3196,14 +3191,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 10235-2023</t>
+          <t>A 47649-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44986.65542824074</v>
+        <v>45203</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3216,7 +3211,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3253,14 +3248,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 420-2023</t>
+          <t>A 21738-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44929</v>
+        <v>45063</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3310,14 +3305,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 506-2023</t>
+          <t>A 40671-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44930</v>
+        <v>45558.36265046296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3330,7 +3325,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3367,14 +3362,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 48901-2023</t>
+          <t>A 1878-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45209.52467592592</v>
+        <v>44574</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3387,7 +3382,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>18.3</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3424,14 +3419,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 36868-2022</t>
+          <t>A 419-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44805.6289699074</v>
+        <v>44929</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3444,7 +3439,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3481,14 +3476,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 25065-2025</t>
+          <t>A 16924-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45799.70430555556</v>
+        <v>45755.3825462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3500,8 +3495,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3538,14 +3538,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 25063-2025</t>
+          <t>A 28703-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45799.70287037037</v>
+        <v>45820.23819444444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>7.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3595,14 +3595,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 60264-2024</t>
+          <t>A 29819-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45642.8599537037</v>
+        <v>45825.84666666666</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.9</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3652,14 +3652,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 62221-2022</t>
+          <t>A 62223-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44922</v>
+        <v>44922.67252314815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3709,14 +3709,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 40687-2025</t>
+          <t>A 10115-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45896.87452546296</v>
+        <v>44986.34202546296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3728,8 +3728,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3766,14 +3771,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 40758-2025</t>
+          <t>A 31677-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45897</v>
+        <v>45834.37809027778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3786,7 +3791,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3823,14 +3828,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 40685-2025</t>
+          <t>A 45665-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45896.87293981481</v>
+        <v>44441.32771990741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3843,7 +3848,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3880,14 +3885,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 40686-2025</t>
+          <t>A 60264-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45896.87371527778</v>
+        <v>45642.8599537037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3900,7 +3905,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3937,14 +3942,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 41130-2025</t>
+          <t>A 40687-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45898</v>
+        <v>45896.87452546296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3957,7 +3962,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3994,14 +3999,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 28703-2025</t>
+          <t>A 34402-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45820.23819444444</v>
+        <v>45846.61403935185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4014,7 +4019,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.8</v>
+        <v>5.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4051,14 +4056,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 14383-2024</t>
+          <t>A 41130-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45394</v>
+        <v>45898</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4071,7 +4076,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4108,14 +4113,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 8877-2025</t>
+          <t>A 40685-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45713.37665509259</v>
+        <v>45896.87293981481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4128,7 +4133,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>7.3</v>
+        <v>3.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4165,14 +4170,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 53160-2023</t>
+          <t>A 40686-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45229.37484953704</v>
+        <v>45896.87371527778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4185,7 +4190,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4222,14 +4227,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 43124-2025</t>
+          <t>A 34411-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45909.70793981481</v>
+        <v>45846.64509259259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4242,7 +4247,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4279,14 +4284,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 43125-2025</t>
+          <t>A 34419-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45909.72638888889</v>
+        <v>45846.66137731481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4299,7 +4304,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4336,14 +4341,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 43013-2025</t>
+          <t>A 40758-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45909.49075231481</v>
+        <v>45897</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4356,7 +4361,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4393,14 +4398,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 29819-2025</t>
+          <t>A 60254-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45825.84666666666</v>
+        <v>45642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4413,7 +4418,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>13.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4450,14 +4455,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 6355-2024</t>
+          <t>A 60260-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45338.47413194444</v>
+        <v>45642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4470,7 +4475,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4507,14 +4512,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 35055-2024</t>
+          <t>A 5564-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45527</v>
+        <v>44960</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4527,7 +4532,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4564,14 +4569,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 58365-2022</t>
+          <t>A 417-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44901.62020833333</v>
+        <v>44929</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4584,7 +4589,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4621,14 +4626,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 27671-2025</t>
+          <t>A 17150-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45813</v>
+        <v>45034</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4641,7 +4646,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4678,14 +4683,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 45248-2025</t>
+          <t>A 58150-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45919.61190972223</v>
+        <v>44900.7941087963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4698,7 +4703,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4735,14 +4740,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 45821-2025</t>
+          <t>A 34530-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45923.59707175926</v>
+        <v>45525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4755,7 +4760,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4792,14 +4797,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 62219-2022</t>
+          <t>A 43013-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44922.66564814815</v>
+        <v>45909.49075231481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4812,7 +4817,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4849,14 +4854,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 61975-2021</t>
+          <t>A 22789-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44502</v>
+        <v>44715</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4868,13 +4873,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4911,14 +4911,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 47649-2023</t>
+          <t>A 52631-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45203</v>
+        <v>45610.30113425926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4968,14 +4968,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 2761-2023</t>
+          <t>A 43125-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44944.61564814814</v>
+        <v>45909.72638888889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5025,14 +5025,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 31677-2025</t>
+          <t>A 43124-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45834.37809027778</v>
+        <v>45909.70793981481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5082,14 +5082,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 48279-2025</t>
+          <t>A 42016-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45933.58763888889</v>
+        <v>45177.47246527778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5139,14 +5139,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 47903-2025</t>
+          <t>A 27671-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45932</v>
+        <v>45813</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5196,14 +5196,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19306-2025</t>
+          <t>A 29648-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45769.56755787037</v>
+        <v>45825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5215,13 +5215,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5258,14 +5253,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 8969-2023</t>
+          <t>A 10235-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44979.50427083333</v>
+        <v>44986.65542824074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5278,7 +5273,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5315,14 +5310,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 15409-2024</t>
+          <t>A 8877-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45401.34701388889</v>
+        <v>45713.37665509259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5335,7 +5330,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>7.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5372,14 +5367,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 64438-2023</t>
+          <t>A 45248-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45280.68280092593</v>
+        <v>45919.61190972223</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5392,7 +5387,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5429,14 +5424,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 34419-2025</t>
+          <t>A 45821-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45846.66137731481</v>
+        <v>45923.59707175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5449,7 +5444,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5486,14 +5481,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 34402-2025</t>
+          <t>A 506-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45846.61403935185</v>
+        <v>44930</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5506,7 +5501,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5543,14 +5538,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 34411-2025</t>
+          <t>A 420-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45846.64509259259</v>
+        <v>44929</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5563,7 +5558,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5600,14 +5595,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 41931-2024</t>
+          <t>A 38792-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45561.56418981482</v>
+        <v>45547.48993055556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5620,7 +5615,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5657,14 +5652,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 51117-2025</t>
+          <t>A 9954-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45947.52902777777</v>
+        <v>45719.35216435185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5677,7 +5672,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5714,14 +5709,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 34530-2024</t>
+          <t>A 47903-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45525</v>
+        <v>45932</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5734,7 +5729,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5771,14 +5766,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 45665-2021</t>
+          <t>A 48279-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44441.32771990741</v>
+        <v>45933.58763888889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5791,7 +5786,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5828,14 +5823,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 10836-2023</t>
+          <t>A 58101-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44991</v>
+        <v>45249.38699074074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5848,7 +5843,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5885,14 +5880,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10737-2023</t>
+          <t>A 19306-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44984</v>
+        <v>45769.56755787037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5904,8 +5899,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5942,14 +5942,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 52631-2024</t>
+          <t>A 17611-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45610.30113425926</v>
+        <v>45757.79642361111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5999,14 +5999,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 29648-2025</t>
+          <t>A 16618-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45825</v>
+        <v>45754.31761574074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6056,14 +6056,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 53651-2025</t>
+          <t>A 47650-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45960.52734953703</v>
+        <v>45203</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.4</v>
+        <v>0.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6113,14 +6113,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 54449-2025</t>
+          <t>A 53160-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45965.54233796296</v>
+        <v>45229.37484953704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6170,14 +6170,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 58101-2023</t>
+          <t>A 51117-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45249.38699074074</v>
+        <v>45947.52902777777</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>6.1</v>
+        <v>3.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6227,14 +6227,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 16921-2025</t>
+          <t>A 53253-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45755.37600694445</v>
+        <v>45229.52552083333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6246,13 +6246,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6289,14 +6284,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 16618-2025</t>
+          <t>A 45881-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45754.31761574074</v>
+        <v>45580</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6309,7 +6304,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6346,14 +6341,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 56101-2025</t>
+          <t>A 17335-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45973.71033564815</v>
+        <v>45756</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6366,7 +6361,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6403,14 +6398,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 60254-2024</t>
+          <t>A 53651-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45642</v>
+        <v>45960.52734953703</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6423,7 +6418,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>13.4</v>
+        <v>4.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6460,14 +6455,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 60260-2024</t>
+          <t>A 35048-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45642</v>
+        <v>45527.64537037037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6480,7 +6475,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6517,14 +6512,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 57527-2025</t>
+          <t>A 6355-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45980.63293981482</v>
+        <v>45338.47413194444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6537,7 +6532,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6574,14 +6569,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 53253-2023</t>
+          <t>A 7179-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45229.52552083333</v>
+        <v>44965</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6594,7 +6589,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6631,14 +6626,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 39459-2023</t>
+          <t>A 54449-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45166.81715277778</v>
+        <v>45965.54233796296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6651,7 +6646,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6688,14 +6683,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 55788-2023</t>
+          <t>A 35055-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45239</v>
+        <v>45527</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6708,7 +6703,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6745,14 +6740,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 19310-2025</t>
+          <t>A 61975-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45769.57109953704</v>
+        <v>44502</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6766,11 +6761,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6807,14 +6802,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 2763-2023</t>
+          <t>A 56101-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44944.62079861111</v>
+        <v>45973.71033564815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6827,7 +6822,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6864,14 +6859,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 35048-2024</t>
+          <t>A 39211-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45527.64537037037</v>
+        <v>45166.41819444444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6884,7 +6879,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6921,14 +6916,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4316-2024</t>
+          <t>A 57527-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45324.65905092593</v>
+        <v>45980.63293981482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6941,7 +6936,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6978,14 +6973,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 61133-2025</t>
+          <t>A 15684-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46000.49719907407</v>
+        <v>45021</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6998,7 +6993,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7035,14 +7030,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 16924-2025</t>
+          <t>A 45669-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45755.3825462963</v>
+        <v>45194.87333333334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7054,13 +7049,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7097,14 +7087,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 61701-2025</t>
+          <t>A 54948-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46002.53532407407</v>
+        <v>45619</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7117,7 +7107,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7154,14 +7144,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 4002-2026</t>
+          <t>A 61133-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46044</v>
+        <v>46000.49719907407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7174,7 +7164,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7211,14 +7201,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 7179-2023</t>
+          <t>A 20430-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44965</v>
+        <v>45775.47766203704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7231,7 +7221,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7268,14 +7258,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 40671-2024</t>
+          <t>A 41931-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45558.36265046296</v>
+        <v>45561.56418981482</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7288,7 +7278,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7325,14 +7315,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 21738-2023</t>
+          <t>A 61701-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45063</v>
+        <v>46002.53532407407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7345,7 +7335,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7382,14 +7372,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 45669-2023</t>
+          <t>A 64438-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45194.87333333334</v>
+        <v>45280.68280092593</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7402,7 +7392,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7439,14 +7429,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 33522-2024</t>
+          <t>A 4002-2026</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45519</v>
+        <v>46044</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7459,7 +7449,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7496,14 +7486,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 20430-2025</t>
+          <t>A 19310-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45775.47766203704</v>
+        <v>45769.57109953704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7515,8 +7505,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7553,14 +7548,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 45588-2022</t>
+          <t>A 16921-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44845.54098379629</v>
+        <v>45755.37600694445</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7572,8 +7567,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7617,7 +7617,7 @@
         <v>46058.66219907408</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7667,14 +7667,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 17150-2023</t>
+          <t>A 48901-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45034</v>
+        <v>45209.52467592592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.3</v>
+        <v>18.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7724,14 +7724,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 65114-2021</t>
+          <t>A 39459-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44515.41678240741</v>
+        <v>45166.81715277778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7781,14 +7781,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 62223-2022</t>
+          <t>A 36868-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44922.67252314815</v>
+        <v>44805.6289699074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7838,14 +7838,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 1878-2022</t>
+          <t>A 4241-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44574</v>
+        <v>44953</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7895,14 +7895,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 39211-2023</t>
+          <t>A 4242-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45166.41819444444</v>
+        <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7952,14 +7952,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 38792-2024</t>
+          <t>A 45054-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45547.48993055556</v>
+        <v>45191</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8009,14 +8009,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 59273-2023</t>
+          <t>A 29728-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45253.55516203704</v>
+        <v>44755.45465277778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8066,14 +8066,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 45881-2024</t>
+          <t>A 48510-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45580</v>
+        <v>45591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8123,14 +8123,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 17611-2025</t>
+          <t>A 6872-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45757.79642361111</v>
+        <v>44602.75136574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8180,14 +8180,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 19384-2023</t>
+          <t>A 29822-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45049</v>
+        <v>45107.56379629629</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8237,14 +8237,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 16687-2025</t>
+          <t>A 62221-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45754.45372685185</v>
+        <v>44922</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8294,14 +8294,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 60258-2024</t>
+          <t>A 2763-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45642</v>
+        <v>44944.62079861111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8351,14 +8351,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 60259-2024</t>
+          <t>A 19384-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45642</v>
+        <v>45049</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8408,14 +8408,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 47650-2023</t>
+          <t>A 16687-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45203</v>
+        <v>45754.45372685185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8465,14 +8465,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 6872-2022</t>
+          <t>A 62220-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44602.75136574074</v>
+        <v>44922.66780092593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8522,14 +8522,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 58633-2023</t>
+          <t>A 418-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45251.56759259259</v>
+        <v>44929</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8579,14 +8579,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 29728-2022</t>
+          <t>A 10836-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44755.45465277778</v>
+        <v>44991</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8636,14 +8636,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 17335-2025</t>
+          <t>A 14383-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45756</v>
+        <v>45394</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8693,14 +8693,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 48510-2024</t>
+          <t>A 4316-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45591</v>
+        <v>45324.65905092593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8750,14 +8750,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 54948-2024</t>
+          <t>A 10737-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45619</v>
+        <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8807,14 +8807,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 9954-2025</t>
+          <t>A 45588-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45719.35216435185</v>
+        <v>44845.54098379629</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8864,14 +8864,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 4241-2023</t>
+          <t>A 58633-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44953</v>
+        <v>45251.56759259259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8921,14 +8921,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 4242-2023</t>
+          <t>A 59273-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44953</v>
+        <v>45253.55516203704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8978,14 +8978,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 60253-2024</t>
+          <t>A 8969-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45642</v>
+        <v>44979.50427083333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9035,14 +9035,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 53179-2023</t>
+          <t>A 54412-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45229.40875</v>
+        <v>45617</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 42016-2023</t>
+          <t>A 3572-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45177.47246527778</v>
+        <v>45680.71428240741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9149,14 +9149,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 22028-2025</t>
+          <t>A 22418-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45785.21606481481</v>
+        <v>45786.56079861111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9168,8 +9168,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9206,14 +9211,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 3572-2025</t>
+          <t>A 22028-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45680.71428240741</v>
+        <v>45785.21606481481</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9226,7 +9231,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9263,14 +9268,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 54412-2024</t>
+          <t>A 22828-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45617</v>
+        <v>45789.84356481482</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9283,7 +9288,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9320,14 +9325,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 22418-2025</t>
+          <t>A 22358-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45786.56079861111</v>
+        <v>45786.46289351852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9345,7 +9350,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9382,14 +9387,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 22358-2025</t>
+          <t>A 22827-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45786.46289351852</v>
+        <v>45789.84092592593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9401,13 +9406,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9444,14 +9444,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1191-2025</t>
+          <t>A 8450-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45666</v>
+        <v>45709.45519675926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 22828-2025</t>
+          <t>A 12954-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45789.84356481482</v>
+        <v>45734.40412037037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9558,14 +9558,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 12954-2025</t>
+          <t>A 1191-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45734.40412037037</v>
+        <v>45666</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 22827-2025</t>
+          <t>A 45599-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45789.84092592593</v>
+        <v>45579.43138888889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9672,14 +9672,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 45599-2024</t>
+          <t>A 10462-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45579.43138888889</v>
+        <v>45720.7705787037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>6.8</v>
+        <v>2.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9729,14 +9729,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 8450-2025</t>
+          <t>A 25065-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45709.45519675926</v>
+        <v>45799.70430555556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9786,14 +9786,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 10462-2025</t>
+          <t>A 25063-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45720.7705787037</v>
+        <v>45799.70287037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 37242-2021</t>
+          <t>A 23790-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44396</v>
+        <v>44334</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>10.3</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1114,14 +1114,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 37243-2021</t>
+          <t>A 37242-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.9</v>
+        <v>10.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1171,14 +1171,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 23790-2021</t>
+          <t>A 37243-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44334</v>
+        <v>44396</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44602</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1689,14 +1689,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 13461-2021</t>
+          <t>A 21436-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44273.60354166666</v>
+        <v>44318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1746,14 +1746,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 21436-2021</t>
+          <t>A 13461-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44318</v>
+        <v>44273.60354166666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>44512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44351.30972222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44715</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44515.4119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44851.38383101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44566.46680555555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44566.46861111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2564,14 +2564,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 53179-2023</t>
+          <t>A 60264-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45229.40875</v>
+        <v>45642.8599537037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2621,14 +2621,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 15409-2024</t>
+          <t>A 417-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45401.34701388889</v>
+        <v>44929</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2678,14 +2678,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 65114-2021</t>
+          <t>A 54948-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44515.41678240741</v>
+        <v>45619</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2735,14 +2735,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 58365-2022</t>
+          <t>A 22789-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44901.62020833333</v>
+        <v>44715</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2792,14 +2792,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 55788-2023</t>
+          <t>A 62220-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45239</v>
+        <v>44922.66780092593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2849,14 +2849,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2761-2023</t>
+          <t>A 40687-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44944.61564814814</v>
+        <v>45896.87452546296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2906,14 +2906,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 62219-2022</t>
+          <t>A 40758-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44922.66564814815</v>
+        <v>45897</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>5.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2963,14 +2963,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 60253-2024</t>
+          <t>A 29822-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45642</v>
+        <v>45107.56379629629</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3020,14 +3020,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 60258-2024</t>
+          <t>A 9954-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45642</v>
+        <v>45719.35216435185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3077,14 +3077,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 60259-2024</t>
+          <t>A 40685-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45642</v>
+        <v>45896.87293981481</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3134,14 +3134,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 33522-2024</t>
+          <t>A 40686-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45519</v>
+        <v>45896.87371527778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3191,14 +3191,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 47649-2023</t>
+          <t>A 45054-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45203</v>
+        <v>45191</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3248,14 +3248,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 21738-2023</t>
+          <t>A 4241-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45063</v>
+        <v>44953</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3305,14 +3305,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 40671-2024</t>
+          <t>A 4242-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45558.36265046296</v>
+        <v>44953</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3362,14 +3362,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 1878-2022</t>
+          <t>A 60253-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44574</v>
+        <v>45642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3419,14 +3419,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 419-2023</t>
+          <t>A 58150-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44929</v>
+        <v>44900.7941087963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3476,14 +3476,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 16924-2025</t>
+          <t>A 10115-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45755.3825462963</v>
+        <v>44986.34202546296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3538,14 +3538,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 28703-2025</t>
+          <t>A 15684-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45820.23819444444</v>
+        <v>45021</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7.8</v>
+        <v>4.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3595,14 +3595,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 29819-2025</t>
+          <t>A 53179-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45825.84666666666</v>
+        <v>45229.40875</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3652,14 +3652,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 62223-2022</t>
+          <t>A 41130-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44922.67252314815</v>
+        <v>45898</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3709,14 +3709,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 10115-2023</t>
+          <t>A 5564-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44986.34202546296</v>
+        <v>44960</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3728,13 +3728,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3771,14 +3766,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 31677-2025</t>
+          <t>A 42016-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45834.37809027778</v>
+        <v>45177.47246527778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3791,7 +3786,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3828,14 +3823,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 45665-2021</t>
+          <t>A 43124-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44441.32771990741</v>
+        <v>45909.70793981481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3848,7 +3843,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3885,14 +3880,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 60264-2024</t>
+          <t>A 418-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45642.8599537037</v>
+        <v>44929</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3905,7 +3900,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3942,14 +3937,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 40687-2025</t>
+          <t>A 419-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45896.87452546296</v>
+        <v>44929</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3962,7 +3957,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3999,14 +3994,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34402-2025</t>
+          <t>A 43125-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45846.61403935185</v>
+        <v>45909.72638888889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4019,7 +4014,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4056,14 +4051,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 41130-2025</t>
+          <t>A 43013-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45898</v>
+        <v>45909.49075231481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4076,7 +4071,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4113,14 +4108,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40685-2025</t>
+          <t>A 22028-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45896.87293981481</v>
+        <v>45785.21606481481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4133,7 +4128,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4170,14 +4165,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40686-2025</t>
+          <t>A 3572-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45896.87371527778</v>
+        <v>45680.71428240741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4190,7 +4185,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4227,14 +4222,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 34411-2025</t>
+          <t>A 54412-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45846.64509259259</v>
+        <v>45617</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4247,7 +4242,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4284,14 +4279,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 34419-2025</t>
+          <t>A 22418-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45846.66137731481</v>
+        <v>45786.56079861111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4303,8 +4298,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4341,14 +4341,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40758-2025</t>
+          <t>A 10235-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45897</v>
+        <v>44986.65542824074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.1</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4398,14 +4398,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 60254-2024</t>
+          <t>A 22358-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45642</v>
+        <v>45786.46289351852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4417,8 +4417,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>13.4</v>
+        <v>1.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4455,14 +4460,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 60260-2024</t>
+          <t>A 420-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45642</v>
+        <v>44929</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4475,7 +4480,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4512,14 +4517,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 5564-2023</t>
+          <t>A 506-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44960</v>
+        <v>44930</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4532,7 +4537,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4569,14 +4574,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 417-2023</t>
+          <t>A 48901-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44929</v>
+        <v>45209.52467592592</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4589,7 +4594,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>18.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4626,14 +4631,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17150-2023</t>
+          <t>A 1191-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45034</v>
+        <v>45666</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4646,7 +4651,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4683,14 +4688,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58150-2022</t>
+          <t>A 22828-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44900.7941087963</v>
+        <v>45789.84356481482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4703,7 +4708,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4740,14 +4745,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34530-2024</t>
+          <t>A 36868-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45525</v>
+        <v>44805.6289699074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4760,7 +4765,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4797,14 +4802,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43013-2025</t>
+          <t>A 12954-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45909.49075231481</v>
+        <v>45734.40412037037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4817,7 +4822,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4854,14 +4859,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 22789-2022</t>
+          <t>A 22827-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44715</v>
+        <v>45789.84092592593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4874,7 +4879,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4911,14 +4916,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 52631-2024</t>
+          <t>A 45599-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45610.30113425926</v>
+        <v>45579.43138888889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4931,7 +4936,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>6.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4968,14 +4973,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43125-2025</t>
+          <t>A 8450-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45909.72638888889</v>
+        <v>45709.45519675926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4988,7 +4993,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5025,14 +5030,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 43124-2025</t>
+          <t>A 27671-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45909.70793981481</v>
+        <v>45813</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5045,7 +5050,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.3</v>
+        <v>5.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5082,14 +5087,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 42016-2023</t>
+          <t>A 10462-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45177.47246527778</v>
+        <v>45720.7705787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5102,7 +5107,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5139,14 +5144,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 27671-2025</t>
+          <t>A 45248-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45813</v>
+        <v>45919.61190972223</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5159,7 +5164,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5196,14 +5201,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29648-2025</t>
+          <t>A 25065-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45825</v>
+        <v>45799.70430555556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5216,7 +5221,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5253,14 +5258,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 10235-2023</t>
+          <t>A 25063-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44986.65542824074</v>
+        <v>45799.70287037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5273,7 +5278,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5310,14 +5315,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 8877-2025</t>
+          <t>A 62221-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45713.37665509259</v>
+        <v>44922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5330,7 +5335,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>7.3</v>
+        <v>3.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5367,14 +5372,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 45248-2025</t>
+          <t>A 45821-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45919.61190972223</v>
+        <v>45923.59707175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5424,14 +5429,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 45821-2025</t>
+          <t>A 14383-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45923.59707175926</v>
+        <v>45394</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5444,7 +5449,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5481,14 +5486,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 506-2023</t>
+          <t>A 8877-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44930</v>
+        <v>45713.37665509259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5501,7 +5506,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.7</v>
+        <v>7.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5538,14 +5543,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 420-2023</t>
+          <t>A 53160-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44929</v>
+        <v>45229.37484953704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5558,7 +5563,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5595,14 +5600,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 38792-2024</t>
+          <t>A 6355-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45547.48993055556</v>
+        <v>45338.47413194444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5615,7 +5620,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5652,14 +5657,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9954-2025</t>
+          <t>A 28703-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45719.35216435185</v>
+        <v>45820.23819444444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5672,7 +5677,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>7.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5709,14 +5714,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 47903-2025</t>
+          <t>A 35055-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45932</v>
+        <v>45527</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5729,7 +5734,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5766,14 +5771,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 48279-2025</t>
+          <t>A 58365-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45933.58763888889</v>
+        <v>44901.62020833333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5786,7 +5791,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5823,14 +5828,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 58101-2023</t>
+          <t>A 29819-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45249.38699074074</v>
+        <v>45825.84666666666</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5843,7 +5848,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6.1</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5880,14 +5885,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 19306-2025</t>
+          <t>A 48279-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45769.56755787037</v>
+        <v>45933.58763888889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5899,13 +5904,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5942,14 +5942,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 17611-2025</t>
+          <t>A 62219-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45757.79642361111</v>
+        <v>44922.66564814815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5999,14 +5999,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 16618-2025</t>
+          <t>A 61975-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45754.31761574074</v>
+        <v>44502</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6018,8 +6018,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6056,14 +6061,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 47650-2023</t>
+          <t>A 47649-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
         <v>45203</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6076,7 +6081,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6113,14 +6118,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 53160-2023</t>
+          <t>A 31677-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45229.37484953704</v>
+        <v>45834.37809027778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6133,7 +6138,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6170,14 +6175,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 51117-2025</t>
+          <t>A 47903-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45947.52902777777</v>
+        <v>45932</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6190,7 +6195,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6227,14 +6232,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 53253-2023</t>
+          <t>A 2761-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45229.52552083333</v>
+        <v>44944.61564814814</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6247,7 +6252,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6284,14 +6289,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 45881-2024</t>
+          <t>A 19306-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45580</v>
+        <v>45769.56755787037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6303,8 +6308,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6341,14 +6351,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 17335-2025</t>
+          <t>A 34419-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45756</v>
+        <v>45846.66137731481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6361,7 +6371,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6398,14 +6408,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 53651-2025</t>
+          <t>A 34402-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45960.52734953703</v>
+        <v>45846.61403935185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6418,7 +6428,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6455,14 +6465,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 35048-2024</t>
+          <t>A 34411-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45527.64537037037</v>
+        <v>45846.64509259259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6475,7 +6485,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6512,14 +6522,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 6355-2024</t>
+          <t>A 8969-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45338.47413194444</v>
+        <v>44979.50427083333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6532,7 +6542,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6569,14 +6579,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 7179-2023</t>
+          <t>A 15409-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44965</v>
+        <v>45401.34701388889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6589,7 +6599,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6626,14 +6636,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 54449-2025</t>
+          <t>A 64438-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45965.54233796296</v>
+        <v>45280.68280092593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6646,7 +6656,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6683,14 +6693,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 35055-2024</t>
+          <t>A 41931-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45527</v>
+        <v>45561.56418981482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6703,7 +6713,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6740,14 +6750,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 61975-2021</t>
+          <t>A 34530-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44502</v>
+        <v>45525</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6759,13 +6769,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6802,14 +6807,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 56101-2025</t>
+          <t>A 45665-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45973.71033564815</v>
+        <v>44441.32771990741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6822,7 +6827,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6859,14 +6864,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 39211-2023</t>
+          <t>A 51117-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45166.41819444444</v>
+        <v>45947.52902777777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6879,7 +6884,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6916,14 +6921,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 57527-2025</t>
+          <t>A 29648-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45980.63293981482</v>
+        <v>45825</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6936,7 +6941,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6973,14 +6978,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 15684-2023</t>
+          <t>A 10836-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45021</v>
+        <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6993,7 +6998,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7030,14 +7035,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 45669-2023</t>
+          <t>A 10737-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45194.87333333334</v>
+        <v>44984</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7050,7 +7055,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7087,14 +7092,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 54948-2024</t>
+          <t>A 52631-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45619</v>
+        <v>45610.30113425926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7107,7 +7112,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7144,14 +7149,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 61133-2025</t>
+          <t>A 58101-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46000.49719907407</v>
+        <v>45249.38699074074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7164,7 +7169,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7201,14 +7206,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 20430-2025</t>
+          <t>A 16921-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45775.47766203704</v>
+        <v>45755.37600694445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7220,8 +7225,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7258,14 +7268,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 41931-2024</t>
+          <t>A 16618-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45561.56418981482</v>
+        <v>45754.31761574074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7278,7 +7288,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7315,14 +7325,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 61701-2025</t>
+          <t>A 53651-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46002.53532407407</v>
+        <v>45960.52734953703</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7335,7 +7345,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7372,14 +7382,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 64438-2023</t>
+          <t>A 60254-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45280.68280092593</v>
+        <v>45642</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7392,7 +7402,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5.8</v>
+        <v>13.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7429,14 +7439,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 4002-2026</t>
+          <t>A 60260-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46044</v>
+        <v>45642</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7449,7 +7459,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7486,14 +7496,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 19310-2025</t>
+          <t>A 54449-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45769.57109953704</v>
+        <v>45965.54233796296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7505,13 +7515,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7548,14 +7553,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 16921-2025</t>
+          <t>A 53253-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45755.37600694445</v>
+        <v>45229.52552083333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7567,13 +7572,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7610,14 +7610,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 7310-2026</t>
+          <t>A 56101-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46058.66219907408</v>
+        <v>45973.71033564815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7667,14 +7667,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 48901-2023</t>
+          <t>A 39459-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45209.52467592592</v>
+        <v>45166.81715277778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>18.3</v>
+        <v>1.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7724,14 +7724,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 39459-2023</t>
+          <t>A 57527-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45166.81715277778</v>
+        <v>45980.63293981482</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7781,14 +7781,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 36868-2022</t>
+          <t>A 55788-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44805.6289699074</v>
+        <v>45239</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7838,14 +7838,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 4241-2023</t>
+          <t>A 19310-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44953</v>
+        <v>45769.57109953704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7857,8 +7857,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7895,14 +7900,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 4242-2023</t>
+          <t>A 2763-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44953</v>
+        <v>44944.62079861111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7915,7 +7920,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7952,14 +7957,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45054-2023</t>
+          <t>A 35048-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45191</v>
+        <v>45527.64537037037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7972,7 +7977,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8009,14 +8014,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 29728-2022</t>
+          <t>A 4316-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44755.45465277778</v>
+        <v>45324.65905092593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8029,7 +8034,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8066,14 +8071,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 48510-2024</t>
+          <t>A 16924-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45591</v>
+        <v>45755.3825462963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8085,8 +8090,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8123,14 +8133,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 6872-2022</t>
+          <t>A 61133-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44602.75136574074</v>
+        <v>46000.49719907407</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8143,7 +8153,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8180,14 +8190,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 29822-2023</t>
+          <t>A 61701-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45107.56379629629</v>
+        <v>46002.53532407407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8200,7 +8210,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8237,14 +8247,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 62221-2022</t>
+          <t>A 7179-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44922</v>
+        <v>44965</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8257,7 +8267,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8294,14 +8304,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 2763-2023</t>
+          <t>A 40671-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44944.62079861111</v>
+        <v>45558.36265046296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8314,7 +8324,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8351,14 +8361,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 19384-2023</t>
+          <t>A 4002-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45049</v>
+        <v>46044</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8371,7 +8381,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8408,14 +8418,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 16687-2025</t>
+          <t>A 21738-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45754.45372685185</v>
+        <v>45063</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8428,7 +8438,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8465,14 +8475,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 62220-2022</t>
+          <t>A 45669-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44922.66780092593</v>
+        <v>45194.87333333334</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8485,7 +8495,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8522,14 +8532,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 418-2023</t>
+          <t>A 33522-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44929</v>
+        <v>45519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8542,7 +8552,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8579,14 +8589,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 10836-2023</t>
+          <t>A 20430-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44991</v>
+        <v>45775.47766203704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8599,7 +8609,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8636,14 +8646,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 14383-2024</t>
+          <t>A 45588-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45394</v>
+        <v>44845.54098379629</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8656,7 +8666,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8693,14 +8703,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 4316-2024</t>
+          <t>A 17150-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45324.65905092593</v>
+        <v>45034</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8713,7 +8723,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8750,14 +8760,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 10737-2023</t>
+          <t>A 65114-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44984</v>
+        <v>44515.41678240741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8770,7 +8780,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8807,14 +8817,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 45588-2022</t>
+          <t>A 62223-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44845.54098379629</v>
+        <v>44922.67252314815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8827,7 +8837,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8864,14 +8874,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 58633-2023</t>
+          <t>A 7310-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45251.56759259259</v>
+        <v>46058.66219907408</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8884,7 +8894,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8921,14 +8931,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 59273-2023</t>
+          <t>A 1878-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45253.55516203704</v>
+        <v>44574</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8941,7 +8951,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8978,14 +8988,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 8969-2023</t>
+          <t>A 39211-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44979.50427083333</v>
+        <v>45166.41819444444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8998,7 +9008,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9035,14 +9045,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 54412-2024</t>
+          <t>A 38792-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45617</v>
+        <v>45547.48993055556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9055,7 +9065,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9092,14 +9102,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 3572-2025</t>
+          <t>A 59273-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45680.71428240741</v>
+        <v>45253.55516203704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9112,7 +9122,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9149,14 +9159,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 22418-2025</t>
+          <t>A 45881-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45786.56079861111</v>
+        <v>45580</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9168,13 +9178,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9211,14 +9216,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 22028-2025</t>
+          <t>A 17611-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45785.21606481481</v>
+        <v>45757.79642361111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9231,7 +9236,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9268,14 +9273,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 22828-2025</t>
+          <t>A 19384-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45789.84356481482</v>
+        <v>45049</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9288,7 +9293,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9325,14 +9330,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 22358-2025</t>
+          <t>A 16687-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45786.46289351852</v>
+        <v>45754.45372685185</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9344,13 +9349,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9387,14 +9387,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 22827-2025</t>
+          <t>A 60258-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45789.84092592593</v>
+        <v>45642</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9444,14 +9444,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 8450-2025</t>
+          <t>A 60259-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45709.45519675926</v>
+        <v>45642</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 12954-2025</t>
+          <t>A 47650-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45734.40412037037</v>
+        <v>45203</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9558,14 +9558,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 1191-2025</t>
+          <t>A 6872-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45666</v>
+        <v>44602.75136574074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 45599-2024</t>
+          <t>A 58633-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45579.43138888889</v>
+        <v>45251.56759259259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>6.8</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9672,14 +9672,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 10462-2025</t>
+          <t>A 29728-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45720.7705787037</v>
+        <v>44755.45465277778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9729,14 +9729,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 25065-2025</t>
+          <t>A 17335-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45799.70430555556</v>
+        <v>45756</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9786,14 +9786,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 25063-2025</t>
+          <t>A 48510-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45799.70287037037</v>
+        <v>45591</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44334</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44396</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44602</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44273.60354166666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>44512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1860,14 +1860,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 27289-2021</t>
+          <t>A 23080-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44351.30972222222</v>
+        <v>44715</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1917,14 +1917,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 23080-2022</t>
+          <t>A 65112-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44715</v>
+        <v>44515.4119212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1974,14 +1974,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 65112-2021</t>
+          <t>A 27289-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44515.4119212963</v>
+        <v>44351.30972222222</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,14 +2150,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 46707-2022</t>
+          <t>A 495-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44851.38383101852</v>
+        <v>44566.46680555555</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,8 +2169,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2207,14 +2212,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 495-2022</t>
+          <t>A 496-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44566.46680555555</v>
+        <v>44566.46861111111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2232,7 +2237,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2269,14 +2274,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 496-2022</t>
+          <t>A 46707-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44566.46861111111</v>
+        <v>44851.38383101852</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2288,13 +2293,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2507,14 +2507,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 42048-2021</t>
+          <t>A 17611-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44426</v>
+        <v>45757.79642361111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2564,14 +2564,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 60264-2024</t>
+          <t>A 42048-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45642.8599537037</v>
+        <v>44426</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2621,14 +2621,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 417-2023</t>
+          <t>A 16618-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44929</v>
+        <v>45754.31761574074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2678,14 +2678,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 54948-2024</t>
+          <t>A 53179-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45619</v>
+        <v>45229.40875</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2735,14 +2735,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 22789-2022</t>
+          <t>A 47650-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44715</v>
+        <v>45203</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6</v>
+        <v>0.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2792,14 +2792,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 62220-2022</t>
+          <t>A 53160-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44922.66780092593</v>
+        <v>45229.37484953704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2849,14 +2849,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 40687-2025</t>
+          <t>A 55788-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45896.87452546296</v>
+        <v>45239</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2906,14 +2906,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 40758-2025</t>
+          <t>A 53253-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45897</v>
+        <v>45229.52552083333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2963,14 +2963,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 29822-2023</t>
+          <t>A 45881-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45107.56379629629</v>
+        <v>45580</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3020,14 +3020,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 9954-2025</t>
+          <t>A 2761-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45719.35216435185</v>
+        <v>44944.61564814814</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3077,14 +3077,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 40685-2025</t>
+          <t>A 65114-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45896.87293981481</v>
+        <v>44515.41678240741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3134,14 +3134,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 40686-2025</t>
+          <t>A 62219-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45896.87371527778</v>
+        <v>44922.66564814815</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3191,14 +3191,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 45054-2023</t>
+          <t>A 15409-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45191</v>
+        <v>45401.34701388889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3248,14 +3248,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 4241-2023</t>
+          <t>A 17335-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44953</v>
+        <v>45756</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3305,14 +3305,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 4242-2023</t>
+          <t>A 419-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44953</v>
+        <v>44929</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>45642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3419,14 +3419,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 58150-2022</t>
+          <t>A 60258-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44900.7941087963</v>
+        <v>45642</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3476,14 +3476,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 10115-2023</t>
+          <t>A 60259-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44986.34202546296</v>
+        <v>45642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3495,13 +3495,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3538,14 +3533,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 15684-2023</t>
+          <t>A 47649-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45021</v>
+        <v>45203</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3558,7 +3553,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3595,14 +3590,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 53179-2023</t>
+          <t>A 35048-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45229.40875</v>
+        <v>45527.64537037037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3615,7 +3610,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3652,14 +3647,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 41130-2025</t>
+          <t>A 33522-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45898</v>
+        <v>45519</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3672,7 +3667,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3709,14 +3704,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 5564-2023</t>
+          <t>A 6355-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44960</v>
+        <v>45338.47413194444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3729,7 +3724,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3766,14 +3761,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 42016-2023</t>
+          <t>A 7179-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45177.47246527778</v>
+        <v>44965</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3786,7 +3781,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3823,14 +3818,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 43124-2025</t>
+          <t>A 21738-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45909.70793981481</v>
+        <v>45063</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3843,7 +3838,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3880,14 +3875,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 418-2023</t>
+          <t>A 58365-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44929</v>
+        <v>44901.62020833333</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3900,7 +3895,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3937,14 +3932,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 419-2023</t>
+          <t>A 1878-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44929</v>
+        <v>44574</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3957,7 +3952,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3994,14 +3989,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 43125-2025</t>
+          <t>A 40671-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45909.72638888889</v>
+        <v>45558.36265046296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4014,7 +4009,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4051,14 +4046,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 43013-2025</t>
+          <t>A 35055-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45909.49075231481</v>
+        <v>45527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4071,7 +4066,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4108,14 +4103,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 22028-2025</t>
+          <t>A 61975-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45785.21606481481</v>
+        <v>44502</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4127,8 +4122,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4165,14 +4165,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 3572-2025</t>
+          <t>A 16924-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45680.71428240741</v>
+        <v>45755.3825462963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4184,8 +4184,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4222,14 +4227,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 54412-2024</t>
+          <t>A 4241-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45617</v>
+        <v>44953</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4242,7 +4247,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4279,14 +4284,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 22418-2025</t>
+          <t>A 4242-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45786.56079861111</v>
+        <v>44953</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4298,13 +4303,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4341,14 +4341,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 10235-2023</t>
+          <t>A 39211-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44986.65542824074</v>
+        <v>45166.41819444444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4398,14 +4398,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 22358-2025</t>
+          <t>A 62223-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45786.46289351852</v>
+        <v>44922.67252314815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4417,13 +4417,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4460,14 +4455,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 420-2023</t>
+          <t>A 10115-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44929</v>
+        <v>44986.34202546296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4479,8 +4474,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4517,14 +4517,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 506-2023</t>
+          <t>A 45665-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44930</v>
+        <v>44441.32771990741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4574,14 +4574,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 48901-2023</t>
+          <t>A 15684-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45209.52467592592</v>
+        <v>45021</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>18.3</v>
+        <v>4.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4631,14 +4631,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 1191-2025</t>
+          <t>A 28703-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45666</v>
+        <v>45820.23819444444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>7.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4688,14 +4688,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 22828-2025</t>
+          <t>A 29819-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45789.84356481482</v>
+        <v>45825.84666666666</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4745,14 +4745,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36868-2022</t>
+          <t>A 45054-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44805.6289699074</v>
+        <v>45191</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4802,14 +4802,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 12954-2025</t>
+          <t>A 29728-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45734.40412037037</v>
+        <v>44755.45465277778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4859,14 +4859,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 22827-2025</t>
+          <t>A 60254-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45789.84092592593</v>
+        <v>45642</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>13.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4916,14 +4916,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 45599-2024</t>
+          <t>A 60260-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45579.43138888889</v>
+        <v>45642</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4973,14 +4973,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 8450-2025</t>
+          <t>A 48510-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45709.45519675926</v>
+        <v>45591</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5030,14 +5030,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 27671-2025</t>
+          <t>A 5564-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45813</v>
+        <v>44960</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5087,14 +5087,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 10462-2025</t>
+          <t>A 417-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45720.7705787037</v>
+        <v>44929</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5144,14 +5144,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45248-2025</t>
+          <t>A 6872-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45919.61190972223</v>
+        <v>44602.75136574074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5201,14 +5201,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25065-2025</t>
+          <t>A 29822-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45799.70430555556</v>
+        <v>45107.56379629629</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5258,14 +5258,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 25063-2025</t>
+          <t>A 17150-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45799.70287037037</v>
+        <v>45034</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5315,14 +5315,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 62221-2022</t>
+          <t>A 31677-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44922</v>
+        <v>45834.37809027778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5372,14 +5372,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 45821-2025</t>
+          <t>A 62221-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45923.59707175926</v>
+        <v>44922</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5429,14 +5429,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14383-2024</t>
+          <t>A 58150-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45394</v>
+        <v>44900.7941087963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5486,14 +5486,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 8877-2025</t>
+          <t>A 45669-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45713.37665509259</v>
+        <v>45194.87333333334</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7.3</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5543,14 +5543,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 53160-2023</t>
+          <t>A 2763-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45229.37484953704</v>
+        <v>44944.62079861111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5600,14 +5600,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 6355-2024</t>
+          <t>A 54948-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45338.47413194444</v>
+        <v>45619</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5657,14 +5657,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28703-2025</t>
+          <t>A 19384-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45820.23819444444</v>
+        <v>45049</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7.8</v>
+        <v>1.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5714,14 +5714,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 35055-2024</t>
+          <t>A 22789-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45527</v>
+        <v>44715</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5771,14 +5771,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 58365-2022</t>
+          <t>A 34402-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44901.62020833333</v>
+        <v>45846.61403935185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5828,14 +5828,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 29819-2025</t>
+          <t>A 52631-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45825.84666666666</v>
+        <v>45610.30113425926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5885,14 +5885,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 48279-2025</t>
+          <t>A 34411-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45933.58763888889</v>
+        <v>45846.64509259259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5942,14 +5942,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 62219-2022</t>
+          <t>A 34419-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44922.66564814815</v>
+        <v>45846.66137731481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5999,14 +5999,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 61975-2021</t>
+          <t>A 20430-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44502</v>
+        <v>45775.47766203704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6018,13 +6018,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6061,14 +6056,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 47649-2023</t>
+          <t>A 41931-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45203</v>
+        <v>45561.56418981482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6081,7 +6076,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6118,14 +6113,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 31677-2025</t>
+          <t>A 42016-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45834.37809027778</v>
+        <v>45177.47246527778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6138,7 +6133,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6175,14 +6170,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 47903-2025</t>
+          <t>A 16687-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45932</v>
+        <v>45754.45372685185</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6195,7 +6190,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6232,14 +6227,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 2761-2023</t>
+          <t>A 62220-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44944.61564814814</v>
+        <v>44922.66780092593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6252,7 +6247,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6289,14 +6284,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 19306-2025</t>
+          <t>A 10235-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45769.56755787037</v>
+        <v>44986.65542824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6308,13 +6303,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6351,14 +6341,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 34419-2025</t>
+          <t>A 8877-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45846.66137731481</v>
+        <v>45713.37665509259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6371,7 +6361,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6408,14 +6398,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 34402-2025</t>
+          <t>A 34530-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45846.61403935185</v>
+        <v>45525</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6428,7 +6418,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6465,14 +6455,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 34411-2025</t>
+          <t>A 506-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45846.64509259259</v>
+        <v>44930</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6485,7 +6475,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6522,14 +6512,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 8969-2023</t>
+          <t>A 420-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44979.50427083333</v>
+        <v>44929</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6542,7 +6532,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6579,14 +6569,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 15409-2024</t>
+          <t>A 64438-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45401.34701388889</v>
+        <v>45280.68280092593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6599,7 +6589,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6636,14 +6626,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 64438-2023</t>
+          <t>A 38792-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45280.68280092593</v>
+        <v>45547.48993055556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6656,7 +6646,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6693,14 +6683,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 41931-2024</t>
+          <t>A 418-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45561.56418981482</v>
+        <v>44929</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6713,7 +6703,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6750,14 +6740,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 34530-2024</t>
+          <t>A 10836-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45525</v>
+        <v>44991</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6770,7 +6760,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6807,14 +6797,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 45665-2021</t>
+          <t>A 29648-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44441.32771990741</v>
+        <v>45825</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6827,7 +6817,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6864,14 +6854,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 51117-2025</t>
+          <t>A 9954-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45947.52902777777</v>
+        <v>45719.35216435185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6884,7 +6874,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6921,14 +6911,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 29648-2025</t>
+          <t>A 19310-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45825</v>
+        <v>45769.57109953704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6938,6 +6928,11 @@
       <c r="E111" t="inlineStr">
         <is>
           <t>TIBRO</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -6978,14 +6973,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 10836-2023</t>
+          <t>A 16921-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44991</v>
+        <v>45755.37600694445</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6997,8 +6992,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7035,14 +7035,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 10737-2023</t>
+          <t>A 58101-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44984</v>
+        <v>45249.38699074074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.4</v>
+        <v>6.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7092,14 +7092,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 52631-2024</t>
+          <t>A 19306-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45610.30113425926</v>
+        <v>45769.56755787037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7111,8 +7111,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7149,14 +7154,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 58101-2023</t>
+          <t>A 48901-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45249.38699074074</v>
+        <v>45209.52467592592</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7169,7 +7174,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>6.1</v>
+        <v>18.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7206,14 +7211,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 16921-2025</t>
+          <t>A 39459-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45755.37600694445</v>
+        <v>45166.81715277778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7225,13 +7230,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7268,14 +7268,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 16618-2025</t>
+          <t>A 14383-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45754.31761574074</v>
+        <v>45394</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7325,14 +7325,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 53651-2025</t>
+          <t>A 4316-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45960.52734953703</v>
+        <v>45324.65905092593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7382,14 +7382,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 60254-2024</t>
+          <t>A 36868-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45642</v>
+        <v>44805.6289699074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>13.4</v>
+        <v>1.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7439,14 +7439,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 60260-2024</t>
+          <t>A 10737-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45642</v>
+        <v>44984</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7496,14 +7496,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 54449-2025</t>
+          <t>A 45588-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45965.54233796296</v>
+        <v>44845.54098379629</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7553,14 +7553,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 53253-2023</t>
+          <t>A 60264-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45229.52552083333</v>
+        <v>45642.8599537037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7610,14 +7610,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 56101-2025</t>
+          <t>A 40687-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45973.71033564815</v>
+        <v>45896.87452546296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7667,14 +7667,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 39459-2023</t>
+          <t>A 41130-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45166.81715277778</v>
+        <v>45898</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7724,14 +7724,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 57527-2025</t>
+          <t>A 40685-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45980.63293981482</v>
+        <v>45896.87293981481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7781,14 +7781,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 55788-2023</t>
+          <t>A 40686-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45239</v>
+        <v>45896.87371527778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7838,14 +7838,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 19310-2025</t>
+          <t>A 40758-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45769.57109953704</v>
+        <v>45897</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7857,13 +7857,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7900,14 +7895,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 2763-2023</t>
+          <t>A 43013-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44944.62079861111</v>
+        <v>45909.49075231481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7920,7 +7915,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7957,14 +7952,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 35048-2024</t>
+          <t>A 58633-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45527.64537037037</v>
+        <v>45251.56759259259</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7977,7 +7972,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8014,14 +8009,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 4316-2024</t>
+          <t>A 43125-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45324.65905092593</v>
+        <v>45909.72638888889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8034,7 +8029,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8071,14 +8066,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 16924-2025</t>
+          <t>A 43124-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45755.3825462963</v>
+        <v>45909.70793981481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8090,13 +8085,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8133,14 +8123,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 61133-2025</t>
+          <t>A 27671-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46000.49719907407</v>
+        <v>45813</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8153,7 +8143,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8190,14 +8180,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 61701-2025</t>
+          <t>A 59273-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46002.53532407407</v>
+        <v>45253.55516203704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8210,7 +8200,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8247,14 +8237,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 7179-2023</t>
+          <t>A 45248-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44965</v>
+        <v>45919.61190972223</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8267,7 +8257,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8304,14 +8294,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 40671-2024</t>
+          <t>A 8969-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45558.36265046296</v>
+        <v>44979.50427083333</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8324,7 +8314,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8361,14 +8351,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 4002-2026</t>
+          <t>A 45821-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46044</v>
+        <v>45923.59707175926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8381,7 +8371,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8418,14 +8408,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 21738-2023</t>
+          <t>A 54412-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45063</v>
+        <v>45617</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8438,7 +8428,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8475,14 +8465,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 45669-2023</t>
+          <t>A 47903-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45194.87333333334</v>
+        <v>45932</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8495,7 +8485,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8532,14 +8522,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 33522-2024</t>
+          <t>A 3572-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45519</v>
+        <v>45680.71428240741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8552,7 +8542,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8589,14 +8579,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 20430-2025</t>
+          <t>A 48279-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45775.47766203704</v>
+        <v>45933.58763888889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8609,7 +8599,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8646,14 +8636,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 45588-2022</t>
+          <t>A 22418-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44845.54098379629</v>
+        <v>45786.56079861111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8665,8 +8655,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8703,14 +8698,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 17150-2023</t>
+          <t>A 22028-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45034</v>
+        <v>45785.21606481481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8723,7 +8718,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8760,14 +8755,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 65114-2021</t>
+          <t>A 22828-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44515.41678240741</v>
+        <v>45789.84356481482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8780,7 +8775,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8817,14 +8812,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 62223-2022</t>
+          <t>A 22358-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44922.67252314815</v>
+        <v>45786.46289351852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8836,8 +8831,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8874,14 +8874,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 7310-2026</t>
+          <t>A 22827-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46058.66219907408</v>
+        <v>45789.84092592593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8931,14 +8931,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 1878-2022</t>
+          <t>A 8450-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44574</v>
+        <v>45709.45519675926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8988,14 +8988,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 39211-2023</t>
+          <t>A 12954-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45166.41819444444</v>
+        <v>45734.40412037037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9045,14 +9045,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 38792-2024</t>
+          <t>A 1191-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45547.48993055556</v>
+        <v>45666</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9102,14 +9102,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 59273-2023</t>
+          <t>A 45599-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45253.55516203704</v>
+        <v>45579.43138888889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9159,14 +9159,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 45881-2024</t>
+          <t>A 51117-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45580</v>
+        <v>45947.52902777777</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9216,14 +9216,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 17611-2025</t>
+          <t>A 10462-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45757.79642361111</v>
+        <v>45720.7705787037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9273,14 +9273,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 19384-2023</t>
+          <t>A 53651-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45049</v>
+        <v>45960.52734953703</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9330,14 +9330,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 16687-2025</t>
+          <t>A 25065-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45754.45372685185</v>
+        <v>45799.70430555556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9387,14 +9387,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 60258-2024</t>
+          <t>A 25063-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45642</v>
+        <v>45799.70287037037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9444,14 +9444,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 60259-2024</t>
+          <t>A 54449-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45642</v>
+        <v>45965.54233796296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 47650-2023</t>
+          <t>A 56101-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45203</v>
+        <v>45973.71033564815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9558,14 +9558,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 6872-2022</t>
+          <t>A 57527-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44602.75136574074</v>
+        <v>45980.63293981482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 58633-2023</t>
+          <t>A 61133-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45251.56759259259</v>
+        <v>46000.49719907407</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9672,14 +9672,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 29728-2022</t>
+          <t>A 61701-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44755.45465277778</v>
+        <v>46002.53532407407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9729,14 +9729,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 17335-2025</t>
+          <t>A 4002-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45756</v>
+        <v>46044</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9786,14 +9786,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 48510-2024</t>
+          <t>A 7310-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45591</v>
+        <v>46058.66219907408</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 23790-2021</t>
+          <t>A 37242-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44334</v>
+        <v>44396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>10.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1114,14 +1114,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 37242-2021</t>
+          <t>A 37243-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>10.3</v>
+        <v>4.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1171,14 +1171,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 37243-2021</t>
+          <t>A 23790-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44396</v>
+        <v>44334</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44602</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44273.60354166666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>44512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1860,14 +1860,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 23080-2022</t>
+          <t>A 27289-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44715</v>
+        <v>44351.30972222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1917,14 +1917,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 65112-2021</t>
+          <t>A 23080-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44515.4119212963</v>
+        <v>44715</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1974,14 +1974,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 27289-2021</t>
+          <t>A 65112-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44351.30972222222</v>
+        <v>44515.4119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,14 +2150,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 495-2022</t>
+          <t>A 46707-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44566.46680555555</v>
+        <v>44851.38383101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,13 +2169,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2212,14 +2207,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 496-2022</t>
+          <t>A 495-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44566.46861111111</v>
+        <v>44566.46680555555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2237,7 +2232,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2274,14 +2269,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 46707-2022</t>
+          <t>A 496-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44851.38383101852</v>
+        <v>44566.46861111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,8 +2288,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2507,14 +2507,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 17611-2025</t>
+          <t>A 42048-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45757.79642361111</v>
+        <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2564,14 +2564,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 42048-2021</t>
+          <t>A 62220-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44426</v>
+        <v>44922.66780092593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2621,14 +2621,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 16618-2025</t>
+          <t>A 417-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45754.31761574074</v>
+        <v>44929</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2678,14 +2678,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 53179-2023</t>
+          <t>A 22789-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45229.40875</v>
+        <v>44715</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2735,14 +2735,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 47650-2023</t>
+          <t>A 29822-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45203</v>
+        <v>45107.56379629629</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2792,14 +2792,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 53160-2023</t>
+          <t>A 45054-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45229.37484953704</v>
+        <v>45191</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2849,14 +2849,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 55788-2023</t>
+          <t>A 15684-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45239</v>
+        <v>45021</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2906,14 +2906,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 53253-2023</t>
+          <t>A 58150-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45229.52552083333</v>
+        <v>44900.7941087963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2963,14 +2963,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 45881-2024</t>
+          <t>A 10115-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45580</v>
+        <v>44986.34202546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2982,8 +2982,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3020,14 +3025,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2761-2023</t>
+          <t>A 5564-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44944.61564814814</v>
+        <v>44960</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3040,7 +3045,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3077,14 +3082,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 65114-2021</t>
+          <t>A 418-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44515.41678240741</v>
+        <v>44929</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3097,7 +3102,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3134,14 +3139,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 62219-2022</t>
+          <t>A 419-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44922.66564814815</v>
+        <v>44929</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3154,7 +3159,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3191,14 +3196,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15409-2024</t>
+          <t>A 7310-2026</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45401.34701388889</v>
+        <v>46058.66219907408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3211,7 +3216,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3248,14 +3253,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 17335-2025</t>
+          <t>A 10462-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45756</v>
+        <v>45720.7705787037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3268,7 +3273,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3305,14 +3310,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 419-2023</t>
+          <t>A 10235-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44929</v>
+        <v>44986.65542824074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3325,7 +3330,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3362,14 +3367,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 60253-2024</t>
+          <t>A 25065-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45642</v>
+        <v>45799.70430555556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3382,7 +3387,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3419,14 +3424,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 60258-2024</t>
+          <t>A 420-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45642</v>
+        <v>44929</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3439,7 +3444,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3476,14 +3481,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 60259-2024</t>
+          <t>A 506-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45642</v>
+        <v>44930</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3496,7 +3501,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3533,14 +3538,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 47649-2023</t>
+          <t>A 25063-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45203</v>
+        <v>45799.70287037037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3553,7 +3558,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3590,14 +3595,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 35048-2024</t>
+          <t>A 48901-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45527.64537037037</v>
+        <v>45209.52467592592</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3610,7 +3615,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.8</v>
+        <v>18.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3647,14 +3652,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 33522-2024</t>
+          <t>A 36868-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45519</v>
+        <v>44805.6289699074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3667,7 +3672,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3704,14 +3709,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 6355-2024</t>
+          <t>A 62221-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45338.47413194444</v>
+        <v>44922</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3724,7 +3729,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3761,14 +3766,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 7179-2023</t>
+          <t>A 28703-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44965</v>
+        <v>45820.23819444444</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3781,7 +3786,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>7.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3818,14 +3823,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 21738-2023</t>
+          <t>A 29819-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45063</v>
+        <v>45825.84666666666</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3838,7 +3843,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3875,14 +3880,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 58365-2022</t>
+          <t>A 60264-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44901.62020833333</v>
+        <v>45642.8599537037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3932,14 +3937,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 1878-2022</t>
+          <t>A 14383-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44574</v>
+        <v>45394</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3952,7 +3957,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3989,14 +3994,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40671-2024</t>
+          <t>A 8877-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45558.36265046296</v>
+        <v>45713.37665509259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4009,7 +4014,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>7.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4046,14 +4051,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 35055-2024</t>
+          <t>A 53160-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45527</v>
+        <v>45229.37484953704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4066,7 +4071,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4103,14 +4108,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61975-2021</t>
+          <t>A 31677-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44502</v>
+        <v>45834.37809027778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4122,13 +4127,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4165,14 +4165,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16924-2025</t>
+          <t>A 40687-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45755.3825462963</v>
+        <v>45896.87452546296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4184,13 +4184,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4227,14 +4222,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4241-2023</t>
+          <t>A 6355-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44953</v>
+        <v>45338.47413194444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4247,7 +4242,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4284,14 +4279,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 4242-2023</t>
+          <t>A 40758-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44953</v>
+        <v>45897</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4304,7 +4299,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4341,14 +4336,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39211-2023</t>
+          <t>A 40685-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45166.41819444444</v>
+        <v>45896.87293981481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4361,7 +4356,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4398,14 +4393,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 62223-2022</t>
+          <t>A 40686-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44922.67252314815</v>
+        <v>45896.87371527778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4418,7 +4413,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4455,14 +4450,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 10115-2023</t>
+          <t>A 35055-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44986.34202546296</v>
+        <v>45527</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4474,13 +4469,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4517,14 +4507,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 45665-2021</t>
+          <t>A 58365-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44441.32771990741</v>
+        <v>44901.62020833333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4537,7 +4527,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4574,14 +4564,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 15684-2023</t>
+          <t>A 41130-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45021</v>
+        <v>45898</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4594,7 +4584,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4631,14 +4621,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 28703-2025</t>
+          <t>A 34419-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45820.23819444444</v>
+        <v>45846.66137731481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4651,7 +4641,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>7.8</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4688,14 +4678,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 29819-2025</t>
+          <t>A 34402-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45825.84666666666</v>
+        <v>45846.61403935185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4708,7 +4698,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4745,14 +4735,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 45054-2023</t>
+          <t>A 34411-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45191</v>
+        <v>45846.64509259259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4765,7 +4755,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4802,14 +4792,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 29728-2022</t>
+          <t>A 62219-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44755.45465277778</v>
+        <v>44922.66564814815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4822,7 +4812,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4859,14 +4849,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 60254-2024</t>
+          <t>A 61975-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45642</v>
+        <v>44502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4878,8 +4868,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>13.4</v>
+        <v>4.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4916,14 +4911,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 60260-2024</t>
+          <t>A 47649-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45642</v>
+        <v>45203</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4936,7 +4931,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4973,14 +4968,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 48510-2024</t>
+          <t>A 2761-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45591</v>
+        <v>44944.61564814814</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4993,7 +4988,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5030,14 +5025,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 5564-2023</t>
+          <t>A 34530-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44960</v>
+        <v>45525</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5050,7 +5045,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5087,14 +5082,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 417-2023</t>
+          <t>A 19306-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44929</v>
+        <v>45769.56755787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5106,8 +5101,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5144,14 +5144,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 6872-2022</t>
+          <t>A 43124-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44602.75136574074</v>
+        <v>45909.70793981481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5201,14 +5201,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29822-2023</t>
+          <t>A 43125-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45107.56379629629</v>
+        <v>45909.72638888889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5258,14 +5258,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 17150-2023</t>
+          <t>A 43013-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45034</v>
+        <v>45909.49075231481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5315,14 +5315,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 31677-2025</t>
+          <t>A 29648-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45834.37809027778</v>
+        <v>45825</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5372,14 +5372,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 62221-2022</t>
+          <t>A 8969-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44922</v>
+        <v>44979.50427083333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5429,14 +5429,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58150-2022</t>
+          <t>A 15409-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44900.7941087963</v>
+        <v>45401.34701388889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5486,14 +5486,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 45669-2023</t>
+          <t>A 64438-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45194.87333333334</v>
+        <v>45280.68280092593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5543,14 +5543,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 2763-2023</t>
+          <t>A 41931-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44944.62079861111</v>
+        <v>45561.56418981482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.5</v>
+        <v>5.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5600,14 +5600,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 54948-2024</t>
+          <t>A 27671-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45619</v>
+        <v>45813</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5657,14 +5657,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 19384-2023</t>
+          <t>A 45248-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45049</v>
+        <v>45919.61190972223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5714,14 +5714,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 22789-2022</t>
+          <t>A 45665-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44715</v>
+        <v>44441.32771990741</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5771,14 +5771,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 34402-2025</t>
+          <t>A 45821-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45846.61403935185</v>
+        <v>45923.59707175926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5828,14 +5828,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 52631-2024</t>
+          <t>A 10836-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45610.30113425926</v>
+        <v>44991</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5885,14 +5885,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 34411-2025</t>
+          <t>A 10737-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45846.64509259259</v>
+        <v>44984</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5942,14 +5942,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 34419-2025</t>
+          <t>A 52631-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45846.66137731481</v>
+        <v>45610.30113425926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5999,14 +5999,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 20430-2025</t>
+          <t>A 48279-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45775.47766203704</v>
+        <v>45933.58763888889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6056,14 +6056,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41931-2024</t>
+          <t>A 47903-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45561.56418981482</v>
+        <v>45932</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6113,14 +6113,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 42016-2023</t>
+          <t>A 58101-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45177.47246527778</v>
+        <v>45249.38699074074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.1</v>
+        <v>6.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6170,14 +6170,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 16687-2025</t>
+          <t>A 16921-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45754.45372685185</v>
+        <v>45755.37600694445</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6189,8 +6189,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6227,14 +6232,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 62220-2022</t>
+          <t>A 16618-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44922.66780092593</v>
+        <v>45754.31761574074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6247,7 +6252,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6284,14 +6289,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 10235-2023</t>
+          <t>A 60254-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44986.65542824074</v>
+        <v>45642</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6304,7 +6309,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.9</v>
+        <v>13.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6341,14 +6346,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 8877-2025</t>
+          <t>A 60260-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45713.37665509259</v>
+        <v>45642</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6361,7 +6366,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7.3</v>
+        <v>4.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6398,14 +6403,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 34530-2024</t>
+          <t>A 53253-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45525</v>
+        <v>45229.52552083333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6418,7 +6423,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6455,14 +6460,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 506-2023</t>
+          <t>A 51117-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44930</v>
+        <v>45947.52902777777</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6475,7 +6480,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6512,14 +6517,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 420-2023</t>
+          <t>A 39459-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44929</v>
+        <v>45166.81715277778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6532,7 +6537,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6569,14 +6574,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 64438-2023</t>
+          <t>A 55788-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45280.68280092593</v>
+        <v>45239</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6589,7 +6594,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6626,14 +6631,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 38792-2024</t>
+          <t>A 53651-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45547.48993055556</v>
+        <v>45960.52734953703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6646,7 +6651,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6683,14 +6688,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 418-2023</t>
+          <t>A 54449-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44929</v>
+        <v>45965.54233796296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6703,7 +6708,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6740,14 +6745,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 10836-2023</t>
+          <t>A 19310-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44991</v>
+        <v>45769.57109953704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6759,8 +6764,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6797,14 +6807,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 29648-2025</t>
+          <t>A 2763-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45825</v>
+        <v>44944.62079861111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6817,7 +6827,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6854,14 +6864,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 9954-2025</t>
+          <t>A 35048-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45719.35216435185</v>
+        <v>45527.64537037037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6874,7 +6884,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6911,14 +6921,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 19310-2025</t>
+          <t>A 4316-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45769.57109953704</v>
+        <v>45324.65905092593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6930,13 +6940,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6973,14 +6978,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 16921-2025</t>
+          <t>A 56101-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45755.37600694445</v>
+        <v>45973.71033564815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6992,13 +6997,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7035,14 +7035,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 58101-2023</t>
+          <t>A 16924-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45249.38699074074</v>
+        <v>45755.3825462963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7054,8 +7054,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7092,14 +7097,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 19306-2025</t>
+          <t>A 57527-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45769.56755787037</v>
+        <v>45980.63293981482</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7111,13 +7116,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7154,14 +7154,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48901-2023</t>
+          <t>A 7179-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45209.52467592592</v>
+        <v>44965</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>18.3</v>
+        <v>1.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7211,14 +7211,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 39459-2023</t>
+          <t>A 40671-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45166.81715277778</v>
+        <v>45558.36265046296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7268,14 +7268,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 14383-2024</t>
+          <t>A 21738-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45394</v>
+        <v>45063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7325,14 +7325,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 4316-2024</t>
+          <t>A 45669-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45324.65905092593</v>
+        <v>45194.87333333334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7382,14 +7382,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 36868-2022</t>
+          <t>A 33522-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44805.6289699074</v>
+        <v>45519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7439,14 +7439,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 10737-2023</t>
+          <t>A 20430-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44984</v>
+        <v>45775.47766203704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>44845.54098379629</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7553,14 +7553,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 60264-2024</t>
+          <t>A 17150-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45642.8599537037</v>
+        <v>45034</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7610,14 +7610,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 40687-2025</t>
+          <t>A 65114-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45896.87452546296</v>
+        <v>44515.41678240741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7667,14 +7667,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 41130-2025</t>
+          <t>A 62223-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45898</v>
+        <v>44922.67252314815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7724,14 +7724,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 40685-2025</t>
+          <t>A 61133-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45896.87293981481</v>
+        <v>46000.49719907407</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7781,14 +7781,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 40686-2025</t>
+          <t>A 61701-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45896.87371527778</v>
+        <v>46002.53532407407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7838,14 +7838,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 40758-2025</t>
+          <t>A 4002-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45897</v>
+        <v>46044</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7895,14 +7895,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 43013-2025</t>
+          <t>A 1878-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45909.49075231481</v>
+        <v>44574</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7952,14 +7952,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 58633-2023</t>
+          <t>A 39211-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45251.56759259259</v>
+        <v>45166.41819444444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8009,14 +8009,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 43125-2025</t>
+          <t>A 38792-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45909.72638888889</v>
+        <v>45547.48993055556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8066,14 +8066,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 43124-2025</t>
+          <t>A 59273-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45909.70793981481</v>
+        <v>45253.55516203704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8123,14 +8123,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 27671-2025</t>
+          <t>A 45881-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45813</v>
+        <v>45580</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.7</v>
+        <v>1.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8180,14 +8180,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 59273-2023</t>
+          <t>A 17611-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45253.55516203704</v>
+        <v>45757.79642361111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8237,14 +8237,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 45248-2025</t>
+          <t>A 19384-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45919.61190972223</v>
+        <v>45049</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8294,14 +8294,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 8969-2023</t>
+          <t>A 16687-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44979.50427083333</v>
+        <v>45754.45372685185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8351,14 +8351,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45821-2025</t>
+          <t>A 60258-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45923.59707175926</v>
+        <v>45642</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8408,14 +8408,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 54412-2024</t>
+          <t>A 60259-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45617</v>
+        <v>45642</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8465,14 +8465,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 47903-2025</t>
+          <t>A 47650-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45932</v>
+        <v>45203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8522,14 +8522,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 3572-2025</t>
+          <t>A 6872-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45680.71428240741</v>
+        <v>44602.75136574074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8579,14 +8579,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 48279-2025</t>
+          <t>A 58633-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45933.58763888889</v>
+        <v>45251.56759259259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8636,14 +8636,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 22418-2025</t>
+          <t>A 29728-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45786.56079861111</v>
+        <v>44755.45465277778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8655,13 +8655,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8698,14 +8693,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 22028-2025</t>
+          <t>A 17335-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45785.21606481481</v>
+        <v>45756</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8718,7 +8713,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8755,14 +8750,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 22828-2025</t>
+          <t>A 48510-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45789.84356481482</v>
+        <v>45591</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8775,7 +8770,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8812,14 +8807,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 22358-2025</t>
+          <t>A 54948-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45786.46289351852</v>
+        <v>45619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8831,13 +8826,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8874,14 +8864,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 22827-2025</t>
+          <t>A 9954-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45789.84092592593</v>
+        <v>45719.35216435185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8931,14 +8921,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 8450-2025</t>
+          <t>A 4241-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45709.45519675926</v>
+        <v>44953</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8951,7 +8941,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8988,14 +8978,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 12954-2025</t>
+          <t>A 4242-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45734.40412037037</v>
+        <v>44953</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9008,7 +8998,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9045,14 +9035,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 1191-2025</t>
+          <t>A 60253-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45666</v>
+        <v>45642</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9065,7 +9055,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9102,14 +9092,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45599-2024</t>
+          <t>A 53179-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45579.43138888889</v>
+        <v>45229.40875</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9122,7 +9112,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9159,14 +9149,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 51117-2025</t>
+          <t>A 42016-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45947.52902777777</v>
+        <v>45177.47246527778</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9179,7 +9169,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9216,14 +9206,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 10462-2025</t>
+          <t>A 22028-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45720.7705787037</v>
+        <v>45785.21606481481</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9236,7 +9226,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9273,14 +9263,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 53651-2025</t>
+          <t>A 3572-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45960.52734953703</v>
+        <v>45680.71428240741</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9293,7 +9283,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9330,14 +9320,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 25065-2025</t>
+          <t>A 54412-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45799.70430555556</v>
+        <v>45617</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9350,7 +9340,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9387,14 +9377,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 25063-2025</t>
+          <t>A 22418-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45799.70287037037</v>
+        <v>45786.56079861111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9406,8 +9396,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9444,14 +9439,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 54449-2025</t>
+          <t>A 22358-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45965.54233796296</v>
+        <v>45786.46289351852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9463,8 +9458,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 56101-2025</t>
+          <t>A 1191-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45973.71033564815</v>
+        <v>45666</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9558,14 +9558,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 57527-2025</t>
+          <t>A 22828-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45980.63293981482</v>
+        <v>45789.84356481482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 61133-2025</t>
+          <t>A 12954-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46000.49719907407</v>
+        <v>45734.40412037037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9672,14 +9672,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 61701-2025</t>
+          <t>A 22827-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46002.53532407407</v>
+        <v>45789.84092592593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9729,14 +9729,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 4002-2026</t>
+          <t>A 45599-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46044</v>
+        <v>45579.43138888889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9786,14 +9786,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 7310-2026</t>
+          <t>A 8450-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46058.66219907408</v>
+        <v>45709.45519675926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,14 +829,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 21321-2021</t>
+          <t>A 6870-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44320</v>
+        <v>44602</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -886,14 +886,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 6870-2022</t>
+          <t>A 21321-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44602</v>
+        <v>44320</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44334</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44602</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1689,14 +1689,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 21436-2021</t>
+          <t>A 13461-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44318</v>
+        <v>44273.60354166666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1746,14 +1746,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 13461-2021</t>
+          <t>A 64871-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44273.60354166666</v>
+        <v>44512</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1803,14 +1803,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 64871-2021</t>
+          <t>A 21436-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44512</v>
+        <v>44318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>44351.30972222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44715</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44515.4119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44851.38383101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44566.46680555555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44566.46861111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2564,14 +2564,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62220-2022</t>
+          <t>A 417-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44922.66780092593</v>
+        <v>44929</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2621,14 +2621,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 417-2023</t>
+          <t>A 22789-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44929</v>
+        <v>44715</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2678,14 +2678,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 22789-2022</t>
+          <t>A 29822-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44715</v>
+        <v>45107.56379629629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2735,14 +2735,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 29822-2023</t>
+          <t>A 62220-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45107.56379629629</v>
+        <v>44922.66780092593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>45191</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>45021</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44900.7941087963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>44986.34202546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44960</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3082,14 +3082,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 418-2023</t>
+          <t>A 1191-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44929</v>
+        <v>45666</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 419-2023</t>
+          <t>A 22828-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44929</v>
+        <v>45789.84356481482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 7310-2026</t>
+          <t>A 12954-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>46058.66219907408</v>
+        <v>45734.40412037037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 10462-2025</t>
+          <t>A 22827-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45720.7705787037</v>
+        <v>45789.84092592593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 10235-2023</t>
+          <t>A 45599-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44986.65542824074</v>
+        <v>45579.43138888889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>6.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 25065-2025</t>
+          <t>A 8450-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45799.70430555556</v>
+        <v>45709.45519675926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3424,14 +3424,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 420-2023</t>
+          <t>A 418-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>44929</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3481,14 +3481,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 506-2023</t>
+          <t>A 419-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44930</v>
+        <v>44929</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3538,14 +3538,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 25063-2025</t>
+          <t>A 10462-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45799.70287037037</v>
+        <v>45720.7705787037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3595,14 +3595,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 48901-2023</t>
+          <t>A 25065-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45209.52467592592</v>
+        <v>45799.70430555556</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>18.3</v>
+        <v>2.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3652,14 +3652,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 36868-2022</t>
+          <t>A 10235-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44805.6289699074</v>
+        <v>44986.65542824074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3709,14 +3709,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 62221-2022</t>
+          <t>A 25063-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44922</v>
+        <v>45799.70287037037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3766,14 +3766,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 28703-2025</t>
+          <t>A 61701-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45820.23819444444</v>
+        <v>46002.53532407407</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>7.8</v>
+        <v>4.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3823,14 +3823,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 29819-2025</t>
+          <t>A 60264-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45825.84666666666</v>
+        <v>45642.8599537037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3880,14 +3880,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 60264-2024</t>
+          <t>A 420-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45642.8599537037</v>
+        <v>44929</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3937,14 +3937,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 14383-2024</t>
+          <t>A 506-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45394</v>
+        <v>44930</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3994,14 +3994,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 8877-2025</t>
+          <t>A 48901-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45713.37665509259</v>
+        <v>45209.52467592592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.3</v>
+        <v>18.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4051,14 +4051,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 53160-2023</t>
+          <t>A 36868-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45229.37484953704</v>
+        <v>44805.6289699074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4108,14 +4108,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 31677-2025</t>
+          <t>A 40687-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45834.37809027778</v>
+        <v>45896.87452546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4165,14 +4165,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40687-2025</t>
+          <t>A 40758-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45896.87452546296</v>
+        <v>45897</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4222,14 +4222,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6355-2024</t>
+          <t>A 40685-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45338.47413194444</v>
+        <v>45896.87293981481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4279,14 +4279,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40758-2025</t>
+          <t>A 40686-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45897</v>
+        <v>45896.87371527778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4336,14 +4336,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40685-2025</t>
+          <t>A 41130-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45896.87293981481</v>
+        <v>45898</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4393,14 +4393,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40686-2025</t>
+          <t>A 4002-2026</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45896.87371527778</v>
+        <v>46044</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4450,14 +4450,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 35055-2024</t>
+          <t>A 28703-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45527</v>
+        <v>45820.23819444444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>7.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4507,14 +4507,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 58365-2022</t>
+          <t>A 43124-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44901.62020833333</v>
+        <v>45909.70793981481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.9</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4564,14 +4564,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 41130-2025</t>
+          <t>A 43125-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45898</v>
+        <v>45909.72638888889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4621,14 +4621,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 34419-2025</t>
+          <t>A 43013-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45846.66137731481</v>
+        <v>45909.49075231481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4678,14 +4678,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 34402-2025</t>
+          <t>A 29819-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45846.61403935185</v>
+        <v>45825.84666666666</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4735,14 +4735,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34411-2025</t>
+          <t>A 62221-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45846.64509259259</v>
+        <v>44922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4792,14 +4792,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 62219-2022</t>
+          <t>A 27671-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44922.66564814815</v>
+        <v>45813</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4849,14 +4849,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 61975-2021</t>
+          <t>A 45248-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44502</v>
+        <v>45919.61190972223</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4868,13 +4868,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4911,14 +4906,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 47649-2023</t>
+          <t>A 31677-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45203</v>
+        <v>45834.37809027778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4931,7 +4926,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4968,14 +4963,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 2761-2023</t>
+          <t>A 45821-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44944.61564814814</v>
+        <v>45923.59707175926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4988,7 +4983,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5025,14 +5020,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 34530-2024</t>
+          <t>A 14383-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45525</v>
+        <v>45394</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5045,7 +5040,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5082,14 +5077,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 19306-2025</t>
+          <t>A 8877-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45769.56755787037</v>
+        <v>45713.37665509259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5101,13 +5096,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>7.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5144,14 +5134,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 43124-2025</t>
+          <t>A 53160-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45909.70793981481</v>
+        <v>45229.37484953704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5164,7 +5154,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5201,14 +5191,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 43125-2025</t>
+          <t>A 6355-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45909.72638888889</v>
+        <v>45338.47413194444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5221,7 +5211,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5258,14 +5248,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 43013-2025</t>
+          <t>A 35055-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45909.49075231481</v>
+        <v>45527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5278,7 +5268,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5315,14 +5305,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 29648-2025</t>
+          <t>A 58365-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45825</v>
+        <v>44901.62020833333</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5335,7 +5325,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5372,14 +5362,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 8969-2023</t>
+          <t>A 34419-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44979.50427083333</v>
+        <v>45846.66137731481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5392,7 +5382,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5429,14 +5419,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 15409-2024</t>
+          <t>A 34402-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45401.34701388889</v>
+        <v>45846.61403935185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5449,7 +5439,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5486,14 +5476,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 64438-2023</t>
+          <t>A 34411-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45280.68280092593</v>
+        <v>45846.64509259259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5506,7 +5496,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5543,14 +5533,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41931-2024</t>
+          <t>A 48279-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45561.56418981482</v>
+        <v>45933.58763888889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5563,7 +5553,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5600,14 +5590,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 27671-2025</t>
+          <t>A 47903-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45813</v>
+        <v>45932</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5620,7 +5610,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5.7</v>
+        <v>1.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5657,14 +5647,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 45248-2025</t>
+          <t>A 62219-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45919.61190972223</v>
+        <v>44922.66564814815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5714,14 +5704,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 45665-2021</t>
+          <t>A 61975-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44441.32771990741</v>
+        <v>44502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5733,8 +5723,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5771,14 +5766,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 45821-2025</t>
+          <t>A 47649-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45923.59707175926</v>
+        <v>45203</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5791,7 +5786,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5828,14 +5823,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 10836-2023</t>
+          <t>A 34530-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44991</v>
+        <v>45525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5848,7 +5843,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5885,14 +5880,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10737-2023</t>
+          <t>A 2761-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44984</v>
+        <v>44944.61564814814</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5905,7 +5900,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5942,14 +5937,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 52631-2024</t>
+          <t>A 51117-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45610.30113425926</v>
+        <v>45947.52902777777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5962,7 +5957,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5999,14 +5994,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 48279-2025</t>
+          <t>A 29648-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45933.58763888889</v>
+        <v>45825</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6019,7 +6014,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6056,14 +6051,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 47903-2025</t>
+          <t>A 19306-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45932</v>
+        <v>45769.56755787037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6075,8 +6070,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6113,14 +6113,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 58101-2023</t>
+          <t>A 7310-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45249.38699074074</v>
+        <v>46058.66219907408</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.1</v>
+        <v>2.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6170,14 +6170,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 16921-2025</t>
+          <t>A 53651-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45755.37600694445</v>
+        <v>45960.52734953703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6189,13 +6189,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6232,14 +6227,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 16618-2025</t>
+          <t>A 8969-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45754.31761574074</v>
+        <v>44979.50427083333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6252,7 +6247,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6289,14 +6284,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 60254-2024</t>
+          <t>A 54449-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45642</v>
+        <v>45965.54233796296</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6309,7 +6304,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>13.4</v>
+        <v>2.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6346,14 +6341,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 60260-2024</t>
+          <t>A 15409-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45642</v>
+        <v>45401.34701388889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6366,7 +6361,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6403,14 +6398,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 53253-2023</t>
+          <t>A 64438-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45229.52552083333</v>
+        <v>45280.68280092593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6423,7 +6418,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6460,14 +6455,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 51117-2025</t>
+          <t>A 41931-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45947.52902777777</v>
+        <v>45561.56418981482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6480,7 +6475,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6517,14 +6512,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 39459-2023</t>
+          <t>A 56101-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45166.81715277778</v>
+        <v>45973.71033564815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6537,7 +6532,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6574,14 +6569,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 55788-2023</t>
+          <t>A 45665-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45239</v>
+        <v>44441.32771990741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6594,7 +6589,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6631,14 +6626,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 53651-2025</t>
+          <t>A 57527-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45960.52734953703</v>
+        <v>45980.63293981482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6651,7 +6646,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6688,14 +6683,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 54449-2025</t>
+          <t>A 10836-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45965.54233796296</v>
+        <v>44991</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6745,14 +6740,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 19310-2025</t>
+          <t>A 10737-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45769.57109953704</v>
+        <v>44984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6764,13 +6759,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6807,14 +6797,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 2763-2023</t>
+          <t>A 52631-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44944.62079861111</v>
+        <v>45610.30113425926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6827,7 +6817,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6864,14 +6854,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 35048-2024</t>
+          <t>A 58101-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45527.64537037037</v>
+        <v>45249.38699074074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6884,7 +6874,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6921,14 +6911,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4316-2024</t>
+          <t>A 16921-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45324.65905092593</v>
+        <v>45755.37600694445</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6940,8 +6930,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6978,14 +6973,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 56101-2025</t>
+          <t>A 16618-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45973.71033564815</v>
+        <v>45754.31761574074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6998,7 +6993,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7035,14 +7030,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 16924-2025</t>
+          <t>A 60254-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45755.3825462963</v>
+        <v>45642</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7054,13 +7049,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>5.3</v>
+        <v>13.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7097,14 +7087,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 57527-2025</t>
+          <t>A 60260-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45980.63293981482</v>
+        <v>45642</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7117,7 +7107,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7154,14 +7144,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 7179-2023</t>
+          <t>A 53253-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44965</v>
+        <v>45229.52552083333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7174,7 +7164,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7211,14 +7201,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 40671-2024</t>
+          <t>A 39459-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45558.36265046296</v>
+        <v>45166.81715277778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7231,7 +7221,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7268,14 +7258,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 21738-2023</t>
+          <t>A 61133-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45063</v>
+        <v>46000.49719907407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7288,7 +7278,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7325,14 +7315,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 45669-2023</t>
+          <t>A 55788-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45194.87333333334</v>
+        <v>45239</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7345,7 +7335,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7382,14 +7372,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 33522-2024</t>
+          <t>A 19310-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45519</v>
+        <v>45769.57109953704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7401,8 +7391,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7439,14 +7434,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 20430-2025</t>
+          <t>A 2763-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45775.47766203704</v>
+        <v>44944.62079861111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7459,7 +7454,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7496,14 +7491,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 45588-2022</t>
+          <t>A 35048-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44845.54098379629</v>
+        <v>45527.64537037037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7516,7 +7511,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7553,14 +7548,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 17150-2023</t>
+          <t>A 4316-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45034</v>
+        <v>45324.65905092593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7573,7 +7568,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7610,14 +7605,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 65114-2021</t>
+          <t>A 16924-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44515.41678240741</v>
+        <v>45755.3825462963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7629,8 +7624,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7667,14 +7667,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 62223-2022</t>
+          <t>A 7179-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44922.67252314815</v>
+        <v>44965</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7724,14 +7724,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 61133-2025</t>
+          <t>A 40671-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46000.49719907407</v>
+        <v>45558.36265046296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7781,14 +7781,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 61701-2025</t>
+          <t>A 21738-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46002.53532407407</v>
+        <v>45063</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7838,14 +7838,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 4002-2026</t>
+          <t>A 45669-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46044</v>
+        <v>45194.87333333334</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7895,14 +7895,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 1878-2022</t>
+          <t>A 33522-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44574</v>
+        <v>45519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7952,14 +7952,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 39211-2023</t>
+          <t>A 20430-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45166.41819444444</v>
+        <v>45775.47766203704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8009,14 +8009,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 38792-2024</t>
+          <t>A 45588-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45547.48993055556</v>
+        <v>44845.54098379629</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8066,14 +8066,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 59273-2023</t>
+          <t>A 17150-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45253.55516203704</v>
+        <v>45034</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8123,14 +8123,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 45881-2024</t>
+          <t>A 65114-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45580</v>
+        <v>44515.41678240741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8180,14 +8180,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 17611-2025</t>
+          <t>A 62223-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45757.79642361111</v>
+        <v>44922.67252314815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8237,14 +8237,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 19384-2023</t>
+          <t>A 1878-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45049</v>
+        <v>44574</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8294,14 +8294,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 16687-2025</t>
+          <t>A 39211-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45754.45372685185</v>
+        <v>45166.41819444444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8351,14 +8351,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 60258-2024</t>
+          <t>A 38792-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45642</v>
+        <v>45547.48993055556</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8408,14 +8408,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 60259-2024</t>
+          <t>A 59273-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45642</v>
+        <v>45253.55516203704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8465,14 +8465,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 47650-2023</t>
+          <t>A 45881-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45203</v>
+        <v>45580</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8522,14 +8522,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 6872-2022</t>
+          <t>A 17611-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44602.75136574074</v>
+        <v>45757.79642361111</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8579,14 +8579,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58633-2023</t>
+          <t>A 19384-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45251.56759259259</v>
+        <v>45049</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8636,14 +8636,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 29728-2022</t>
+          <t>A 16687-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44755.45465277778</v>
+        <v>45754.45372685185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8693,14 +8693,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 17335-2025</t>
+          <t>A 60258-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45756</v>
+        <v>45642</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8750,14 +8750,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 48510-2024</t>
+          <t>A 60259-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45591</v>
+        <v>45642</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8807,14 +8807,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54948-2024</t>
+          <t>A 47650-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45619</v>
+        <v>45203</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8864,14 +8864,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 9954-2025</t>
+          <t>A 6872-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45719.35216435185</v>
+        <v>44602.75136574074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8921,14 +8921,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 4241-2023</t>
+          <t>A 58633-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44953</v>
+        <v>45251.56759259259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8978,14 +8978,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 4242-2023</t>
+          <t>A 29728-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44953</v>
+        <v>44755.45465277778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9035,14 +9035,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 60253-2024</t>
+          <t>A 17335-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45642</v>
+        <v>45756</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 53179-2023</t>
+          <t>A 48510-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45229.40875</v>
+        <v>45591</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9149,14 +9149,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 42016-2023</t>
+          <t>A 54948-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45177.47246527778</v>
+        <v>45619</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9206,14 +9206,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 22028-2025</t>
+          <t>A 9954-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45785.21606481481</v>
+        <v>45719.35216435185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9263,14 +9263,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 3572-2025</t>
+          <t>A 4241-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45680.71428240741</v>
+        <v>44953</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9320,14 +9320,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 54412-2024</t>
+          <t>A 4242-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45617</v>
+        <v>44953</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9377,14 +9377,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 22418-2025</t>
+          <t>A 60253-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45786.56079861111</v>
+        <v>45642</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9396,13 +9396,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9439,14 +9434,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 22358-2025</t>
+          <t>A 53179-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45786.46289351852</v>
+        <v>45229.40875</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9458,13 +9453,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9491,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 1191-2025</t>
+          <t>A 42016-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45666</v>
+        <v>45177.47246527778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9558,14 +9548,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 22828-2025</t>
+          <t>A 22028-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45789.84356481482</v>
+        <v>45785.21606481481</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9568,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9605,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 12954-2025</t>
+          <t>A 3572-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45734.40412037037</v>
+        <v>45680.71428240741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9635,7 +9625,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9672,14 +9662,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 22827-2025</t>
+          <t>A 54412-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45789.84092592593</v>
+        <v>45617</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9692,7 +9682,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9729,14 +9719,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 45599-2024</t>
+          <t>A 22418-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45579.43138888889</v>
+        <v>45786.56079861111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9748,8 +9738,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>6.8</v>
+        <v>0.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9786,14 +9781,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 8450-2025</t>
+          <t>A 22358-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45709.45519675926</v>
+        <v>45786.46289351852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9805,8 +9800,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,14 +829,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 6870-2022</t>
+          <t>A 21321-2021</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44602</v>
+        <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -886,14 +886,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 21321-2021</t>
+          <t>A 6870-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44320</v>
+        <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 37242-2021</t>
+          <t>A 23790-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44396</v>
+        <v>44334</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>10.3</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1114,14 +1114,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 37243-2021</t>
+          <t>A 37242-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.9</v>
+        <v>10.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1171,14 +1171,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 23790-2021</t>
+          <t>A 37243-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44334</v>
+        <v>44396</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44602</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1689,14 +1689,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 13461-2021</t>
+          <t>A 21436-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44273.60354166666</v>
+        <v>44318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1746,14 +1746,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 64871-2021</t>
+          <t>A 13461-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44512</v>
+        <v>44273.60354166666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1803,14 +1803,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 21436-2021</t>
+          <t>A 64871-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44318</v>
+        <v>44512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>44351.30972222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44715</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44515.4119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44851.38383101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44566.46680555555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44566.46861111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44929</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44715</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2678,14 +2678,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 29822-2023</t>
+          <t>A 62220-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45107.56379629629</v>
+        <v>44922.66780092593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2735,14 +2735,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 62220-2022</t>
+          <t>A 45054-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44922.66780092593</v>
+        <v>45191</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2792,14 +2792,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 45054-2023</t>
+          <t>A 29822-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45191</v>
+        <v>45107.56379629629</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2849,14 +2849,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15684-2023</t>
+          <t>A 58150-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45021</v>
+        <v>44900.7941087963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2906,14 +2906,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 58150-2022</t>
+          <t>A 10115-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44900.7941087963</v>
+        <v>44986.34202546296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2925,8 +2925,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2963,14 +2968,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 10115-2023</t>
+          <t>A 3572-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44986.34202546296</v>
+        <v>45680.71428240741</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2982,13 +2987,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 5564-2023</t>
+          <t>A 15684-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44960</v>
+        <v>45021</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.5</v>
+        <v>4.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 1191-2025</t>
+          <t>A 54412-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45666</v>
+        <v>45617</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 22828-2025</t>
+          <t>A 22418-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45789.84356481482</v>
+        <v>45786.56079861111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3158,8 +3158,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3196,14 +3201,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12954-2025</t>
+          <t>A 22358-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45734.40412037037</v>
+        <v>45786.46289351852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3215,8 +3220,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3253,14 +3263,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22827-2025</t>
+          <t>A 1191-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45789.84092592593</v>
+        <v>45666</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3273,7 +3283,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3310,14 +3320,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 45599-2024</t>
+          <t>A 22828-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45579.43138888889</v>
+        <v>45789.84356481482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3330,7 +3340,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6.8</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3367,14 +3377,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 8450-2025</t>
+          <t>A 12954-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45709.45519675926</v>
+        <v>45734.40412037037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3387,7 +3397,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3424,14 +3434,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 418-2023</t>
+          <t>A 22827-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44929</v>
+        <v>45789.84092592593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3444,7 +3454,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3481,14 +3491,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 419-2023</t>
+          <t>A 45599-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44929</v>
+        <v>45579.43138888889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3501,7 +3511,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>6.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3538,14 +3548,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10462-2025</t>
+          <t>A 8450-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45720.7705787037</v>
+        <v>45709.45519675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3558,7 +3568,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3595,14 +3605,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 25065-2025</t>
+          <t>A 56101-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45799.70430555556</v>
+        <v>45973.71033564815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3615,7 +3625,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3652,14 +3662,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 10235-2023</t>
+          <t>A 5564-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44986.65542824074</v>
+        <v>44960</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3672,7 +3682,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3709,14 +3719,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 25063-2025</t>
+          <t>A 418-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45799.70287037037</v>
+        <v>44929</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3729,7 +3739,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3766,14 +3776,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 61701-2025</t>
+          <t>A 419-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>46002.53532407407</v>
+        <v>44929</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3786,7 +3796,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3823,14 +3833,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 60264-2024</t>
+          <t>A 10462-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45642.8599537037</v>
+        <v>45720.7705787037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3843,7 +3853,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3880,14 +3890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 420-2023</t>
+          <t>A 60264-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44929</v>
+        <v>45642.8599537037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3900,7 +3910,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3937,14 +3947,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 506-2023</t>
+          <t>A 25065-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44930</v>
+        <v>45799.70430555556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3957,7 +3967,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3994,14 +4004,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48901-2023</t>
+          <t>A 25063-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45209.52467592592</v>
+        <v>45799.70287037037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4014,7 +4024,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>18.3</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4051,14 +4061,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 36868-2022</t>
+          <t>A 40687-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44805.6289699074</v>
+        <v>45896.87452546296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4071,7 +4081,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4108,14 +4118,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40687-2025</t>
+          <t>A 40758-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45896.87452546296</v>
+        <v>45897</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4128,7 +4138,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4165,14 +4175,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40758-2025</t>
+          <t>A 40685-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45897</v>
+        <v>45896.87293981481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4185,7 +4195,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4222,14 +4232,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40685-2025</t>
+          <t>A 40686-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45896.87293981481</v>
+        <v>45896.87371527778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4242,7 +4252,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4279,14 +4289,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40686-2025</t>
+          <t>A 10235-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45896.87371527778</v>
+        <v>44986.65542824074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4299,7 +4309,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4336,14 +4346,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 41130-2025</t>
+          <t>A 57527-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45898</v>
+        <v>45980.63293981482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4356,7 +4366,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4393,14 +4403,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 4002-2026</t>
+          <t>A 41130-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46044</v>
+        <v>45898</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4413,7 +4423,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4450,14 +4460,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28703-2025</t>
+          <t>A 420-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45820.23819444444</v>
+        <v>44929</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4470,7 +4480,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>7.8</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4507,14 +4517,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 43124-2025</t>
+          <t>A 506-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45909.70793981481</v>
+        <v>44930</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4527,7 +4537,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4564,14 +4574,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 43125-2025</t>
+          <t>A 48901-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45909.72638888889</v>
+        <v>45209.52467592592</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4584,7 +4594,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>18.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4621,14 +4631,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 43013-2025</t>
+          <t>A 36868-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45909.49075231481</v>
+        <v>44805.6289699074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4641,7 +4651,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4678,14 +4688,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 29819-2025</t>
+          <t>A 43124-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45825.84666666666</v>
+        <v>45909.70793981481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4698,7 +4708,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4735,14 +4745,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 62221-2022</t>
+          <t>A 43125-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44922</v>
+        <v>45909.72638888889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4755,7 +4765,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4792,14 +4802,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 27671-2025</t>
+          <t>A 43013-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45813</v>
+        <v>45909.49075231481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4812,7 +4822,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4849,14 +4859,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 45248-2025</t>
+          <t>A 27671-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45919.61190972223</v>
+        <v>45813</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4869,7 +4879,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4906,14 +4916,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 31677-2025</t>
+          <t>A 28703-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45834.37809027778</v>
+        <v>45820.23819444444</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4926,7 +4936,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>7.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4963,14 +4973,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45821-2025</t>
+          <t>A 45248-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45923.59707175926</v>
+        <v>45919.61190972223</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5020,14 +5030,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14383-2024</t>
+          <t>A 45821-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45394</v>
+        <v>45923.59707175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5040,7 +5050,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5077,14 +5087,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 8877-2025</t>
+          <t>A 29819-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45713.37665509259</v>
+        <v>45825.84666666666</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5097,7 +5107,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>7.3</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5134,14 +5144,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 53160-2023</t>
+          <t>A 62221-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45229.37484953704</v>
+        <v>44922</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5154,7 +5164,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5191,14 +5201,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 6355-2024</t>
+          <t>A 48279-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45338.47413194444</v>
+        <v>45933.58763888889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5211,7 +5221,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5248,14 +5258,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 35055-2024</t>
+          <t>A 31677-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45527</v>
+        <v>45834.37809027778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5268,7 +5278,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5305,14 +5315,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 58365-2022</t>
+          <t>A 47903-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44901.62020833333</v>
+        <v>45932</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5325,7 +5335,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5362,14 +5372,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 34419-2025</t>
+          <t>A 14383-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45846.66137731481</v>
+        <v>45394</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5382,7 +5392,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5419,14 +5429,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 34402-2025</t>
+          <t>A 8877-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45846.61403935185</v>
+        <v>45713.37665509259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5439,7 +5449,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.3</v>
+        <v>7.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5476,14 +5486,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 34411-2025</t>
+          <t>A 53160-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45846.64509259259</v>
+        <v>45229.37484953704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5496,7 +5506,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5533,14 +5543,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 48279-2025</t>
+          <t>A 6355-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45933.58763888889</v>
+        <v>45338.47413194444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5553,7 +5563,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5590,14 +5600,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47903-2025</t>
+          <t>A 35055-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45932</v>
+        <v>45527</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5610,7 +5620,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5647,14 +5657,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 62219-2022</t>
+          <t>A 58365-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44922.66564814815</v>
+        <v>44901.62020833333</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5667,7 +5677,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5704,14 +5714,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 61975-2021</t>
+          <t>A 34419-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44502</v>
+        <v>45846.66137731481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5723,13 +5733,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5766,14 +5771,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 47649-2023</t>
+          <t>A 34402-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45203</v>
+        <v>45846.61403935185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5786,7 +5791,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5823,14 +5828,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 34530-2024</t>
+          <t>A 34411-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45525</v>
+        <v>45846.64509259259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5843,7 +5848,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5880,14 +5885,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 2761-2023</t>
+          <t>A 51117-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44944.61564814814</v>
+        <v>45947.52902777777</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5900,7 +5905,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5937,14 +5942,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 51117-2025</t>
+          <t>A 62219-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45947.52902777777</v>
+        <v>44922.66564814815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5957,7 +5962,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5994,14 +5999,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 29648-2025</t>
+          <t>A 61975-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45825</v>
+        <v>44502</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6013,8 +6018,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6051,14 +6061,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 19306-2025</t>
+          <t>A 47649-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45769.56755787037</v>
+        <v>45203</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6070,13 +6080,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6113,14 +6118,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 7310-2026</t>
+          <t>A 2761-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46058.66219907408</v>
+        <v>44944.61564814814</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6133,7 +6138,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6170,14 +6175,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 53651-2025</t>
+          <t>A 34530-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45960.52734953703</v>
+        <v>45525</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6190,7 +6195,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6227,14 +6232,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 8969-2023</t>
+          <t>A 19306-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44979.50427083333</v>
+        <v>45769.56755787037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6246,8 +6251,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6284,14 +6294,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 54449-2025</t>
+          <t>A 53651-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45965.54233796296</v>
+        <v>45960.52734953703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6304,7 +6314,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6341,14 +6351,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 15409-2024</t>
+          <t>A 54449-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45401.34701388889</v>
+        <v>45965.54233796296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6361,7 +6371,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6398,14 +6408,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 64438-2023</t>
+          <t>A 29648-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45280.68280092593</v>
+        <v>45825</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6418,7 +6428,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6455,14 +6465,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 41931-2024</t>
+          <t>A 8969-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45561.56418981482</v>
+        <v>44979.50427083333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6475,7 +6485,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6512,14 +6522,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 56101-2025</t>
+          <t>A 15409-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45973.71033564815</v>
+        <v>45401.34701388889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6532,7 +6542,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6569,14 +6579,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 45665-2021</t>
+          <t>A 64438-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44441.32771990741</v>
+        <v>45280.68280092593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6589,7 +6599,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6626,14 +6636,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 57527-2025</t>
+          <t>A 41931-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45980.63293981482</v>
+        <v>45561.56418981482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6646,7 +6656,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6683,14 +6693,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 10836-2023</t>
+          <t>A 45665-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44991</v>
+        <v>44441.32771990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6703,7 +6713,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6740,14 +6750,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 10737-2023</t>
+          <t>A 10836-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44984</v>
+        <v>44991</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6760,7 +6770,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6797,14 +6807,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 52631-2024</t>
+          <t>A 10737-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45610.30113425926</v>
+        <v>44984</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6817,7 +6827,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6854,14 +6864,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 58101-2023</t>
+          <t>A 52631-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45249.38699074074</v>
+        <v>45610.30113425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6874,7 +6884,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>6.1</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6911,14 +6921,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 16921-2025</t>
+          <t>A 61133-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45755.37600694445</v>
+        <v>46000.49719907407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6930,13 +6940,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6973,14 +6978,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 16618-2025</t>
+          <t>A 58101-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45754.31761574074</v>
+        <v>45249.38699074074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6993,7 +6998,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.8</v>
+        <v>6.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7030,14 +7035,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 60254-2024</t>
+          <t>A 16921-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45642</v>
+        <v>45755.37600694445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7049,8 +7054,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>13.4</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7087,14 +7097,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 60260-2024</t>
+          <t>A 61701-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45642</v>
+        <v>46002.53532407407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7107,7 +7117,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7144,14 +7154,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 53253-2023</t>
+          <t>A 16618-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45229.52552083333</v>
+        <v>45754.31761574074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7164,7 +7174,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7201,14 +7211,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 39459-2023</t>
+          <t>A 4002-2026</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45166.81715277778</v>
+        <v>46044</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7221,7 +7231,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7258,14 +7268,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 61133-2025</t>
+          <t>A 60254-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46000.49719907407</v>
+        <v>45642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7278,7 +7288,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>13.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7315,14 +7325,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 55788-2023</t>
+          <t>A 60260-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45239</v>
+        <v>45642</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7335,7 +7345,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7372,14 +7382,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 19310-2025</t>
+          <t>A 53253-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45769.57109953704</v>
+        <v>45229.52552083333</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7391,13 +7401,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7434,14 +7439,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 2763-2023</t>
+          <t>A 39459-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44944.62079861111</v>
+        <v>45166.81715277778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7454,7 +7459,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7491,14 +7496,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 35048-2024</t>
+          <t>A 7310-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45527.64537037037</v>
+        <v>46058.66219907408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7511,7 +7516,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7548,14 +7553,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 4316-2024</t>
+          <t>A 55788-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45324.65905092593</v>
+        <v>45239</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7568,7 +7573,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7605,14 +7610,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 16924-2025</t>
+          <t>A 19310-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45755.3825462963</v>
+        <v>45769.57109953704</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7630,7 +7635,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7667,14 +7672,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7179-2023</t>
+          <t>A 2763-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44965</v>
+        <v>44944.62079861111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7687,7 +7692,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7724,14 +7729,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 40671-2024</t>
+          <t>A 35048-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45558.36265046296</v>
+        <v>45527.64537037037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7744,7 +7749,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7781,14 +7786,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 21738-2023</t>
+          <t>A 4316-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45063</v>
+        <v>45324.65905092593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7801,7 +7806,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7838,14 +7843,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 45669-2023</t>
+          <t>A 16924-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45194.87333333334</v>
+        <v>45755.3825462963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7857,8 +7862,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7895,14 +7905,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 33522-2024</t>
+          <t>A 7179-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45519</v>
+        <v>44965</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7915,7 +7925,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7952,14 +7962,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 20430-2025</t>
+          <t>A 40671-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45775.47766203704</v>
+        <v>45558.36265046296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7972,7 +7982,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8009,14 +8019,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 45588-2022</t>
+          <t>A 21738-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44845.54098379629</v>
+        <v>45063</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8029,7 +8039,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8066,14 +8076,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 17150-2023</t>
+          <t>A 45669-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45034</v>
+        <v>45194.87333333334</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8086,7 +8096,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8123,14 +8133,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 65114-2021</t>
+          <t>A 33522-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44515.41678240741</v>
+        <v>45519</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8143,7 +8153,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8180,14 +8190,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 62223-2022</t>
+          <t>A 20430-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44922.67252314815</v>
+        <v>45775.47766203704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8200,7 +8210,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8237,14 +8247,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 1878-2022</t>
+          <t>A 45588-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44574</v>
+        <v>44845.54098379629</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8257,7 +8267,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8294,14 +8304,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 39211-2023</t>
+          <t>A 17150-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45166.41819444444</v>
+        <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8314,7 +8324,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8351,14 +8361,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 38792-2024</t>
+          <t>A 65114-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45547.48993055556</v>
+        <v>44515.41678240741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8371,7 +8381,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8408,14 +8418,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 59273-2023</t>
+          <t>A 62223-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45253.55516203704</v>
+        <v>44922.67252314815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8428,7 +8438,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8465,14 +8475,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 45881-2024</t>
+          <t>A 1878-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45580</v>
+        <v>44574</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8485,7 +8495,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8522,14 +8532,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 17611-2025</t>
+          <t>A 39211-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45757.79642361111</v>
+        <v>45166.41819444444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8542,7 +8552,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8579,14 +8589,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 19384-2023</t>
+          <t>A 38792-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45049</v>
+        <v>45547.48993055556</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8599,7 +8609,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8636,14 +8646,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 16687-2025</t>
+          <t>A 59273-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45754.45372685185</v>
+        <v>45253.55516203704</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8656,7 +8666,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8693,14 +8703,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 60258-2024</t>
+          <t>A 45881-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45642</v>
+        <v>45580</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8713,7 +8723,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8750,14 +8760,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 60259-2024</t>
+          <t>A 17611-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45642</v>
+        <v>45757.79642361111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8770,7 +8780,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8807,14 +8817,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 47650-2023</t>
+          <t>A 19384-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45203</v>
+        <v>45049</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8827,7 +8837,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8864,14 +8874,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 6872-2022</t>
+          <t>A 16687-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44602.75136574074</v>
+        <v>45754.45372685185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8884,7 +8894,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8921,14 +8931,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58633-2023</t>
+          <t>A 60258-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45251.56759259259</v>
+        <v>45642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8941,7 +8951,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8978,14 +8988,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 29728-2022</t>
+          <t>A 60259-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44755.45465277778</v>
+        <v>45642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8998,7 +9008,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9035,14 +9045,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 17335-2025</t>
+          <t>A 47650-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45756</v>
+        <v>45203</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9055,7 +9065,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.7</v>
+        <v>0.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9092,14 +9102,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 48510-2024</t>
+          <t>A 6872-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45591</v>
+        <v>44602.75136574074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9112,7 +9122,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9149,14 +9159,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 54948-2024</t>
+          <t>A 58633-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45619</v>
+        <v>45251.56759259259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9169,7 +9179,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9206,14 +9216,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 9954-2025</t>
+          <t>A 29728-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45719.35216435185</v>
+        <v>44755.45465277778</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9226,7 +9236,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9263,14 +9273,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 4241-2023</t>
+          <t>A 17335-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44953</v>
+        <v>45756</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9283,7 +9293,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9320,14 +9330,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 4242-2023</t>
+          <t>A 48510-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44953</v>
+        <v>45591</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9340,7 +9350,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9377,14 +9387,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 60253-2024</t>
+          <t>A 54948-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45642</v>
+        <v>45619</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9397,7 +9407,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9434,14 +9444,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 53179-2023</t>
+          <t>A 9954-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45229.40875</v>
+        <v>45719.35216435185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9454,7 +9464,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9491,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 42016-2023</t>
+          <t>A 4241-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45177.47246527778</v>
+        <v>44953</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9511,7 +9521,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9548,14 +9558,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 22028-2025</t>
+          <t>A 4242-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45785.21606481481</v>
+        <v>44953</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9568,7 +9578,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9605,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 3572-2025</t>
+          <t>A 60253-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45680.71428240741</v>
+        <v>45642</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9625,7 +9635,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9662,14 +9672,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 54412-2024</t>
+          <t>A 53179-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45617</v>
+        <v>45229.40875</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9682,7 +9692,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9719,14 +9729,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 22418-2025</t>
+          <t>A 42016-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45786.56079861111</v>
+        <v>45177.47246527778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9738,13 +9748,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9781,14 +9786,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 22358-2025</t>
+          <t>A 22028-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45786.46289351852</v>
+        <v>45785.21606481481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9800,13 +9805,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44334</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44396</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44602</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44273.60354166666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>44512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44351.30972222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44715</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44515.4119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44851.38383101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44566.46680555555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44566.46861111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2564,14 +2564,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 417-2023</t>
+          <t>A 53179-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44929</v>
+        <v>45229.40875</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2621,14 +2621,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 22789-2022</t>
+          <t>A 65114-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44715</v>
+        <v>44515.41678240741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2678,14 +2678,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62220-2022</t>
+          <t>A 59273-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44922.66780092593</v>
+        <v>45253.55516203704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2735,14 +2735,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 45054-2023</t>
+          <t>A 15409-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45191</v>
+        <v>45401.34701388889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2792,14 +2792,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 29822-2023</t>
+          <t>A 47903-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45107.56379629629</v>
+        <v>45932</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2849,14 +2849,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 58150-2022</t>
+          <t>A 8969-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44900.7941087963</v>
+        <v>44979.50427083333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2906,14 +2906,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 10115-2023</t>
+          <t>A 48279-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44986.34202546296</v>
+        <v>45933.58763888889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2925,13 +2925,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2968,14 +2963,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3572-2025</t>
+          <t>A 54412-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45680.71428240741</v>
+        <v>45617</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2988,7 +2983,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3025,14 +3020,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15684-2023</t>
+          <t>A 3572-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45021</v>
+        <v>45680.71428240741</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3045,7 +3040,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3082,14 +3077,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 54412-2024</t>
+          <t>A 58365-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45617</v>
+        <v>44901.62020833333</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3102,7 +3097,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3146,7 +3141,7 @@
         <v>45786.56079861111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3201,14 +3196,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 22358-2025</t>
+          <t>A 60264-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45786.46289351852</v>
+        <v>45642.8599537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3220,13 +3215,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3263,14 +3253,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 1191-2025</t>
+          <t>A 22028-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45666</v>
+        <v>45785.21606481481</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3283,7 +3273,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3327,7 +3317,7 @@
         <v>45789.84356481482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3377,14 +3367,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 12954-2025</t>
+          <t>A 40687-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45734.40412037037</v>
+        <v>45896.87452546296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3397,7 +3387,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3434,14 +3424,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22827-2025</t>
+          <t>A 22358-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45789.84092592593</v>
+        <v>45786.46289351852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3453,8 +3443,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3491,14 +3486,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 45599-2024</t>
+          <t>A 22827-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45579.43138888889</v>
+        <v>45789.84092592593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3511,7 +3506,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3548,14 +3543,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 8450-2025</t>
+          <t>A 41130-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45709.45519675926</v>
+        <v>45898</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3568,7 +3563,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3605,14 +3600,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 56101-2025</t>
+          <t>A 40685-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45973.71033564815</v>
+        <v>45896.87293981481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3625,7 +3620,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3662,14 +3657,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 5564-2023</t>
+          <t>A 40686-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44960</v>
+        <v>45896.87371527778</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3682,7 +3677,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3719,14 +3714,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 418-2023</t>
+          <t>A 40758-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44929</v>
+        <v>45897</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3739,7 +3734,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3776,14 +3771,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 419-2023</t>
+          <t>A 8450-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44929</v>
+        <v>45709.45519675926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3796,7 +3791,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3833,14 +3828,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 10462-2025</t>
+          <t>A 12954-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45720.7705787037</v>
+        <v>45734.40412037037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3853,7 +3848,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3890,14 +3885,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 60264-2024</t>
+          <t>A 1191-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45642.8599537037</v>
+        <v>45666</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3910,7 +3905,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.9</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3947,14 +3942,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 25065-2025</t>
+          <t>A 45599-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45799.70430555556</v>
+        <v>45579.43138888889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3967,7 +3962,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.2</v>
+        <v>6.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4004,14 +3999,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 25063-2025</t>
+          <t>A 10462-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45799.70287037037</v>
+        <v>45720.7705787037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4024,7 +4019,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4061,14 +4056,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 40687-2025</t>
+          <t>A 51117-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45896.87452546296</v>
+        <v>45947.52902777777</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4081,7 +4076,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4118,14 +4113,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40758-2025</t>
+          <t>A 55788-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45897</v>
+        <v>45239</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4138,7 +4133,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4175,14 +4170,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40685-2025</t>
+          <t>A 2761-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45896.87293981481</v>
+        <v>44944.61564814814</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4195,7 +4190,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4232,14 +4227,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40686-2025</t>
+          <t>A 43013-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45896.87371527778</v>
+        <v>45909.49075231481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4252,7 +4247,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4289,14 +4284,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 10235-2023</t>
+          <t>A 62219-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44986.65542824074</v>
+        <v>44922.66564814815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4309,7 +4304,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4346,14 +4341,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 57527-2025</t>
+          <t>A 53651-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45980.63293981482</v>
+        <v>45960.52734953703</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4366,7 +4361,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4403,14 +4398,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 41130-2025</t>
+          <t>A 43125-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45898</v>
+        <v>45909.72638888889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4423,7 +4418,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4460,14 +4455,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 420-2023</t>
+          <t>A 43124-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44929</v>
+        <v>45909.70793981481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4480,7 +4475,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4517,14 +4512,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 506-2023</t>
+          <t>A 25065-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44930</v>
+        <v>45799.70430555556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4537,7 +4532,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4574,14 +4569,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 48901-2023</t>
+          <t>A 25063-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45209.52467592592</v>
+        <v>45799.70287037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4594,7 +4589,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>18.3</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4631,14 +4626,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 36868-2022</t>
+          <t>A 27671-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44805.6289699074</v>
+        <v>45813</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4651,7 +4646,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4688,14 +4683,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 43124-2025</t>
+          <t>A 54449-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45909.70793981481</v>
+        <v>45965.54233796296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4708,7 +4703,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4745,14 +4740,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 43125-2025</t>
+          <t>A 419-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45909.72638888889</v>
+        <v>44929</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4765,7 +4760,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4802,14 +4797,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43013-2025</t>
+          <t>A 60253-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45909.49075231481</v>
+        <v>45642</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4822,7 +4817,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4859,14 +4854,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 27671-2025</t>
+          <t>A 60258-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45813</v>
+        <v>45642</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4879,7 +4874,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4916,14 +4911,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28703-2025</t>
+          <t>A 60259-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45820.23819444444</v>
+        <v>45642</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4936,7 +4931,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7.8</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,7 +4975,7 @@
         <v>45919.61190972223</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5037,7 +5032,7 @@
         <v>45923.59707175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5087,14 +5082,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29819-2025</t>
+          <t>A 47649-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45825.84666666666</v>
+        <v>45203</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5107,7 +5102,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5144,14 +5139,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 62221-2022</t>
+          <t>A 56101-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44922</v>
+        <v>45973.71033564815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5164,7 +5159,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5201,14 +5196,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 48279-2025</t>
+          <t>A 33522-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45933.58763888889</v>
+        <v>45519</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5221,7 +5216,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5258,14 +5253,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 31677-2025</t>
+          <t>A 21738-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45834.37809027778</v>
+        <v>45063</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5278,7 +5273,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5315,14 +5310,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 47903-2025</t>
+          <t>A 1878-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45932</v>
+        <v>44574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5335,7 +5330,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5372,14 +5367,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14383-2024</t>
+          <t>A 40671-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45394</v>
+        <v>45558.36265046296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5392,7 +5387,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5429,14 +5424,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 8877-2025</t>
+          <t>A 28703-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45713.37665509259</v>
+        <v>45820.23819444444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5449,7 +5444,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5486,14 +5481,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 53160-2023</t>
+          <t>A 16924-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45229.37484953704</v>
+        <v>45755.3825462963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5505,8 +5500,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5543,14 +5543,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 6355-2024</t>
+          <t>A 29819-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45338.47413194444</v>
+        <v>45825.84666666666</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5600,14 +5600,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 35055-2024</t>
+          <t>A 57527-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45527</v>
+        <v>45980.63293981482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5657,14 +5657,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 58365-2022</t>
+          <t>A 31677-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44901.62020833333</v>
+        <v>45834.37809027778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5714,14 +5714,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 34419-2025</t>
+          <t>A 62223-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45846.66137731481</v>
+        <v>44922.67252314815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5771,14 +5771,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 34402-2025</t>
+          <t>A 10115-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45846.61403935185</v>
+        <v>44986.34202546296</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5790,8 +5790,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5828,14 +5833,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 34411-2025</t>
+          <t>A 45665-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45846.64509259259</v>
+        <v>44441.32771990741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5848,7 +5853,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5885,14 +5890,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 51117-2025</t>
+          <t>A 34402-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45947.52902777777</v>
+        <v>45846.61403935185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5905,7 +5910,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5942,14 +5947,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 62219-2022</t>
+          <t>A 34411-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44922.66564814815</v>
+        <v>45846.64509259259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5962,7 +5967,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5999,14 +6004,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 61975-2021</t>
+          <t>A 34419-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44502</v>
+        <v>45846.66137731481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6018,13 +6023,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6061,14 +6061,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 47649-2023</t>
+          <t>A 60254-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45203</v>
+        <v>45642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>13.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6118,14 +6118,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 2761-2023</t>
+          <t>A 60260-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44944.61564814814</v>
+        <v>45642</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6182,7 +6182,7 @@
         <v>45525</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6232,14 +6232,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 19306-2025</t>
+          <t>A 5564-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45769.56755787037</v>
+        <v>44960</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6251,13 +6251,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6294,14 +6289,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 53651-2025</t>
+          <t>A 417-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45960.52734953703</v>
+        <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6314,7 +6309,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6351,14 +6346,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 54449-2025</t>
+          <t>A 17150-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45965.54233796296</v>
+        <v>45034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6371,7 +6366,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6408,14 +6403,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 29648-2025</t>
+          <t>A 58150-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45825</v>
+        <v>44900.7941087963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6428,7 +6423,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6465,14 +6460,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 8969-2023</t>
+          <t>A 22789-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44979.50427083333</v>
+        <v>44715</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6485,7 +6480,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6522,14 +6517,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 15409-2024</t>
+          <t>A 52631-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45401.34701388889</v>
+        <v>45610.30113425926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6542,7 +6537,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6579,14 +6574,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 64438-2023</t>
+          <t>A 29648-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45280.68280092593</v>
+        <v>45825</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6599,7 +6594,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6636,14 +6631,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 41931-2024</t>
+          <t>A 42016-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45561.56418981482</v>
+        <v>45177.47246527778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6656,7 +6651,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6693,14 +6688,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 45665-2021</t>
+          <t>A 61133-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44441.32771990741</v>
+        <v>46000.49719907407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6713,7 +6708,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6750,14 +6745,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 10836-2023</t>
+          <t>A 10235-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44991</v>
+        <v>44986.65542824074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6770,7 +6765,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6807,14 +6802,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 10737-2023</t>
+          <t>A 8877-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44984</v>
+        <v>45713.37665509259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6827,7 +6822,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.4</v>
+        <v>7.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6864,14 +6859,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 52631-2024</t>
+          <t>A 506-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45610.30113425926</v>
+        <v>44930</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6921,14 +6916,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 61133-2025</t>
+          <t>A 420-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46000.49719907407</v>
+        <v>44929</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6941,7 +6936,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6978,14 +6973,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 58101-2023</t>
+          <t>A 38792-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45249.38699074074</v>
+        <v>45547.48993055556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6998,7 +6993,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.1</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7035,14 +7030,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 16921-2025</t>
+          <t>A 61701-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45755.37600694445</v>
+        <v>46002.53532407407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7054,13 +7049,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7097,14 +7087,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 61701-2025</t>
+          <t>A 9954-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46002.53532407407</v>
+        <v>45719.35216435185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7117,7 +7107,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7154,14 +7144,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 16618-2025</t>
+          <t>A 4002-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45754.31761574074</v>
+        <v>46044</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7174,7 +7164,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7211,14 +7201,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 4002-2026</t>
+          <t>A 58101-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46044</v>
+        <v>45249.38699074074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7231,7 +7221,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7268,14 +7258,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 60254-2024</t>
+          <t>A 19306-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45642</v>
+        <v>45769.56755787037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7287,8 +7277,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>13.4</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7325,14 +7320,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 60260-2024</t>
+          <t>A 17611-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45642</v>
+        <v>45757.79642361111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7345,7 +7340,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7382,14 +7377,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 53253-2023</t>
+          <t>A 16618-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45229.52552083333</v>
+        <v>45754.31761574074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7402,7 +7397,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7439,14 +7434,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 39459-2023</t>
+          <t>A 47650-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45166.81715277778</v>
+        <v>45203</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7459,7 +7454,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7496,14 +7491,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 7310-2026</t>
+          <t>A 53160-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46058.66219907408</v>
+        <v>45229.37484953704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7516,7 +7511,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7553,14 +7548,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 55788-2023</t>
+          <t>A 53253-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45239</v>
+        <v>45229.52552083333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7573,7 +7568,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7610,14 +7605,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 19310-2025</t>
+          <t>A 45881-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45769.57109953704</v>
+        <v>45580</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7627,11 +7622,6 @@
       <c r="E123" t="inlineStr">
         <is>
           <t>TIBRO</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -7672,14 +7662,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 2763-2023</t>
+          <t>A 7310-2026</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44944.62079861111</v>
+        <v>46058.66219907408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7692,7 +7682,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7729,14 +7719,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35048-2024</t>
+          <t>A 17335-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45527.64537037037</v>
+        <v>45756</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7749,7 +7739,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7786,14 +7776,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 4316-2024</t>
+          <t>A 35048-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45324.65905092593</v>
+        <v>45527.64537037037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7806,7 +7796,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7843,14 +7833,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 16924-2025</t>
+          <t>A 6355-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45755.3825462963</v>
+        <v>45338.47413194444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7862,13 +7852,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7912,7 +7897,7 @@
         <v>44965</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7962,14 +7947,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 40671-2024</t>
+          <t>A 35055-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45558.36265046296</v>
+        <v>45527</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7982,7 +7967,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8019,14 +8004,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 21738-2023</t>
+          <t>A 61975-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45063</v>
+        <v>44502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8038,8 +8023,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8076,14 +8066,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 45669-2023</t>
+          <t>A 39211-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45194.87333333334</v>
+        <v>45166.41819444444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8096,7 +8086,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8133,14 +8123,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 33522-2024</t>
+          <t>A 15684-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45519</v>
+        <v>45021</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8153,7 +8143,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8190,14 +8180,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 20430-2025</t>
+          <t>A 45669-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45775.47766203704</v>
+        <v>45194.87333333334</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8210,7 +8200,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8247,14 +8237,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 45588-2022</t>
+          <t>A 54948-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44845.54098379629</v>
+        <v>45619</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8267,7 +8257,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8304,14 +8294,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 17150-2023</t>
+          <t>A 20430-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45034</v>
+        <v>45775.47766203704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8324,7 +8314,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8361,14 +8351,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 65114-2021</t>
+          <t>A 41931-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44515.41678240741</v>
+        <v>45561.56418981482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8381,7 +8371,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8418,14 +8408,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 62223-2022</t>
+          <t>A 64438-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44922.67252314815</v>
+        <v>45280.68280092593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8438,7 +8428,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.4</v>
+        <v>5.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8475,14 +8465,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 1878-2022</t>
+          <t>A 19310-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44574</v>
+        <v>45769.57109953704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8494,8 +8484,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8532,14 +8527,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 39211-2023</t>
+          <t>A 16921-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45166.41819444444</v>
+        <v>45755.37600694445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8549,6 +8544,11 @@
       <c r="E139" t="inlineStr">
         <is>
           <t>TIBRO</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -8589,14 +8589,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 38792-2024</t>
+          <t>A 48901-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45547.48993055556</v>
+        <v>45209.52467592592</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>18.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8646,14 +8646,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 59273-2023</t>
+          <t>A 39459-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45253.55516203704</v>
+        <v>45166.81715277778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8703,14 +8703,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45881-2024</t>
+          <t>A 36868-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45580</v>
+        <v>44805.6289699074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8760,14 +8760,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 17611-2025</t>
+          <t>A 4241-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45757.79642361111</v>
+        <v>44953</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8817,14 +8817,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 19384-2023</t>
+          <t>A 4242-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45049</v>
+        <v>44953</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8874,14 +8874,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 16687-2025</t>
+          <t>A 45054-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45754.45372685185</v>
+        <v>45191</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8931,14 +8931,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 60258-2024</t>
+          <t>A 29728-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45642</v>
+        <v>44755.45465277778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8988,14 +8988,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 60259-2024</t>
+          <t>A 48510-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45642</v>
+        <v>45591</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9045,14 +9045,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 47650-2023</t>
+          <t>A 6872-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45203</v>
+        <v>44602.75136574074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9102,14 +9102,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 6872-2022</t>
+          <t>A 29822-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44602.75136574074</v>
+        <v>45107.56379629629</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9159,14 +9159,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 58633-2023</t>
+          <t>A 62221-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45251.56759259259</v>
+        <v>44922</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9216,14 +9216,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 29728-2022</t>
+          <t>A 2763-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44755.45465277778</v>
+        <v>44944.62079861111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9273,14 +9273,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 17335-2025</t>
+          <t>A 19384-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45756</v>
+        <v>45049</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9330,14 +9330,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 48510-2024</t>
+          <t>A 16687-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45591</v>
+        <v>45754.45372685185</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9387,14 +9387,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 54948-2024</t>
+          <t>A 62220-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45619</v>
+        <v>44922.66780092593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9444,14 +9444,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 9954-2025</t>
+          <t>A 418-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45719.35216435185</v>
+        <v>44929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 4241-2023</t>
+          <t>A 10836-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44953</v>
+        <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9558,14 +9558,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 4242-2023</t>
+          <t>A 14383-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44953</v>
+        <v>45394</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 60253-2024</t>
+          <t>A 4316-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45642</v>
+        <v>45324.65905092593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9672,14 +9672,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 53179-2023</t>
+          <t>A 10737-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45229.40875</v>
+        <v>44984</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9729,14 +9729,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 42016-2023</t>
+          <t>A 45588-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45177.47246527778</v>
+        <v>44845.54098379629</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9786,14 +9786,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 22028-2025</t>
+          <t>A 58633-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45785.21606481481</v>
+        <v>45251.56759259259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44334</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44396</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44602</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1689,14 +1689,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 21436-2021</t>
+          <t>A 13461-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44318</v>
+        <v>44273.60354166666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1746,14 +1746,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 13461-2021</t>
+          <t>A 21436-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44273.60354166666</v>
+        <v>44318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>44512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44351.30972222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44715</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44515.4119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44851.38383101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44566.46680555555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44566.46861111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2564,14 +2564,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 53179-2023</t>
+          <t>A 62220-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45229.40875</v>
+        <v>44922.66780092593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2621,14 +2621,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 65114-2021</t>
+          <t>A 22789-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44515.41678240741</v>
+        <v>44715</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2678,14 +2678,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 59273-2023</t>
+          <t>A 29822-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45253.55516203704</v>
+        <v>45107.56379629629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2735,14 +2735,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 15409-2024</t>
+          <t>A 45054-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45401.34701388889</v>
+        <v>45191</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2792,14 +2792,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 47903-2025</t>
+          <t>A 417-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45932</v>
+        <v>44929</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2849,14 +2849,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 8969-2023</t>
+          <t>A 15684-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44979.50427083333</v>
+        <v>45021</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2906,14 +2906,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 48279-2025</t>
+          <t>A 58150-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45933.58763888889</v>
+        <v>44900.7941087963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2963,14 +2963,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 54412-2024</t>
+          <t>A 10115-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45617</v>
+        <v>44986.34202546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2982,8 +2982,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3020,14 +3025,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 3572-2025</t>
+          <t>A 418-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45680.71428240741</v>
+        <v>44929</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3040,7 +3045,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3077,14 +3082,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 58365-2022</t>
+          <t>A 419-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44901.62020833333</v>
+        <v>44929</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3097,7 +3102,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.9</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3134,14 +3139,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 22418-2025</t>
+          <t>A 10235-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45786.56079861111</v>
+        <v>44986.65542824074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3153,13 +3158,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 60264-2024</t>
+          <t>A 420-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45642.8599537037</v>
+        <v>44929</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22028-2025</t>
+          <t>A 506-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45785.21606481481</v>
+        <v>44930</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22828-2025</t>
+          <t>A 48901-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45789.84356481482</v>
+        <v>45209.52467592592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>18.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 40687-2025</t>
+          <t>A 36868-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45896.87452546296</v>
+        <v>44805.6289699074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3424,14 +3424,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22358-2025</t>
+          <t>A 5564-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45786.46289351852</v>
+        <v>44960</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3443,13 +3443,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3486,14 +3481,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 22827-2025</t>
+          <t>A 62221-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45789.84092592593</v>
+        <v>44922</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3506,7 +3501,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3543,14 +3538,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 41130-2025</t>
+          <t>A 28703-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45898</v>
+        <v>45820.23819444444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3563,7 +3558,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>7.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3600,14 +3595,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40685-2025</t>
+          <t>A 29819-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45896.87293981481</v>
+        <v>45825.84666666666</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3620,7 +3615,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3657,14 +3652,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 40686-2025</t>
+          <t>A 14383-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45896.87371527778</v>
+        <v>45394</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3677,7 +3672,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3714,14 +3709,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 40758-2025</t>
+          <t>A 8877-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45897</v>
+        <v>45713.37665509259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3734,7 +3729,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.1</v>
+        <v>7.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3771,14 +3766,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 8450-2025</t>
+          <t>A 53160-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45709.45519675926</v>
+        <v>45229.37484953704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3791,7 +3786,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3828,14 +3823,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 12954-2025</t>
+          <t>A 60264-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45734.40412037037</v>
+        <v>45642.8599537037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3848,7 +3843,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3885,14 +3880,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 1191-2025</t>
+          <t>A 6355-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45666</v>
+        <v>45338.47413194444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3905,7 +3900,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3942,14 +3937,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 45599-2024</t>
+          <t>A 40687-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45579.43138888889</v>
+        <v>45896.87452546296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3962,7 +3957,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3999,14 +3994,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 10462-2025</t>
+          <t>A 40758-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45720.7705787037</v>
+        <v>45897</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4019,7 +4014,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4056,14 +4051,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 51117-2025</t>
+          <t>A 40685-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45947.52902777777</v>
+        <v>45896.87293981481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4076,7 +4071,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4113,14 +4108,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 55788-2023</t>
+          <t>A 40686-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45239</v>
+        <v>45896.87371527778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4133,7 +4128,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4170,14 +4165,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2761-2023</t>
+          <t>A 35055-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44944.61564814814</v>
+        <v>45527</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4190,7 +4185,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4227,14 +4222,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 43013-2025</t>
+          <t>A 58365-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45909.49075231481</v>
+        <v>44901.62020833333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4247,7 +4242,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4284,14 +4279,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 62219-2022</t>
+          <t>A 41130-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44922.66564814815</v>
+        <v>45898</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4304,7 +4299,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4341,14 +4336,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 53651-2025</t>
+          <t>A 31677-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45960.52734953703</v>
+        <v>45834.37809027778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4361,7 +4356,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4398,14 +4393,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 43125-2025</t>
+          <t>A 43124-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45909.72638888889</v>
+        <v>45909.70793981481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4418,7 +4413,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4455,14 +4450,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 43124-2025</t>
+          <t>A 43125-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45909.70793981481</v>
+        <v>45909.72638888889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4475,7 +4470,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4512,14 +4507,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 25065-2025</t>
+          <t>A 43013-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45799.70430555556</v>
+        <v>45909.49075231481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4532,7 +4527,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4569,14 +4564,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25063-2025</t>
+          <t>A 62219-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45799.70287037037</v>
+        <v>44922.66564814815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4589,7 +4584,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4626,14 +4621,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 27671-2025</t>
+          <t>A 61975-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45813</v>
+        <v>44502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4645,8 +4640,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4683,14 +4683,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 54449-2025</t>
+          <t>A 47649-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45965.54233796296</v>
+        <v>45203</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4740,14 +4740,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 419-2023</t>
+          <t>A 2761-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44929</v>
+        <v>44944.61564814814</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4797,14 +4797,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 60253-2024</t>
+          <t>A 34419-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45642</v>
+        <v>45846.66137731481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4854,14 +4854,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 60258-2024</t>
+          <t>A 34402-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45642</v>
+        <v>45846.61403935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4911,14 +4911,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 60259-2024</t>
+          <t>A 34411-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45642</v>
+        <v>45846.64509259259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4968,14 +4968,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45248-2025</t>
+          <t>A 27671-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45919.61190972223</v>
+        <v>45813</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5025,14 +5025,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 45821-2025</t>
+          <t>A 45248-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45923.59707175926</v>
+        <v>45919.61190972223</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5082,14 +5082,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 47649-2023</t>
+          <t>A 19306-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45203</v>
+        <v>45769.56755787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5101,8 +5101,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5139,14 +5144,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 56101-2025</t>
+          <t>A 45821-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45973.71033564815</v>
+        <v>45923.59707175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5159,7 +5164,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5196,14 +5201,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 33522-2024</t>
+          <t>A 34530-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45519</v>
+        <v>45525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5216,7 +5221,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5253,14 +5258,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 21738-2023</t>
+          <t>A 8969-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45063</v>
+        <v>44979.50427083333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5273,7 +5278,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5310,14 +5315,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1878-2022</t>
+          <t>A 15409-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44574</v>
+        <v>45401.34701388889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5330,7 +5335,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5367,14 +5372,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 40671-2024</t>
+          <t>A 64438-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45558.36265046296</v>
+        <v>45280.68280092593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5387,7 +5392,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5424,14 +5429,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28703-2025</t>
+          <t>A 48279-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45820.23819444444</v>
+        <v>45933.58763888889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5444,7 +5449,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>7.8</v>
+        <v>2.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5481,14 +5486,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 16924-2025</t>
+          <t>A 29648-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45755.3825462963</v>
+        <v>45825</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5500,13 +5505,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5543,14 +5543,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 29819-2025</t>
+          <t>A 47903-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45825.84666666666</v>
+        <v>45932</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5600,14 +5600,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57527-2025</t>
+          <t>A 41931-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45980.63293981482</v>
+        <v>45561.56418981482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5657,14 +5657,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 31677-2025</t>
+          <t>A 45665-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45834.37809027778</v>
+        <v>44441.32771990741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5714,14 +5714,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 62223-2022</t>
+          <t>A 10836-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44922.67252314815</v>
+        <v>44991</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5771,14 +5771,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 10115-2023</t>
+          <t>A 10737-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44986.34202546296</v>
+        <v>44984</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5790,13 +5790,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5833,14 +5828,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 45665-2021</t>
+          <t>A 51117-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44441.32771990741</v>
+        <v>45947.52902777777</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5853,7 +5848,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5890,14 +5885,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 34402-2025</t>
+          <t>A 52631-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45846.61403935185</v>
+        <v>45610.30113425926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5910,7 +5905,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5947,14 +5942,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 34411-2025</t>
+          <t>A 58101-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45846.64509259259</v>
+        <v>45249.38699074074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5967,7 +5962,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6004,14 +5999,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 34419-2025</t>
+          <t>A 16921-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45846.66137731481</v>
+        <v>45755.37600694445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6023,8 +6018,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6061,14 +6061,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 60254-2024</t>
+          <t>A 16618-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45642</v>
+        <v>45754.31761574074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>13.4</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6118,14 +6118,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60260-2024</t>
+          <t>A 53651-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45642</v>
+        <v>45960.52734953703</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6175,14 +6175,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 34530-2024</t>
+          <t>A 54449-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45525</v>
+        <v>45965.54233796296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6232,14 +6232,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 5564-2023</t>
+          <t>A 60254-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44960</v>
+        <v>45642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.5</v>
+        <v>13.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6289,14 +6289,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 417-2023</t>
+          <t>A 60260-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44929</v>
+        <v>45642</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6346,14 +6346,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 17150-2023</t>
+          <t>A 53253-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45034</v>
+        <v>45229.52552083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6403,14 +6403,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 58150-2022</t>
+          <t>A 39459-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44900.7941087963</v>
+        <v>45166.81715277778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6460,14 +6460,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 22789-2022</t>
+          <t>A 56101-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44715</v>
+        <v>45973.71033564815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6517,14 +6517,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 52631-2024</t>
+          <t>A 57527-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45610.30113425926</v>
+        <v>45980.63293981482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6574,14 +6574,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 29648-2025</t>
+          <t>A 55788-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45825</v>
+        <v>45239</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6631,14 +6631,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 42016-2023</t>
+          <t>A 19310-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45177.47246527778</v>
+        <v>45769.57109953704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6650,8 +6650,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6688,14 +6693,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 61133-2025</t>
+          <t>A 2763-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46000.49719907407</v>
+        <v>44944.62079861111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6708,7 +6713,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6745,14 +6750,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 10235-2023</t>
+          <t>A 35048-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44986.65542824074</v>
+        <v>45527.64537037037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6765,7 +6770,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6802,14 +6807,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 8877-2025</t>
+          <t>A 4316-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45713.37665509259</v>
+        <v>45324.65905092593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6822,7 +6827,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>7.3</v>
+        <v>0.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6859,14 +6864,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 506-2023</t>
+          <t>A 16924-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44930</v>
+        <v>45755.3825462963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6878,8 +6883,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6916,14 +6926,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 420-2023</t>
+          <t>A 61133-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44929</v>
+        <v>46000.49719907407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6936,7 +6946,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6973,14 +6983,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 38792-2024</t>
+          <t>A 61701-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45547.48993055556</v>
+        <v>46002.53532407407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6993,7 +7003,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7030,14 +7040,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 61701-2025</t>
+          <t>A 7179-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46002.53532407407</v>
+        <v>44965</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7050,7 +7060,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7087,14 +7097,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 9954-2025</t>
+          <t>A 40671-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45719.35216435185</v>
+        <v>45558.36265046296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7107,7 +7117,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7151,7 +7161,7 @@
         <v>46044</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7201,14 +7211,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 58101-2023</t>
+          <t>A 21738-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45249.38699074074</v>
+        <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7221,7 +7231,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.1</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7258,14 +7268,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 19306-2025</t>
+          <t>A 45669-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45769.56755787037</v>
+        <v>45194.87333333334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7275,11 +7285,6 @@
       <c r="E117" t="inlineStr">
         <is>
           <t>TIBRO</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -7320,14 +7325,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 17611-2025</t>
+          <t>A 33522-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45757.79642361111</v>
+        <v>45519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7340,7 +7345,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7377,14 +7382,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 16618-2025</t>
+          <t>A 20430-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45754.31761574074</v>
+        <v>45775.47766203704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7397,7 +7402,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7434,14 +7439,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47650-2023</t>
+          <t>A 45588-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45203</v>
+        <v>44845.54098379629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7454,7 +7459,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7491,14 +7496,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 53160-2023</t>
+          <t>A 7310-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45229.37484953704</v>
+        <v>46058.66219907408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7511,7 +7516,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7548,14 +7553,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 53253-2023</t>
+          <t>A 17150-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45229.52552083333</v>
+        <v>45034</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7568,7 +7573,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7605,14 +7610,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 45881-2024</t>
+          <t>A 65114-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45580</v>
+        <v>44515.41678240741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7625,7 +7630,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7662,14 +7667,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7310-2026</t>
+          <t>A 62223-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46058.66219907408</v>
+        <v>44922.67252314815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7682,7 +7687,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7719,14 +7724,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 17335-2025</t>
+          <t>A 1878-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45756</v>
+        <v>44574</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7739,7 +7744,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7776,14 +7781,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 35048-2024</t>
+          <t>A 39211-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45527.64537037037</v>
+        <v>45166.41819444444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7796,7 +7801,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7833,14 +7838,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 6355-2024</t>
+          <t>A 38792-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45338.47413194444</v>
+        <v>45547.48993055556</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7853,7 +7858,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7890,14 +7895,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 7179-2023</t>
+          <t>A 59273-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44965</v>
+        <v>45253.55516203704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7910,7 +7915,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7947,14 +7952,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 35055-2024</t>
+          <t>A 45881-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45527</v>
+        <v>45580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7967,7 +7972,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8004,14 +8009,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 61975-2021</t>
+          <t>A 17611-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44502</v>
+        <v>45757.79642361111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8023,13 +8028,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8066,14 +8066,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 39211-2023</t>
+          <t>A 19384-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45166.41819444444</v>
+        <v>45049</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8123,14 +8123,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 15684-2023</t>
+          <t>A 16687-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45021</v>
+        <v>45754.45372685185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8180,14 +8180,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 45669-2023</t>
+          <t>A 60258-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45194.87333333334</v>
+        <v>45642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8237,14 +8237,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 54948-2024</t>
+          <t>A 60259-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45619</v>
+        <v>45642</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8294,14 +8294,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 20430-2025</t>
+          <t>A 47650-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45775.47766203704</v>
+        <v>45203</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8351,14 +8351,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 41931-2024</t>
+          <t>A 6872-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45561.56418981482</v>
+        <v>44602.75136574074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8408,14 +8408,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 64438-2023</t>
+          <t>A 58633-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45280.68280092593</v>
+        <v>45251.56759259259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8465,14 +8465,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 19310-2025</t>
+          <t>A 29728-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45769.57109953704</v>
+        <v>44755.45465277778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8484,13 +8484,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8527,14 +8522,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 16921-2025</t>
+          <t>A 17335-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45755.37600694445</v>
+        <v>45756</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8546,13 +8541,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8589,14 +8579,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 48901-2023</t>
+          <t>A 48510-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45209.52467592592</v>
+        <v>45591</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8609,7 +8599,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>18.3</v>
+        <v>0.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8646,14 +8636,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 39459-2023</t>
+          <t>A 54948-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45166.81715277778</v>
+        <v>45619</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8666,7 +8656,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8703,14 +8693,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 36868-2022</t>
+          <t>A 9954-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44805.6289699074</v>
+        <v>45719.35216435185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8723,7 +8713,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8767,7 +8757,7 @@
         <v>44953</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8824,7 +8814,7 @@
         <v>44953</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8874,14 +8864,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 45054-2023</t>
+          <t>A 60253-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45191</v>
+        <v>45642</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8894,7 +8884,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8931,14 +8921,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 29728-2022</t>
+          <t>A 53179-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44755.45465277778</v>
+        <v>45229.40875</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8951,7 +8941,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8988,14 +8978,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 48510-2024</t>
+          <t>A 42016-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45591</v>
+        <v>45177.47246527778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9008,7 +8998,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9045,14 +9035,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 6872-2022</t>
+          <t>A 22028-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44602.75136574074</v>
+        <v>45785.21606481481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9065,7 +9055,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9102,14 +9092,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 29822-2023</t>
+          <t>A 3572-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45107.56379629629</v>
+        <v>45680.71428240741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9159,14 +9149,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 62221-2022</t>
+          <t>A 54412-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44922</v>
+        <v>45617</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9179,7 +9169,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9216,14 +9206,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 2763-2023</t>
+          <t>A 22418-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44944.62079861111</v>
+        <v>45786.56079861111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9235,8 +9225,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9273,14 +9268,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 19384-2023</t>
+          <t>A 22358-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45049</v>
+        <v>45786.46289351852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9292,8 +9287,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9330,14 +9330,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 16687-2025</t>
+          <t>A 1191-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45754.45372685185</v>
+        <v>45666</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9387,14 +9387,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 62220-2022</t>
+          <t>A 22828-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44922.66780092593</v>
+        <v>45789.84356481482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9444,14 +9444,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 418-2023</t>
+          <t>A 12954-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44929</v>
+        <v>45734.40412037037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 10836-2023</t>
+          <t>A 22827-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44991</v>
+        <v>45789.84092592593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9558,14 +9558,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 14383-2024</t>
+          <t>A 45599-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45394</v>
+        <v>45579.43138888889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>6.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 4316-2024</t>
+          <t>A 8450-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45324.65905092593</v>
+        <v>45709.45519675926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9672,14 +9672,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 10737-2023</t>
+          <t>A 10462-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44984</v>
+        <v>45720.7705787037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9729,14 +9729,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 45588-2022</t>
+          <t>A 25065-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44845.54098379629</v>
+        <v>45799.70430555556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9786,14 +9786,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 58633-2023</t>
+          <t>A 25063-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45251.56759259259</v>
+        <v>45799.70287037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44334</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44396</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44602</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44273.60354166666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>44512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44351.30972222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44715</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44515.4119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44851.38383101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44566.46680555555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44566.46861111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44922.66780092593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44715</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45107.56379629629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>45191</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>44929</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>45021</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44900.7941087963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>44986.34202546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44929</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44929</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44986.65542824074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44929</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44930</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45209.52467592592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44805.6289699074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44960</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44922</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>45820.23819444444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>45825.84666666666</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>45394</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>45713.37665509259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45229.37484953704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45642.8599537037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>45338.47413194444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>45896.87452546296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>45897</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>45896.87293981481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>45896.87371527778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>45527</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>44901.62020833333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>45898</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>45834.37809027778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45909.70793981481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45909.72638888889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45909.49075231481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>44922.66564814815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>44502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45203</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44944.61564814814</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>45846.66137731481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45846.61403935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45846.64509259259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>45813</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45919.61190972223</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45769.56755787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>45923.59707175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>45525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44979.50427083333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45401.34701388889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>45280.68280092593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>45933.58763888889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>45825</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>45932</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45561.56418981482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44441.32771990741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>44991</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44984</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>45947.52902777777</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>45610.30113425926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>45249.38699074074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>45755.37600694445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>45754.31761574074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>45960.52734953703</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>45965.54233796296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>45642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>45642</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>45229.52552083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>45166.81715277778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>45973.71033564815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>45980.63293981482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>45239</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>45769.57109953704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44944.62079861111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>45527.64537037037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45324.65905092593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45755.3825462963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>46000.49719907407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>46002.53532407407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>44965</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>45558.36265046296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>46044</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45194.87333333334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45775.47766203704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>44845.54098379629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>46058.66219907408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45034</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44515.41678240741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44922.67252314815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44574</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>45166.41819444444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>45547.48993055556</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>45253.55516203704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>45580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>45757.79642361111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>45049</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>45754.45372685185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45642</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>45203</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44602.75136574074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>45251.56759259259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>44755.45465277778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45756</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>45591</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>45619</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>45719.35216435185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44953</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>44953</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45642</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45229.40875</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45177.47246527778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45785.21606481481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>45680.71428240741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>45617</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45786.56079861111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>45786.46289351852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>45666</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>45789.84356481482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45734.40412037037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>45789.84092592593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>45579.43138888889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>45709.45519675926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45720.7705787037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         <v>45799.70430555556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>45799.70287037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44334</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44396</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44602</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44273.60354166666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>44512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44351.30972222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44715</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44515.4119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44851.38383101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44566.46680555555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44566.46861111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44922.66780092593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44715</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45107.56379629629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>45191</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>44929</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>45021</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44900.7941087963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>44986.34202546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44929</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44929</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44986.65542824074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44929</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44930</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45209.52467592592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44805.6289699074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44960</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44922</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>45820.23819444444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>45825.84666666666</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>45394</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>45713.37665509259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45229.37484953704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45642.8599537037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>45338.47413194444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>45896.87452546296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>45897</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>45896.87293981481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>45896.87371527778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>45527</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>44901.62020833333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>45898</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>45834.37809027778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45909.70793981481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45909.72638888889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45909.49075231481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>44922.66564814815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>44502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45203</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44944.61564814814</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>45846.66137731481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45846.61403935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45846.64509259259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>45813</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45919.61190972223</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45769.56755787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>45923.59707175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>45525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44979.50427083333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45401.34701388889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>45280.68280092593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>45933.58763888889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>45825</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>45932</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45561.56418981482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44441.32771990741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>44991</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44984</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>45947.52902777777</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>45610.30113425926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>45249.38699074074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>45755.37600694445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>45754.31761574074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>45960.52734953703</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>45965.54233796296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>45642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>45642</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>45229.52552083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>45166.81715277778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>45973.71033564815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>45980.63293981482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>45239</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>45769.57109953704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44944.62079861111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>45527.64537037037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45324.65905092593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45755.3825462963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>46000.49719907407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>46002.53532407407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>44965</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>45558.36265046296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>46044</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45194.87333333334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45775.47766203704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>44845.54098379629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>46058.66219907408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45034</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44515.41678240741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44922.67252314815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44574</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>45166.41819444444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>45547.48993055556</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>45253.55516203704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>45580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>45757.79642361111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>45049</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>45754.45372685185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45642</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>45203</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44602.75136574074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>45251.56759259259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>44755.45465277778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45756</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>45591</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>45619</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>45719.35216435185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44953</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>44953</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45642</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45229.40875</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45177.47246527778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45785.21606481481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>45680.71428240741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>45617</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45786.56079861111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>45786.46289351852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>45666</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>45789.84356481482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45734.40412037037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>45789.84092592593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>45579.43138888889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>45709.45519675926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45720.7705787037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         <v>45799.70430555556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>45799.70287037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 23790-2021</t>
+          <t>A 25943-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44334</v>
+        <v>44734</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44396</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,14 +1228,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 25943-2022</t>
+          <t>A 23790-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44734</v>
+        <v>44334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1285,14 +1285,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 6871-2022</t>
+          <t>A 6800-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44602.74396990741</v>
+        <v>44602.57005787037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1342,14 +1342,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 27286-2021</t>
+          <t>A 6822-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44351</v>
+        <v>44602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1399,14 +1399,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 6800-2022</t>
+          <t>A 6871-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44602.57005787037</v>
+        <v>44602.74396990741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,14 +1513,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 6822-2022</t>
+          <t>A 36402-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44602</v>
+        <v>44804</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1532,8 +1532,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1570,14 +1575,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 36402-2022</t>
+          <t>A 10296-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44804</v>
+        <v>44257</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1589,13 +1594,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1632,14 +1632,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 10296-2021</t>
+          <t>A 21436-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44257</v>
+        <v>44318</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>44273.60354166666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1746,14 +1746,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 21436-2021</t>
+          <t>A 64871-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44318</v>
+        <v>44512</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1803,14 +1803,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 64871-2021</t>
+          <t>A 27289-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44512</v>
+        <v>44351.30972222222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1860,14 +1860,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 27289-2021</t>
+          <t>A 27286-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44351.30972222222</v>
+        <v>44351</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1917,14 +1917,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 23080-2022</t>
+          <t>A 65112-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44715</v>
+        <v>44515.4119212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1974,14 +1974,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 65112-2021</t>
+          <t>A 36404-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44515.4119212963</v>
+        <v>44804</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1991,6 +1991,11 @@
       <c r="E25" t="inlineStr">
         <is>
           <t>TIBRO</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2031,14 +2036,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 36404-2022</t>
+          <t>A 23080-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44804</v>
+        <v>44715</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2050,13 +2055,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44851.38383101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44566.46680555555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44566.46861111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2507,14 +2507,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 42048-2021</t>
+          <t>A 33522-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44426</v>
+        <v>45519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2564,14 +2564,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62220-2022</t>
+          <t>A 53179-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44922.66780092593</v>
+        <v>45229.40875</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2621,14 +2621,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 22789-2022</t>
+          <t>A 42048-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44715</v>
+        <v>44426</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2678,14 +2678,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 29822-2023</t>
+          <t>A 21738-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45107.56379629629</v>
+        <v>45063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2735,14 +2735,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 45054-2023</t>
+          <t>A 5564-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45191</v>
+        <v>44960</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>6.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>44929</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2849,14 +2849,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15684-2023</t>
+          <t>A 1878-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45021</v>
+        <v>44574</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2906,14 +2906,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 58150-2022</t>
+          <t>A 65114-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44900.7941087963</v>
+        <v>44515.41678240741</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2963,14 +2963,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 10115-2023</t>
+          <t>A 17150-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44986.34202546296</v>
+        <v>45034</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2982,13 +2982,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3025,14 +3020,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 418-2023</t>
+          <t>A 40671-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44929</v>
+        <v>45558.36265046296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3045,7 +3040,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3082,14 +3077,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 419-2023</t>
+          <t>A 15409-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44929</v>
+        <v>45401.34701388889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3102,7 +3097,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3139,14 +3134,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10235-2023</t>
+          <t>A 16924-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44986.65542824074</v>
+        <v>45755.3825462963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3158,8 +3153,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 420-2023</t>
+          <t>A 58150-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44929</v>
+        <v>44900.7941087963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 506-2023</t>
+          <t>A 22789-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44930</v>
+        <v>44715</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 48901-2023</t>
+          <t>A 52631-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45209.52467592592</v>
+        <v>45610.30113425926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>18.3</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 36868-2022</t>
+          <t>A 58365-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44805.6289699074</v>
+        <v>44901.62020833333</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.6</v>
+        <v>4.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3424,14 +3424,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 5564-2023</t>
+          <t>A 42016-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44960</v>
+        <v>45177.47246527778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3481,14 +3481,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 62221-2022</t>
+          <t>A 10235-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44922</v>
+        <v>44986.65542824074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3538,14 +3538,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 28703-2025</t>
+          <t>A 8877-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45820.23819444444</v>
+        <v>45713.37665509259</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3595,14 +3595,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 29819-2025</t>
+          <t>A 62223-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45825.84666666666</v>
+        <v>44922.67252314815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3652,14 +3652,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 14383-2024</t>
+          <t>A 506-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45394</v>
+        <v>44930</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3709,14 +3709,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 8877-2025</t>
+          <t>A 420-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45713.37665509259</v>
+        <v>44929</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7.3</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3766,14 +3766,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 53160-2023</t>
+          <t>A 10115-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45229.37484953704</v>
+        <v>44986.34202546296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3785,8 +3785,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3823,14 +3828,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 60264-2024</t>
+          <t>A 38792-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45642.8599537037</v>
+        <v>45547.48993055556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3843,7 +3848,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3880,14 +3885,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6355-2024</t>
+          <t>A 58101-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45338.47413194444</v>
+        <v>45249.38699074074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3900,7 +3905,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.9</v>
+        <v>6.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3937,14 +3942,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 40687-2025</t>
+          <t>A 19306-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45896.87452546296</v>
+        <v>45769.56755787037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3956,8 +3961,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3994,14 +4004,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40758-2025</t>
+          <t>A 45665-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45897</v>
+        <v>44441.32771990741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4014,7 +4024,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4051,14 +4061,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 40685-2025</t>
+          <t>A 9954-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45896.87293981481</v>
+        <v>45719.35216435185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4071,7 +4081,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4108,14 +4118,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40686-2025</t>
+          <t>A 17611-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45896.87371527778</v>
+        <v>45757.79642361111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4128,7 +4138,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4165,14 +4175,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 35055-2024</t>
+          <t>A 16618-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45527</v>
+        <v>45754.31761574074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4185,7 +4195,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4222,14 +4232,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 58365-2022</t>
+          <t>A 47650-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44901.62020833333</v>
+        <v>45203</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4242,7 +4252,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.9</v>
+        <v>0.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4279,14 +4289,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 41130-2025</t>
+          <t>A 53160-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45898</v>
+        <v>45229.37484953704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4299,7 +4309,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4336,14 +4346,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 31677-2025</t>
+          <t>A 53253-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45834.37809027778</v>
+        <v>45229.52552083333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4356,7 +4366,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4393,14 +4403,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 43124-2025</t>
+          <t>A 45881-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45909.70793981481</v>
+        <v>45580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4413,7 +4423,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4450,14 +4460,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 43125-2025</t>
+          <t>A 39211-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45909.72638888889</v>
+        <v>45166.41819444444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4470,7 +4480,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4507,14 +4517,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 43013-2025</t>
+          <t>A 17335-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45909.49075231481</v>
+        <v>45756</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4527,7 +4537,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4564,14 +4574,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 62219-2022</t>
+          <t>A 60254-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44922.66564814815</v>
+        <v>45642</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4584,7 +4594,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>13.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4621,14 +4631,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 61975-2021</t>
+          <t>A 60260-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44502</v>
+        <v>45642</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4640,13 +4650,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4683,14 +4688,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 47649-2023</t>
+          <t>A 15684-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45203</v>
+        <v>45021</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4703,7 +4708,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4740,14 +4745,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 2761-2023</t>
+          <t>A 35048-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44944.61564814814</v>
+        <v>45527.64537037037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4760,7 +4765,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4797,14 +4802,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 34419-2025</t>
+          <t>A 6355-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45846.66137731481</v>
+        <v>45338.47413194444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4817,7 +4822,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4854,14 +4859,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 34402-2025</t>
+          <t>A 64438-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45846.61403935185</v>
+        <v>45280.68280092593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4874,7 +4879,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4911,14 +4916,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 34411-2025</t>
+          <t>A 7179-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45846.64509259259</v>
+        <v>44965</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4931,7 +4936,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4968,14 +4973,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27671-2025</t>
+          <t>A 35055-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45813</v>
+        <v>45527</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4988,7 +4993,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5025,14 +5030,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 45248-2025</t>
+          <t>A 61975-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45919.61190972223</v>
+        <v>44502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5044,8 +5049,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5082,14 +5092,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 19306-2025</t>
+          <t>A 55788-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45769.56755787037</v>
+        <v>45239</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5101,13 +5111,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5144,14 +5149,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45821-2025</t>
+          <t>A 2761-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45923.59707175926</v>
+        <v>44944.61564814814</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5164,7 +5169,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5201,14 +5206,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 34530-2024</t>
+          <t>A 62219-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45525</v>
+        <v>44922.66564814815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5221,7 +5226,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5258,14 +5263,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 8969-2023</t>
+          <t>A 45669-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44979.50427083333</v>
+        <v>45194.87333333334</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5278,7 +5283,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5315,14 +5320,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 15409-2024</t>
+          <t>A 19310-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45401.34701388889</v>
+        <v>45769.57109953704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5334,8 +5339,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5372,14 +5382,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 64438-2023</t>
+          <t>A 16921-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45280.68280092593</v>
+        <v>45755.37600694445</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5391,8 +5401,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5429,14 +5444,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 48279-2025</t>
+          <t>A 54948-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45933.58763888889</v>
+        <v>45619</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5449,7 +5464,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5486,14 +5501,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 29648-2025</t>
+          <t>A 419-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45825</v>
+        <v>44929</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5506,7 +5521,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5543,14 +5558,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 47903-2025</t>
+          <t>A 48901-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45932</v>
+        <v>45209.52467592592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5563,7 +5578,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>18.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5600,14 +5615,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 41931-2024</t>
+          <t>A 60253-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45561.56418981482</v>
+        <v>45642</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5620,7 +5635,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5657,14 +5672,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 45665-2021</t>
+          <t>A 60258-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44441.32771990741</v>
+        <v>45642</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5714,14 +5729,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 10836-2023</t>
+          <t>A 60259-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44991</v>
+        <v>45642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5734,7 +5749,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5771,14 +5786,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 10737-2023</t>
+          <t>A 20430-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44984</v>
+        <v>45775.47766203704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5791,7 +5806,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5828,14 +5843,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 51117-2025</t>
+          <t>A 41931-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45947.52902777777</v>
+        <v>45561.56418981482</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5848,7 +5863,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5885,14 +5900,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 52631-2024</t>
+          <t>A 60264-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45610.30113425926</v>
+        <v>45642.8599537037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5905,7 +5920,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5942,14 +5957,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 58101-2023</t>
+          <t>A 39459-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45249.38699074074</v>
+        <v>45166.81715277778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5962,7 +5977,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.1</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5999,14 +6014,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 16921-2025</t>
+          <t>A 40687-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45755.37600694445</v>
+        <v>45896.87452546296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6018,13 +6033,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6061,14 +6071,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 16618-2025</t>
+          <t>A 41130-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45754.31761574074</v>
+        <v>45898</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6081,7 +6091,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6118,14 +6128,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 53651-2025</t>
+          <t>A 40685-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45960.52734953703</v>
+        <v>45896.87293981481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6138,7 +6148,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6175,14 +6185,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 54449-2025</t>
+          <t>A 40686-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45965.54233796296</v>
+        <v>45896.87371527778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6195,7 +6205,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6232,14 +6242,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 60254-2024</t>
+          <t>A 40758-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45642</v>
+        <v>45897</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6252,7 +6262,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>13.4</v>
+        <v>5.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6289,14 +6299,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 60260-2024</t>
+          <t>A 47649-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45642</v>
+        <v>45203</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6309,7 +6319,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6346,14 +6356,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 53253-2023</t>
+          <t>A 36868-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45229.52552083333</v>
+        <v>44805.6289699074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6366,7 +6376,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6403,14 +6413,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 39459-2023</t>
+          <t>A 4241-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45166.81715277778</v>
+        <v>44953</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6423,7 +6433,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6460,14 +6470,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 56101-2025</t>
+          <t>A 4242-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45973.71033564815</v>
+        <v>44953</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6480,7 +6490,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6517,14 +6527,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 57527-2025</t>
+          <t>A 43013-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45980.63293981482</v>
+        <v>45909.49075231481</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6537,7 +6547,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6574,14 +6584,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 55788-2023</t>
+          <t>A 45054-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45239</v>
+        <v>45191</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6594,7 +6604,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6631,14 +6641,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 19310-2025</t>
+          <t>A 29728-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45769.57109953704</v>
+        <v>44755.45465277778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6650,13 +6660,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6693,14 +6698,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 2763-2023</t>
+          <t>A 43125-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44944.62079861111</v>
+        <v>45909.72638888889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6713,7 +6718,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6750,14 +6755,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 35048-2024</t>
+          <t>A 48510-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45527.64537037037</v>
+        <v>45591</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6770,7 +6775,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6807,14 +6812,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 4316-2024</t>
+          <t>A 43124-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45324.65905092593</v>
+        <v>45909.70793981481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6827,7 +6832,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6864,14 +6869,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 16924-2025</t>
+          <t>A 6872-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45755.3825462963</v>
+        <v>44602.75136574074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6883,13 +6888,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6926,14 +6926,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 61133-2025</t>
+          <t>A 29822-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46000.49719907407</v>
+        <v>45107.56379629629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6983,14 +6983,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 61701-2025</t>
+          <t>A 27671-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46002.53532407407</v>
+        <v>45813</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7040,14 +7040,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 7179-2023</t>
+          <t>A 62221-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44965</v>
+        <v>44922</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7097,14 +7097,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 40671-2024</t>
+          <t>A 45248-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45558.36265046296</v>
+        <v>45919.61190972223</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7154,14 +7154,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 4002-2026</t>
+          <t>A 45821-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46044</v>
+        <v>45923.59707175926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7211,14 +7211,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 21738-2023</t>
+          <t>A 2763-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45063</v>
+        <v>44944.62079861111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7268,14 +7268,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 45669-2023</t>
+          <t>A 19384-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45194.87333333334</v>
+        <v>45049</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7325,14 +7325,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 33522-2024</t>
+          <t>A 47903-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45519</v>
+        <v>45932</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7382,14 +7382,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 20430-2025</t>
+          <t>A 16687-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45775.47766203704</v>
+        <v>45754.45372685185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7439,14 +7439,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 45588-2022</t>
+          <t>A 62220-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44845.54098379629</v>
+        <v>44922.66780092593</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7496,14 +7496,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 7310-2026</t>
+          <t>A 48279-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46058.66219907408</v>
+        <v>45933.58763888889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7553,14 +7553,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 17150-2023</t>
+          <t>A 418-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45034</v>
+        <v>44929</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7610,14 +7610,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 65114-2021</t>
+          <t>A 10836-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44515.41678240741</v>
+        <v>44991</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7667,14 +7667,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 62223-2022</t>
+          <t>A 14383-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44922.67252314815</v>
+        <v>45394</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7724,14 +7724,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 1878-2022</t>
+          <t>A 4316-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44574</v>
+        <v>45324.65905092593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7781,14 +7781,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 39211-2023</t>
+          <t>A 51117-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45166.41819444444</v>
+        <v>45947.52902777777</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7838,14 +7838,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 38792-2024</t>
+          <t>A 10737-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45547.48993055556</v>
+        <v>44984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7895,14 +7895,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 59273-2023</t>
+          <t>A 45588-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45253.55516203704</v>
+        <v>44845.54098379629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7952,14 +7952,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45881-2024</t>
+          <t>A 53651-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45580</v>
+        <v>45960.52734953703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8009,14 +8009,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 17611-2025</t>
+          <t>A 54449-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45757.79642361111</v>
+        <v>45965.54233796296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8066,14 +8066,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 19384-2023</t>
+          <t>A 58633-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45049</v>
+        <v>45251.56759259259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8123,14 +8123,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 16687-2025</t>
+          <t>A 56101-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45754.45372685185</v>
+        <v>45973.71033564815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8180,14 +8180,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 60258-2024</t>
+          <t>A 59273-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45642</v>
+        <v>45253.55516203704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8237,14 +8237,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 60259-2024</t>
+          <t>A 8969-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45642</v>
+        <v>44979.50427083333</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8294,14 +8294,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 47650-2023</t>
+          <t>A 57527-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45203</v>
+        <v>45980.63293981482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8351,14 +8351,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 6872-2022</t>
+          <t>A 54412-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44602.75136574074</v>
+        <v>45617</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8408,14 +8408,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 58633-2023</t>
+          <t>A 3572-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45251.56759259259</v>
+        <v>45680.71428240741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8465,14 +8465,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 29728-2022</t>
+          <t>A 22418-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44755.45465277778</v>
+        <v>45786.56079861111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8484,8 +8484,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8522,14 +8527,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 17335-2025</t>
+          <t>A 22028-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45756</v>
+        <v>45785.21606481481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8542,7 +8547,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8579,14 +8584,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 48510-2024</t>
+          <t>A 22828-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45591</v>
+        <v>45789.84356481482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8599,7 +8604,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8636,14 +8641,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 54948-2024</t>
+          <t>A 22358-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45619</v>
+        <v>45786.46289351852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8655,8 +8660,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8693,14 +8703,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 9954-2025</t>
+          <t>A 22827-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45719.35216435185</v>
+        <v>45789.84092592593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8750,14 +8760,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 4241-2023</t>
+          <t>A 8450-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44953</v>
+        <v>45709.45519675926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8770,7 +8780,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8807,14 +8817,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 4242-2023</t>
+          <t>A 12954-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44953</v>
+        <v>45734.40412037037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8827,7 +8837,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8864,14 +8874,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 60253-2024</t>
+          <t>A 1191-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45642</v>
+        <v>45666</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8884,7 +8894,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8921,14 +8931,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 53179-2023</t>
+          <t>A 45599-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45229.40875</v>
+        <v>45579.43138888889</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8941,7 +8951,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8978,14 +8988,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 42016-2023</t>
+          <t>A 61133-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45177.47246527778</v>
+        <v>46000.49719907407</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8998,7 +9008,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9035,14 +9045,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 22028-2025</t>
+          <t>A 10462-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45785.21606481481</v>
+        <v>45720.7705787037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9055,7 +9065,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9092,14 +9102,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 3572-2025</t>
+          <t>A 61701-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45680.71428240741</v>
+        <v>46002.53532407407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9112,7 +9122,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9149,14 +9159,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 54412-2024</t>
+          <t>A 25065-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45617</v>
+        <v>45799.70430555556</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9169,7 +9179,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9206,14 +9216,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 22418-2025</t>
+          <t>A 25063-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45786.56079861111</v>
+        <v>45799.70287037037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9225,13 +9235,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9268,14 +9273,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 22358-2025</t>
+          <t>A 4002-2026</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45786.46289351852</v>
+        <v>46044</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9287,13 +9292,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9330,14 +9330,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 1191-2025</t>
+          <t>A 7310-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45666</v>
+        <v>46058.66219907408</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9387,14 +9387,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 22828-2025</t>
+          <t>A 28703-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45789.84356481482</v>
+        <v>45820.23819444444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>7.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9444,14 +9444,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 12954-2025</t>
+          <t>A 29819-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45734.40412037037</v>
+        <v>45825.84666666666</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 22827-2025</t>
+          <t>A 31677-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45789.84092592593</v>
+        <v>45834.37809027778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9558,14 +9558,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 45599-2024</t>
+          <t>A 34402-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45579.43138888889</v>
+        <v>45846.61403935185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 8450-2025</t>
+          <t>A 34411-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45709.45519675926</v>
+        <v>45846.64509259259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9672,14 +9672,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 10462-2025</t>
+          <t>A 34419-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45720.7705787037</v>
+        <v>45846.66137731481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9729,14 +9729,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 25065-2025</t>
+          <t>A 34530-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45799.70430555556</v>
+        <v>45525</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9786,14 +9786,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 25063-2025</t>
+          <t>A 29648-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45799.70287037037</v>
+        <v>45825</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 25943-2022</t>
+          <t>A 37242-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44734</v>
+        <v>44396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>10.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1114,14 +1114,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 37242-2021</t>
+          <t>A 37243-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>10.3</v>
+        <v>4.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1171,14 +1171,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 37243-2021</t>
+          <t>A 23790-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44396</v>
+        <v>44334</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1228,14 +1228,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 23790-2021</t>
+          <t>A 25943-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44334</v>
+        <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1285,14 +1285,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 6800-2022</t>
+          <t>A 6871-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44602.57005787037</v>
+        <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1342,14 +1342,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 6822-2022</t>
+          <t>A 27286-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44602</v>
+        <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1399,14 +1399,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 6871-2022</t>
+          <t>A 6800-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44602.74396990741</v>
+        <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,14 +1513,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 36402-2022</t>
+          <t>A 6822-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44804</v>
+        <v>44602</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1532,13 +1532,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1575,14 +1570,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 10296-2021</t>
+          <t>A 36402-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44257</v>
+        <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,8 +1589,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1632,14 +1632,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 21436-2021</t>
+          <t>A 10296-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44318</v>
+        <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1689,14 +1689,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 13461-2021</t>
+          <t>A 21436-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44273.60354166666</v>
+        <v>44318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1746,14 +1746,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 64871-2021</t>
+          <t>A 13461-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44512</v>
+        <v>44273.60354166666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1803,14 +1803,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 27289-2021</t>
+          <t>A 64871-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44351.30972222222</v>
+        <v>44512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1860,14 +1860,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 27286-2021</t>
+          <t>A 27289-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44351</v>
+        <v>44351.30972222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1917,14 +1917,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 65112-2021</t>
+          <t>A 23080-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44515.4119212963</v>
+        <v>44715</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1974,14 +1974,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 36404-2022</t>
+          <t>A 65112-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44804</v>
+        <v>44515.4119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1991,11 +1991,6 @@
       <c r="E25" t="inlineStr">
         <is>
           <t>TIBRO</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2036,14 +2031,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 23080-2022</t>
+          <t>A 36404-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44715</v>
+        <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,8 +2050,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44851.38383101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44566.46680555555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44566.46861111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2507,14 +2507,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 33522-2024</t>
+          <t>A 42048-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45519</v>
+        <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2564,14 +2564,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 53179-2023</t>
+          <t>A 62220-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45229.40875</v>
+        <v>44922.66780092593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2621,14 +2621,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 42048-2021</t>
+          <t>A 22789-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44426</v>
+        <v>44715</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2678,14 +2678,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 21738-2023</t>
+          <t>A 29822-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45063</v>
+        <v>45107.56379629629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2735,14 +2735,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 5564-2023</t>
+          <t>A 45054-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44960</v>
+        <v>45191</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>44929</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2849,14 +2849,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 1878-2022</t>
+          <t>A 48279-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44574</v>
+        <v>45933.58763888889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2906,14 +2906,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 65114-2021</t>
+          <t>A 58150-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44515.41678240741</v>
+        <v>44900.7941087963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2963,14 +2963,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 17150-2023</t>
+          <t>A 42016-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45034</v>
+        <v>45177.47246527778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3020,14 +3020,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 40671-2024</t>
+          <t>A 47903-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45558.36265046296</v>
+        <v>45932</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3077,14 +3077,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 15409-2024</t>
+          <t>A 10115-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45401.34701388889</v>
+        <v>44986.34202546296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3096,8 +3096,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3134,14 +3139,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 16924-2025</t>
+          <t>A 15684-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45755.3825462963</v>
+        <v>45021</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3153,13 +3158,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 58150-2022</t>
+          <t>A 22028-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44900.7941087963</v>
+        <v>45785.21606481481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22789-2022</t>
+          <t>A 3572-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44715</v>
+        <v>45680.71428240741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 52631-2024</t>
+          <t>A 54412-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45610.30113425926</v>
+        <v>45617</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 58365-2022</t>
+          <t>A 5564-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44901.62020833333</v>
+        <v>44960</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3424,14 +3424,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 42016-2023</t>
+          <t>A 22418-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45177.47246527778</v>
+        <v>45786.56079861111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3443,8 +3443,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3481,14 +3486,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 10235-2023</t>
+          <t>A 22358-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44986.65542824074</v>
+        <v>45786.46289351852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3500,8 +3505,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3538,14 +3548,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 8877-2025</t>
+          <t>A 60264-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45713.37665509259</v>
+        <v>45642.8599537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3558,7 +3568,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7.3</v>
+        <v>4.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3595,14 +3605,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 62223-2022</t>
+          <t>A 418-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44922.67252314815</v>
+        <v>44929</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3615,7 +3625,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3652,14 +3662,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 506-2023</t>
+          <t>A 419-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44930</v>
+        <v>44929</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3672,7 +3682,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3709,14 +3719,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 420-2023</t>
+          <t>A 40687-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44929</v>
+        <v>45896.87452546296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3729,7 +3739,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3766,14 +3776,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 10115-2023</t>
+          <t>A 40758-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44986.34202546296</v>
+        <v>45897</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3785,13 +3795,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>5.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3828,14 +3833,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38792-2024</t>
+          <t>A 1191-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45547.48993055556</v>
+        <v>45666</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3848,7 +3853,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3885,14 +3890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 58101-2023</t>
+          <t>A 22828-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45249.38699074074</v>
+        <v>45789.84356481482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3905,7 +3910,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3942,14 +3947,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 19306-2025</t>
+          <t>A 40685-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45769.56755787037</v>
+        <v>45896.87293981481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3961,13 +3966,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4004,14 +4004,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 45665-2021</t>
+          <t>A 40686-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44441.32771990741</v>
+        <v>45896.87371527778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4061,14 +4061,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9954-2025</t>
+          <t>A 12954-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45719.35216435185</v>
+        <v>45734.40412037037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4118,14 +4118,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 17611-2025</t>
+          <t>A 22827-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45757.79642361111</v>
+        <v>45789.84092592593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4175,14 +4175,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16618-2025</t>
+          <t>A 45599-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45754.31761574074</v>
+        <v>45579.43138888889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>6.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4232,14 +4232,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 47650-2023</t>
+          <t>A 8450-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45203</v>
+        <v>45709.45519675926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4289,14 +4289,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 53160-2023</t>
+          <t>A 41130-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45229.37484953704</v>
+        <v>45898</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4346,14 +4346,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 53253-2023</t>
+          <t>A 10235-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45229.52552083333</v>
+        <v>44986.65542824074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4403,14 +4403,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 45881-2024</t>
+          <t>A 10462-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45580</v>
+        <v>45720.7705787037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4460,14 +4460,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39211-2023</t>
+          <t>A 420-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45166.41819444444</v>
+        <v>44929</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4517,14 +4517,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 17335-2025</t>
+          <t>A 506-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45756</v>
+        <v>44930</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4574,14 +4574,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 60254-2024</t>
+          <t>A 48901-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45642</v>
+        <v>45209.52467592592</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>13.4</v>
+        <v>18.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4631,14 +4631,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 60260-2024</t>
+          <t>A 25065-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45642</v>
+        <v>45799.70430555556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4688,14 +4688,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 15684-2023</t>
+          <t>A 36868-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45021</v>
+        <v>44805.6289699074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4745,14 +4745,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35048-2024</t>
+          <t>A 43124-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45527.64537037037</v>
+        <v>45909.70793981481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4802,14 +4802,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 6355-2024</t>
+          <t>A 43125-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45338.47413194444</v>
+        <v>45909.72638888889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4859,14 +4859,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 64438-2023</t>
+          <t>A 25063-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45280.68280092593</v>
+        <v>45799.70287037037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4916,14 +4916,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7179-2023</t>
+          <t>A 43013-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44965</v>
+        <v>45909.49075231481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4973,14 +4973,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 35055-2024</t>
+          <t>A 27671-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45527</v>
+        <v>45813</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5030,14 +5030,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 61975-2021</t>
+          <t>A 45248-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44502</v>
+        <v>45919.61190972223</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5049,13 +5049,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5092,14 +5087,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 55788-2023</t>
+          <t>A 45821-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45239</v>
+        <v>45923.59707175926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5112,7 +5107,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5149,14 +5144,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2761-2023</t>
+          <t>A 62221-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44944.61564814814</v>
+        <v>44922</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5169,7 +5164,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5206,14 +5201,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 62219-2022</t>
+          <t>A 28703-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44922.66564814815</v>
+        <v>45820.23819444444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5226,7 +5221,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>7.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5263,14 +5258,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45669-2023</t>
+          <t>A 29819-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45194.87333333334</v>
+        <v>45825.84666666666</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5283,7 +5278,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5320,14 +5315,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 19310-2025</t>
+          <t>A 14383-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45769.57109953704</v>
+        <v>45394</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5339,13 +5334,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5382,14 +5372,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 16921-2025</t>
+          <t>A 8877-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45755.37600694445</v>
+        <v>45713.37665509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5401,13 +5391,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>1.6</v>
+        <v>7.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5444,14 +5429,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 54948-2024</t>
+          <t>A 53160-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45619</v>
+        <v>45229.37484953704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5464,7 +5449,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5501,14 +5486,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 419-2023</t>
+          <t>A 6355-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44929</v>
+        <v>45338.47413194444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5521,7 +5506,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5558,14 +5543,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 48901-2023</t>
+          <t>A 35055-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45209.52467592592</v>
+        <v>45527</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5578,7 +5563,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>18.3</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5615,14 +5600,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60253-2024</t>
+          <t>A 31677-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45642</v>
+        <v>45834.37809027778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5635,7 +5620,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5672,14 +5657,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60258-2024</t>
+          <t>A 58365-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45642</v>
+        <v>44901.62020833333</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5692,7 +5677,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5729,14 +5714,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 60259-2024</t>
+          <t>A 51117-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45642</v>
+        <v>45947.52902777777</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5749,7 +5734,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5786,14 +5771,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 20430-2025</t>
+          <t>A 34419-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45775.47766203704</v>
+        <v>45846.66137731481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5806,7 +5791,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5843,14 +5828,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 41931-2024</t>
+          <t>A 34402-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45561.56418981482</v>
+        <v>45846.61403935185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5863,7 +5848,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5900,14 +5885,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 60264-2024</t>
+          <t>A 34411-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45642.8599537037</v>
+        <v>45846.64509259259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5920,7 +5905,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.9</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5957,14 +5942,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 39459-2023</t>
+          <t>A 62219-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45166.81715277778</v>
+        <v>44922.66564814815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5977,7 +5962,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6014,14 +5999,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 40687-2025</t>
+          <t>A 61975-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45896.87452546296</v>
+        <v>44502</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6033,8 +6018,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6071,14 +6061,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41130-2025</t>
+          <t>A 47649-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45898</v>
+        <v>45203</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6091,7 +6081,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6128,14 +6118,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 40685-2025</t>
+          <t>A 2761-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45896.87293981481</v>
+        <v>44944.61564814814</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6148,7 +6138,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6185,14 +6175,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 40686-2025</t>
+          <t>A 19306-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45896.87371527778</v>
+        <v>45769.56755787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6204,8 +6194,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6242,14 +6237,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 40758-2025</t>
+          <t>A 34530-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45897</v>
+        <v>45525</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6262,7 +6257,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6299,14 +6294,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 47649-2023</t>
+          <t>A 8969-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45203</v>
+        <v>44979.50427083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6356,14 +6351,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 36868-2022</t>
+          <t>A 29648-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44805.6289699074</v>
+        <v>45825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6376,7 +6371,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6413,14 +6408,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 4241-2023</t>
+          <t>A 15409-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44953</v>
+        <v>45401.34701388889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6433,7 +6428,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6470,14 +6465,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 4242-2023</t>
+          <t>A 64438-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44953</v>
+        <v>45280.68280092593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6490,7 +6485,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6527,14 +6522,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 43013-2025</t>
+          <t>A 53651-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45909.49075231481</v>
+        <v>45960.52734953703</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6547,7 +6542,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6584,14 +6579,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 45054-2023</t>
+          <t>A 41931-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45191</v>
+        <v>45561.56418981482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6604,7 +6599,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6641,14 +6636,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 29728-2022</t>
+          <t>A 54449-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44755.45465277778</v>
+        <v>45965.54233796296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6661,7 +6656,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6698,14 +6693,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43125-2025</t>
+          <t>A 45665-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45909.72638888889</v>
+        <v>44441.32771990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6718,7 +6713,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6755,14 +6750,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 48510-2024</t>
+          <t>A 10836-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45591</v>
+        <v>44991</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6775,7 +6770,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6812,14 +6807,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 43124-2025</t>
+          <t>A 10737-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45909.70793981481</v>
+        <v>44984</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6832,7 +6827,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6869,14 +6864,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 6872-2022</t>
+          <t>A 52631-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44602.75136574074</v>
+        <v>45610.30113425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6889,7 +6884,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6926,14 +6921,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 29822-2023</t>
+          <t>A 56101-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45107.56379629629</v>
+        <v>45973.71033564815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6946,7 +6941,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6983,14 +6978,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 27671-2025</t>
+          <t>A 58101-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45813</v>
+        <v>45249.38699074074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7003,7 +6998,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7040,14 +7035,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 62221-2022</t>
+          <t>A 16921-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44922</v>
+        <v>45755.37600694445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7059,8 +7054,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7097,14 +7097,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 45248-2025</t>
+          <t>A 57527-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45919.61190972223</v>
+        <v>45980.63293981482</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7154,14 +7154,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 45821-2025</t>
+          <t>A 16618-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45923.59707175926</v>
+        <v>45754.31761574074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7211,14 +7211,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 2763-2023</t>
+          <t>A 60254-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44944.62079861111</v>
+        <v>45642</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.5</v>
+        <v>13.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7268,14 +7268,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 19384-2023</t>
+          <t>A 60260-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45049</v>
+        <v>45642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7325,14 +7325,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 47903-2025</t>
+          <t>A 53253-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45932</v>
+        <v>45229.52552083333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7382,14 +7382,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 16687-2025</t>
+          <t>A 39459-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45754.45372685185</v>
+        <v>45166.81715277778</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7439,14 +7439,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 62220-2022</t>
+          <t>A 55788-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44922.66780092593</v>
+        <v>45239</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7496,14 +7496,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 48279-2025</t>
+          <t>A 61133-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45933.58763888889</v>
+        <v>46000.49719907407</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7553,14 +7553,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 418-2023</t>
+          <t>A 19310-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44929</v>
+        <v>45769.57109953704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7572,8 +7572,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7610,14 +7615,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 10836-2023</t>
+          <t>A 2763-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44991</v>
+        <v>44944.62079861111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7630,7 +7635,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7667,14 +7672,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 14383-2024</t>
+          <t>A 61701-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45394</v>
+        <v>46002.53532407407</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7687,7 +7692,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7724,14 +7729,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 4316-2024</t>
+          <t>A 35048-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45324.65905092593</v>
+        <v>45527.64537037037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7744,7 +7749,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7781,14 +7786,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 51117-2025</t>
+          <t>A 4002-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45947.52902777777</v>
+        <v>46044</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7801,7 +7806,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7838,14 +7843,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 10737-2023</t>
+          <t>A 4316-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44984</v>
+        <v>45324.65905092593</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7858,7 +7863,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7895,14 +7900,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 45588-2022</t>
+          <t>A 16924-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44845.54098379629</v>
+        <v>45755.3825462963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7914,8 +7919,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7952,14 +7962,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 53651-2025</t>
+          <t>A 7179-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45960.52734953703</v>
+        <v>44965</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7972,7 +7982,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8009,14 +8019,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 54449-2025</t>
+          <t>A 40671-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45965.54233796296</v>
+        <v>45558.36265046296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8029,7 +8039,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8066,14 +8076,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 58633-2023</t>
+          <t>A 21738-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45251.56759259259</v>
+        <v>45063</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8086,7 +8096,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8123,14 +8133,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 56101-2025</t>
+          <t>A 7310-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45973.71033564815</v>
+        <v>46058.66219907408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8143,7 +8153,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8180,14 +8190,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 59273-2023</t>
+          <t>A 45669-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45253.55516203704</v>
+        <v>45194.87333333334</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8200,7 +8210,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8237,14 +8247,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 8969-2023</t>
+          <t>A 33522-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44979.50427083333</v>
+        <v>45519</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8257,7 +8267,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8294,14 +8304,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 57527-2025</t>
+          <t>A 20430-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45980.63293981482</v>
+        <v>45775.47766203704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8314,7 +8324,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8351,14 +8361,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 54412-2024</t>
+          <t>A 45588-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45617</v>
+        <v>44845.54098379629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8408,14 +8418,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 3572-2025</t>
+          <t>A 17150-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45680.71428240741</v>
+        <v>45034</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8428,7 +8438,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8465,14 +8475,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 22418-2025</t>
+          <t>A 65114-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45786.56079861111</v>
+        <v>44515.41678240741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8484,13 +8494,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8527,14 +8532,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 22028-2025</t>
+          <t>A 62223-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45785.21606481481</v>
+        <v>44922.67252314815</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8547,7 +8552,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8584,14 +8589,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 22828-2025</t>
+          <t>A 1878-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45789.84356481482</v>
+        <v>44574</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8604,7 +8609,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8641,14 +8646,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 22358-2025</t>
+          <t>A 39211-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45786.46289351852</v>
+        <v>45166.41819444444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8660,13 +8665,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8703,14 +8703,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 22827-2025</t>
+          <t>A 38792-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45789.84092592593</v>
+        <v>45547.48993055556</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8760,14 +8760,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 8450-2025</t>
+          <t>A 59273-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45709.45519675926</v>
+        <v>45253.55516203704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8817,14 +8817,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 12954-2025</t>
+          <t>A 45881-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45734.40412037037</v>
+        <v>45580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8874,14 +8874,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 1191-2025</t>
+          <t>A 17611-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45666</v>
+        <v>45757.79642361111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8931,14 +8931,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 45599-2024</t>
+          <t>A 19384-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45579.43138888889</v>
+        <v>45049</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.8</v>
+        <v>1.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8988,14 +8988,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 61133-2025</t>
+          <t>A 16687-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46000.49719907407</v>
+        <v>45754.45372685185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9045,14 +9045,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 10462-2025</t>
+          <t>A 60258-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45720.7705787037</v>
+        <v>45642</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9102,14 +9102,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 61701-2025</t>
+          <t>A 60259-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46002.53532407407</v>
+        <v>45642</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9159,14 +9159,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 25065-2025</t>
+          <t>A 47650-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45799.70430555556</v>
+        <v>45203</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9216,14 +9216,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 25063-2025</t>
+          <t>A 6872-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45799.70287037037</v>
+        <v>44602.75136574074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9273,14 +9273,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 4002-2026</t>
+          <t>A 58633-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46044</v>
+        <v>45251.56759259259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9330,14 +9330,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 7310-2026</t>
+          <t>A 29728-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46058.66219907408</v>
+        <v>44755.45465277778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9387,14 +9387,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 28703-2025</t>
+          <t>A 17335-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45820.23819444444</v>
+        <v>45756</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>7.8</v>
+        <v>4.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9444,14 +9444,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 29819-2025</t>
+          <t>A 48510-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45825.84666666666</v>
+        <v>45591</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 31677-2025</t>
+          <t>A 54948-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45834.37809027778</v>
+        <v>45619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9558,14 +9558,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 34402-2025</t>
+          <t>A 9954-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45846.61403935185</v>
+        <v>45719.35216435185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 34411-2025</t>
+          <t>A 4241-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45846.64509259259</v>
+        <v>44953</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9672,14 +9672,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 34419-2025</t>
+          <t>A 4242-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45846.66137731481</v>
+        <v>44953</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9729,14 +9729,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 34530-2024</t>
+          <t>A 60253-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45525</v>
+        <v>45642</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9786,14 +9786,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 29648-2025</t>
+          <t>A 53179-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45825</v>
+        <v>45229.40875</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 37242-2021</t>
+          <t>A 23790-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44396</v>
+        <v>44334</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>10.3</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1114,14 +1114,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 37243-2021</t>
+          <t>A 37242-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.9</v>
+        <v>10.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1171,14 +1171,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 23790-2021</t>
+          <t>A 37243-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44334</v>
+        <v>44396</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,14 +1456,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 10328-2022</t>
+          <t>A 6822-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44623</v>
+        <v>44602</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1513,14 +1513,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 6822-2022</t>
+          <t>A 10328-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44602</v>
+        <v>44623</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44273.60354166666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>44512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44351.30972222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44715</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44515.4119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2031,14 +2031,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 36404-2022</t>
+          <t>A 65095-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44804</v>
+        <v>44515.39005787037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2050,13 +2050,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2093,14 +2088,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 1882-2022</t>
+          <t>A 36404-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44574</v>
+        <v>44804</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,8 +2107,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>23</v>
+        <v>0.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2150,14 +2150,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 46707-2022</t>
+          <t>A 37241-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44851.38383101852</v>
+        <v>44396</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2207,14 +2207,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 495-2022</t>
+          <t>A 1882-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44566.46680555555</v>
+        <v>44574</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,13 +2226,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>23</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2269,14 +2264,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 496-2022</t>
+          <t>A 495-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44566.46861111111</v>
+        <v>44566.46680555555</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2294,7 +2289,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2331,14 +2326,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 37241-2021</t>
+          <t>A 496-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44396</v>
+        <v>44566.46861111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2350,8 +2345,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2388,14 +2388,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 65095-2021</t>
+          <t>A 61986-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44515.39005787037</v>
+        <v>44502</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2407,8 +2407,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2445,14 +2450,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 61986-2021</t>
+          <t>A 42048-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44502</v>
+        <v>44426</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2464,13 +2469,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2507,14 +2507,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 42048-2021</t>
+          <t>A 46707-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44426</v>
+        <v>44851.38383101852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2564,14 +2564,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62220-2022</t>
+          <t>A 53179-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44922.66780092593</v>
+        <v>45229.40875</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2621,14 +2621,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 22789-2022</t>
+          <t>A 65114-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44715</v>
+        <v>44515.41678240741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2678,14 +2678,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 29822-2023</t>
+          <t>A 62221-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45107.56379629629</v>
+        <v>44922</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2735,14 +2735,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 45054-2023</t>
+          <t>A 15409-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45191</v>
+        <v>45401.34701388889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2792,14 +2792,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 417-2023</t>
+          <t>A 62223-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44929</v>
+        <v>44922.67252314815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2849,14 +2849,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 48279-2025</t>
+          <t>A 10115-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45933.58763888889</v>
+        <v>44986.34202546296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2868,8 +2868,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2906,14 +2911,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 58150-2022</t>
+          <t>A 2763-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44900.7941087963</v>
+        <v>44944.62079861111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2963,14 +2968,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 42016-2023</t>
+          <t>A 19384-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45177.47246527778</v>
+        <v>45049</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2983,7 +2988,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3020,14 +3025,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 47903-2025</t>
+          <t>A 45665-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45932</v>
+        <v>44441.32771990741</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3040,7 +3045,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3077,14 +3082,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 10115-2023</t>
+          <t>A 16687-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44986.34202546296</v>
+        <v>45754.45372685185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3096,13 +3101,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 15684-2023</t>
+          <t>A 62220-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45021</v>
+        <v>44922.66780092593</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 22028-2025</t>
+          <t>A 418-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45785.21606481481</v>
+        <v>44929</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 3572-2025</t>
+          <t>A 10836-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45680.71428240741</v>
+        <v>44991</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 54412-2024</t>
+          <t>A 58365-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45617</v>
+        <v>44901.62020833333</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 5564-2023</t>
+          <t>A 60254-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44960</v>
+        <v>45642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6.5</v>
+        <v>13.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3424,14 +3424,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22418-2025</t>
+          <t>A 60260-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45786.56079861111</v>
+        <v>45642</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3443,13 +3443,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3486,14 +3481,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 22358-2025</t>
+          <t>A 5564-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45786.46289351852</v>
+        <v>44960</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3505,13 +3500,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3548,14 +3538,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 60264-2024</t>
+          <t>A 417-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45642.8599537037</v>
+        <v>44929</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3568,7 +3558,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3605,14 +3595,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 418-2023</t>
+          <t>A 17150-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44929</v>
+        <v>45034</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3625,7 +3615,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3662,14 +3652,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 419-2023</t>
+          <t>A 58150-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44929</v>
+        <v>44900.7941087963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3682,7 +3672,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3719,14 +3709,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 40687-2025</t>
+          <t>A 14383-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45896.87452546296</v>
+        <v>45394</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3739,7 +3729,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3776,14 +3766,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 40758-2025</t>
+          <t>A 4316-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45897</v>
+        <v>45324.65905092593</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3796,7 +3786,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3833,14 +3823,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 1191-2025</t>
+          <t>A 22789-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45666</v>
+        <v>44715</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3853,7 +3843,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3890,14 +3880,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 22828-2025</t>
+          <t>A 52631-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45789.84356481482</v>
+        <v>45610.30113425926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3910,7 +3900,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3947,14 +3937,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 40685-2025</t>
+          <t>A 55788-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45896.87293981481</v>
+        <v>45239</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3967,7 +3957,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4004,14 +3994,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40686-2025</t>
+          <t>A 10737-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45896.87371527778</v>
+        <v>44984</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4024,7 +4014,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4061,14 +4051,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 12954-2025</t>
+          <t>A 42016-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45734.40412037037</v>
+        <v>45177.47246527778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4081,7 +4071,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4118,14 +4108,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 22827-2025</t>
+          <t>A 2761-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45789.84092592593</v>
+        <v>44944.61564814814</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4138,7 +4128,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4175,14 +4165,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 45599-2024</t>
+          <t>A 62219-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45579.43138888889</v>
+        <v>44922.66564814815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4195,7 +4185,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4232,14 +4222,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8450-2025</t>
+          <t>A 45588-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45709.45519675926</v>
+        <v>44845.54098379629</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4252,7 +4242,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4289,14 +4279,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 41130-2025</t>
+          <t>A 10235-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45898</v>
+        <v>44986.65542824074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4309,7 +4299,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4346,14 +4336,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 10235-2023</t>
+          <t>A 8877-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44986.65542824074</v>
+        <v>45713.37665509259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4366,7 +4356,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>7.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4403,14 +4393,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 10462-2025</t>
+          <t>A 39211-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45720.7705787037</v>
+        <v>45166.41819444444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4423,7 +4413,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4460,14 +4450,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 420-2023</t>
+          <t>A 419-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
         <v>44929</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4480,7 +4470,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4524,7 +4514,7 @@
         <v>44930</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4574,14 +4564,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 48901-2023</t>
+          <t>A 420-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45209.52467592592</v>
+        <v>44929</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4594,7 +4584,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>18.3</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4631,14 +4621,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 25065-2025</t>
+          <t>A 60253-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45799.70430555556</v>
+        <v>45642</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4651,7 +4641,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4688,14 +4678,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36868-2022</t>
+          <t>A 60258-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44805.6289699074</v>
+        <v>45642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4708,7 +4698,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4745,14 +4735,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 43124-2025</t>
+          <t>A 60259-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45909.70793981481</v>
+        <v>45642</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4765,7 +4755,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4802,14 +4792,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43125-2025</t>
+          <t>A 38792-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45909.72638888889</v>
+        <v>45547.48993055556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4822,7 +4812,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4859,14 +4849,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25063-2025</t>
+          <t>A 47649-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45799.70287037037</v>
+        <v>45203</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4879,7 +4869,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4916,14 +4906,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 43013-2025</t>
+          <t>A 33522-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45909.49075231481</v>
+        <v>45519</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4936,7 +4926,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4973,14 +4963,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27671-2025</t>
+          <t>A 9954-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45813</v>
+        <v>45719.35216435185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4993,7 +4983,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5030,14 +5020,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 45248-2025</t>
+          <t>A 21738-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45919.61190972223</v>
+        <v>45063</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5087,14 +5077,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 45821-2025</t>
+          <t>A 58633-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45923.59707175926</v>
+        <v>45251.56759259259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5107,7 +5097,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5144,14 +5134,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 62221-2022</t>
+          <t>A 1878-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44922</v>
+        <v>44574</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5164,7 +5154,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5201,14 +5191,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28703-2025</t>
+          <t>A 40671-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45820.23819444444</v>
+        <v>45558.36265046296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5221,7 +5211,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>7.8</v>
+        <v>2.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5258,14 +5248,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 29819-2025</t>
+          <t>A 16924-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45825.84666666666</v>
+        <v>45755.3825462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5277,8 +5267,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5315,14 +5310,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 14383-2024</t>
+          <t>A 59273-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45394</v>
+        <v>45253.55516203704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5335,7 +5330,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5372,14 +5367,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 8877-2025</t>
+          <t>A 8969-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45713.37665509259</v>
+        <v>44979.50427083333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5392,7 +5387,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>7.3</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5429,14 +5424,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 53160-2023</t>
+          <t>A 58101-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45229.37484953704</v>
+        <v>45249.38699074074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5449,7 +5444,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.6</v>
+        <v>6.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5486,14 +5481,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 6355-2024</t>
+          <t>A 19306-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45338.47413194444</v>
+        <v>45769.56755787037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5505,8 +5500,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5543,14 +5543,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 35055-2024</t>
+          <t>A 15684-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45527</v>
+        <v>45021</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5600,14 +5600,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 31677-2025</t>
+          <t>A 17611-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45834.37809027778</v>
+        <v>45757.79642361111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5657,14 +5657,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 58365-2022</t>
+          <t>A 54412-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44901.62020833333</v>
+        <v>45617</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.9</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5714,14 +5714,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 51117-2025</t>
+          <t>A 16618-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45947.52902777777</v>
+        <v>45754.31761574074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5771,14 +5771,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 34419-2025</t>
+          <t>A 47650-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45846.66137731481</v>
+        <v>45203</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5828,14 +5828,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 34402-2025</t>
+          <t>A 53160-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45846.61403935185</v>
+        <v>45229.37484953704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5885,14 +5885,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 34411-2025</t>
+          <t>A 53253-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45846.64509259259</v>
+        <v>45229.52552083333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5942,14 +5942,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 62219-2022</t>
+          <t>A 45881-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44922.66564814815</v>
+        <v>45580</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5999,14 +5999,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 61975-2021</t>
+          <t>A 3572-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44502</v>
+        <v>45680.71428240741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6018,13 +6018,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6061,14 +6056,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 47649-2023</t>
+          <t>A 17335-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45203</v>
+        <v>45756</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6081,7 +6076,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6118,14 +6113,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 2761-2023</t>
+          <t>A 60264-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44944.61564814814</v>
+        <v>45642.8599537037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6138,7 +6133,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6175,14 +6170,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 19306-2025</t>
+          <t>A 45669-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45769.56755787037</v>
+        <v>45194.87333333334</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6192,11 +6187,6 @@
       <c r="E98" t="inlineStr">
         <is>
           <t>TIBRO</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -6237,14 +6227,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 34530-2024</t>
+          <t>A 22418-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45525</v>
+        <v>45786.56079861111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6256,8 +6246,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6294,14 +6289,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 8969-2023</t>
+          <t>A 22028-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44979.50427083333</v>
+        <v>45785.21606481481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6314,7 +6309,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6351,14 +6346,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 29648-2025</t>
+          <t>A 40687-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45825</v>
+        <v>45896.87452546296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6371,7 +6366,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6408,14 +6403,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 15409-2024</t>
+          <t>A 41130-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45401.34701388889</v>
+        <v>45898</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6428,7 +6423,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6465,14 +6460,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 64438-2023</t>
+          <t>A 40685-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45280.68280092593</v>
+        <v>45896.87293981481</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6485,7 +6480,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6522,14 +6517,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 53651-2025</t>
+          <t>A 40686-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45960.52734953703</v>
+        <v>45896.87371527778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6542,7 +6537,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6579,14 +6574,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 41931-2024</t>
+          <t>A 22828-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45561.56418981482</v>
+        <v>45789.84356481482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6599,7 +6594,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6636,14 +6631,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 54449-2025</t>
+          <t>A 40758-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45965.54233796296</v>
+        <v>45897</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6656,7 +6651,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6693,14 +6688,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 45665-2021</t>
+          <t>A 22358-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44441.32771990741</v>
+        <v>45786.46289351852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6712,8 +6707,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6750,14 +6750,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 10836-2023</t>
+          <t>A 22827-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44991</v>
+        <v>45789.84092592593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6807,14 +6807,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 10737-2023</t>
+          <t>A 8450-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44984</v>
+        <v>45709.45519675926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6864,14 +6864,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 52631-2024</t>
+          <t>A 12954-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45610.30113425926</v>
+        <v>45734.40412037037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6921,14 +6921,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 56101-2025</t>
+          <t>A 1191-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45973.71033564815</v>
+        <v>45666</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6978,14 +6978,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 58101-2023</t>
+          <t>A 45599-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45249.38699074074</v>
+        <v>45579.43138888889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7035,14 +7035,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 16921-2025</t>
+          <t>A 35048-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45755.37600694445</v>
+        <v>45527.64537037037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7054,13 +7054,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7097,14 +7092,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 57527-2025</t>
+          <t>A 6355-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45980.63293981482</v>
+        <v>45338.47413194444</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7117,7 +7112,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7154,14 +7149,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 16618-2025</t>
+          <t>A 7179-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45754.31761574074</v>
+        <v>44965</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7174,7 +7169,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7211,14 +7206,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 60254-2024</t>
+          <t>A 10462-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45642</v>
+        <v>45720.7705787037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7231,7 +7226,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>13.4</v>
+        <v>2.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7268,14 +7263,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 60260-2024</t>
+          <t>A 43013-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45642</v>
+        <v>45909.49075231481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7288,7 +7283,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7325,14 +7320,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 53253-2023</t>
+          <t>A 35055-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45229.52552083333</v>
+        <v>45527</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7345,7 +7340,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7382,14 +7377,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 39459-2023</t>
+          <t>A 61975-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45166.81715277778</v>
+        <v>44502</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7401,8 +7396,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7439,14 +7439,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 55788-2023</t>
+          <t>A 43125-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45239</v>
+        <v>45909.72638888889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7496,14 +7496,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 61133-2025</t>
+          <t>A 43124-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46000.49719907407</v>
+        <v>45909.70793981481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7553,14 +7553,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 19310-2025</t>
+          <t>A 54948-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45769.57109953704</v>
+        <v>45619</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7572,13 +7572,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7615,14 +7610,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 2763-2023</t>
+          <t>A 27671-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44944.62079861111</v>
+        <v>45813</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7635,7 +7630,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7672,14 +7667,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 61701-2025</t>
+          <t>A 25065-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46002.53532407407</v>
+        <v>45799.70430555556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7692,7 +7687,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7729,14 +7724,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35048-2024</t>
+          <t>A 25063-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45527.64537037037</v>
+        <v>45799.70287037037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7749,7 +7744,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7786,14 +7781,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 4002-2026</t>
+          <t>A 45248-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46044</v>
+        <v>45919.61190972223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7806,7 +7801,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7843,14 +7838,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 4316-2024</t>
+          <t>A 45821-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45324.65905092593</v>
+        <v>45923.59707175926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7863,7 +7858,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7900,14 +7895,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 16924-2025</t>
+          <t>A 20430-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45755.3825462963</v>
+        <v>45775.47766203704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7919,13 +7914,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7962,14 +7952,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 7179-2023</t>
+          <t>A 41931-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44965</v>
+        <v>45561.56418981482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7982,7 +7972,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8019,14 +8009,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 40671-2024</t>
+          <t>A 47903-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45558.36265046296</v>
+        <v>45932</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8039,7 +8029,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8076,14 +8066,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 21738-2023</t>
+          <t>A 48279-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45063</v>
+        <v>45933.58763888889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8096,7 +8086,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8133,14 +8123,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 7310-2026</t>
+          <t>A 28703-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46058.66219907408</v>
+        <v>45820.23819444444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8153,7 +8143,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>7.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8190,14 +8180,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 45669-2023</t>
+          <t>A 29819-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45194.87333333334</v>
+        <v>45825.84666666666</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8210,7 +8200,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8247,14 +8237,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 33522-2024</t>
+          <t>A 64438-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45519</v>
+        <v>45280.68280092593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8267,7 +8257,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.2</v>
+        <v>5.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8304,14 +8294,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 20430-2025</t>
+          <t>A 51117-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45775.47766203704</v>
+        <v>45947.52902777777</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8324,7 +8314,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8361,14 +8351,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45588-2022</t>
+          <t>A 31677-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44845.54098379629</v>
+        <v>45834.37809027778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8381,7 +8371,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8418,14 +8408,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 17150-2023</t>
+          <t>A 53651-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45034</v>
+        <v>45960.52734953703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8438,7 +8428,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8475,14 +8465,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 65114-2021</t>
+          <t>A 19310-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44515.41678240741</v>
+        <v>45769.57109953704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8494,8 +8484,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8532,14 +8527,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 62223-2022</t>
+          <t>A 34402-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44922.67252314815</v>
+        <v>45846.61403935185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8552,7 +8547,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.4</v>
+        <v>5.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8589,14 +8584,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 1878-2022</t>
+          <t>A 34411-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44574</v>
+        <v>45846.64509259259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8609,7 +8604,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8646,14 +8641,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 39211-2023</t>
+          <t>A 34419-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45166.41819444444</v>
+        <v>45846.66137731481</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8666,7 +8661,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8703,14 +8698,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 38792-2024</t>
+          <t>A 16921-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45547.48993055556</v>
+        <v>45755.37600694445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8722,8 +8717,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8760,14 +8760,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 59273-2023</t>
+          <t>A 54449-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45253.55516203704</v>
+        <v>45965.54233796296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8817,14 +8817,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 45881-2024</t>
+          <t>A 48901-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45580</v>
+        <v>45209.52467592592</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>18.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8874,14 +8874,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 17611-2025</t>
+          <t>A 56101-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45757.79642361111</v>
+        <v>45973.71033564815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8931,14 +8931,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 19384-2023</t>
+          <t>A 57527-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45049</v>
+        <v>45980.63293981482</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8988,14 +8988,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 16687-2025</t>
+          <t>A 34530-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45754.45372685185</v>
+        <v>45525</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9045,14 +9045,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 60258-2024</t>
+          <t>A 39459-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45642</v>
+        <v>45166.81715277778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9102,14 +9102,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 60259-2024</t>
+          <t>A 29648-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45642</v>
+        <v>45825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9159,14 +9159,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 47650-2023</t>
+          <t>A 36868-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45203</v>
+        <v>44805.6289699074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9216,14 +9216,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 6872-2022</t>
+          <t>A 4241-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44602.75136574074</v>
+        <v>44953</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9273,14 +9273,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 58633-2023</t>
+          <t>A 4242-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45251.56759259259</v>
+        <v>44953</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9330,14 +9330,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 29728-2022</t>
+          <t>A 61133-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44755.45465277778</v>
+        <v>46000.49719907407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9387,14 +9387,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 17335-2025</t>
+          <t>A 45054-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45756</v>
+        <v>45191</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9444,14 +9444,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 48510-2024</t>
+          <t>A 29728-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45591</v>
+        <v>44755.45465277778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 54948-2024</t>
+          <t>A 48510-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45619</v>
+        <v>45591</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9558,14 +9558,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 9954-2025</t>
+          <t>A 6872-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45719.35216435185</v>
+        <v>44602.75136574074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 4241-2023</t>
+          <t>A 29822-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44953</v>
+        <v>45107.56379629629</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9672,14 +9672,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 4242-2023</t>
+          <t>A 61701-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44953</v>
+        <v>46002.53532407407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9729,14 +9729,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 60253-2024</t>
+          <t>A 4002-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45642</v>
+        <v>46044</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9786,14 +9786,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 53179-2023</t>
+          <t>A 7310-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45229.40875</v>
+        <v>46058.66219907408</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44334</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44396</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,14 +1456,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 6822-2022</t>
+          <t>A 10328-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44602</v>
+        <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1513,14 +1513,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 10328-2022</t>
+          <t>A 6822-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44623</v>
+        <v>44602</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1689,14 +1689,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 21436-2021</t>
+          <t>A 13461-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44318</v>
+        <v>44273.60354166666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1746,14 +1746,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 13461-2021</t>
+          <t>A 21436-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44273.60354166666</v>
+        <v>44318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>44512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44351.30972222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44715</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44515.4119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2031,14 +2031,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 65095-2021</t>
+          <t>A 36404-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44515.39005787037</v>
+        <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2050,8 +2050,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2088,14 +2093,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 36404-2022</t>
+          <t>A 1882-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44804</v>
+        <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2107,13 +2112,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>0.8</v>
+        <v>23</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2150,14 +2150,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 37241-2021</t>
+          <t>A 46707-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44396</v>
+        <v>44851.38383101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2207,14 +2207,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 1882-2022</t>
+          <t>A 495-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44574</v>
+        <v>44566.46680555555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,8 +2226,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>23</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2264,14 +2269,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 495-2022</t>
+          <t>A 496-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44566.46680555555</v>
+        <v>44566.46861111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2289,7 +2294,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2326,14 +2331,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 496-2022</t>
+          <t>A 37241-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44566.46861111111</v>
+        <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2345,13 +2350,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2388,14 +2388,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 61986-2021</t>
+          <t>A 65095-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44502</v>
+        <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2407,13 +2407,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2450,14 +2445,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 42048-2021</t>
+          <t>A 61986-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44426</v>
+        <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2469,8 +2464,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2507,14 +2507,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 46707-2022</t>
+          <t>A 42048-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44851.38383101852</v>
+        <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2564,14 +2564,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 53179-2023</t>
+          <t>A 65114-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45229.40875</v>
+        <v>44515.41678240741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2621,14 +2621,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 65114-2021</t>
+          <t>A 15409-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44515.41678240741</v>
+        <v>45401.34701388889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2678,14 +2678,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62221-2022</t>
+          <t>A 53179-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44922</v>
+        <v>45229.40875</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2735,14 +2735,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 15409-2024</t>
+          <t>A 58365-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45401.34701388889</v>
+        <v>44901.62020833333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2792,14 +2792,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 62223-2022</t>
+          <t>A 55788-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44922.67252314815</v>
+        <v>45239</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2849,14 +2849,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 10115-2023</t>
+          <t>A 2761-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44986.34202546296</v>
+        <v>44944.61564814814</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2868,13 +2868,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2911,14 +2906,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 2763-2023</t>
+          <t>A 62219-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44944.62079861111</v>
+        <v>44922.66564814815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2931,7 +2926,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2968,14 +2963,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 19384-2023</t>
+          <t>A 419-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45049</v>
+        <v>44929</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2988,7 +2983,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3025,14 +3020,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 45665-2021</t>
+          <t>A 60253-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44441.32771990741</v>
+        <v>45642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3045,7 +3040,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3082,14 +3077,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 16687-2025</t>
+          <t>A 60258-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45754.45372685185</v>
+        <v>45642</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3102,7 +3097,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3139,14 +3134,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 62220-2022</t>
+          <t>A 60259-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44922.66780092593</v>
+        <v>45642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3159,7 +3154,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3196,14 +3191,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 418-2023</t>
+          <t>A 47649-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44929</v>
+        <v>45203</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3216,7 +3211,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3253,14 +3248,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 10836-2023</t>
+          <t>A 33522-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44991</v>
+        <v>45519</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3273,7 +3268,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3310,14 +3305,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 58365-2022</t>
+          <t>A 21738-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44901.62020833333</v>
+        <v>45063</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3330,7 +3325,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3367,14 +3362,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 60254-2024</t>
+          <t>A 1878-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45642</v>
+        <v>44574</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3387,7 +3382,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>13.4</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3424,14 +3419,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 60260-2024</t>
+          <t>A 40671-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45642</v>
+        <v>45558.36265046296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3444,7 +3439,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3481,14 +3476,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 5564-2023</t>
+          <t>A 16924-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44960</v>
+        <v>45755.3825462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3500,8 +3495,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3538,14 +3538,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 417-2023</t>
+          <t>A 60264-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44929</v>
+        <v>45642.8599537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3595,14 +3595,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 17150-2023</t>
+          <t>A 28703-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45034</v>
+        <v>45820.23819444444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>7.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3652,14 +3652,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 58150-2022</t>
+          <t>A 29819-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44900.7941087963</v>
+        <v>45825.84666666666</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3709,14 +3709,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 14383-2024</t>
+          <t>A 40687-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45394</v>
+        <v>45896.87452546296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3766,14 +3766,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 4316-2024</t>
+          <t>A 41130-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45324.65905092593</v>
+        <v>45898</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3823,14 +3823,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 22789-2022</t>
+          <t>A 40685-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44715</v>
+        <v>45896.87293981481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3880,14 +3880,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 52631-2024</t>
+          <t>A 40686-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45610.30113425926</v>
+        <v>45896.87371527778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3937,14 +3937,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 55788-2023</t>
+          <t>A 40758-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45239</v>
+        <v>45897</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3994,14 +3994,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 10737-2023</t>
+          <t>A 62223-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44984</v>
+        <v>44922.67252314815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4051,14 +4051,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 42016-2023</t>
+          <t>A 10115-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45177.47246527778</v>
+        <v>44986.34202546296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4070,8 +4070,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4108,14 +4113,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 2761-2023</t>
+          <t>A 45665-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44944.61564814814</v>
+        <v>44441.32771990741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4128,7 +4133,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4165,14 +4170,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 62219-2022</t>
+          <t>A 31677-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44922.66564814815</v>
+        <v>45834.37809027778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4185,7 +4190,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4222,14 +4227,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 45588-2022</t>
+          <t>A 43013-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44845.54098379629</v>
+        <v>45909.49075231481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4242,7 +4247,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4279,14 +4284,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 10235-2023</t>
+          <t>A 43125-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44986.65542824074</v>
+        <v>45909.72638888889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4299,7 +4304,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4336,14 +4341,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 8877-2025</t>
+          <t>A 43124-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45713.37665509259</v>
+        <v>45909.70793981481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4356,7 +4361,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>7.3</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4393,14 +4398,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39211-2023</t>
+          <t>A 60254-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45166.41819444444</v>
+        <v>45642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4413,7 +4418,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>13.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4450,14 +4455,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 419-2023</t>
+          <t>A 60260-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44929</v>
+        <v>45642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4470,7 +4475,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4507,14 +4512,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 506-2023</t>
+          <t>A 5564-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44930</v>
+        <v>44960</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4527,7 +4532,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4564,14 +4569,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 420-2023</t>
+          <t>A 417-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
         <v>44929</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4584,7 +4589,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4621,14 +4626,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 60253-2024</t>
+          <t>A 34402-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45642</v>
+        <v>45846.61403935185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4641,7 +4646,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4678,14 +4683,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 60258-2024</t>
+          <t>A 34411-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45642</v>
+        <v>45846.64509259259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4698,7 +4703,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4735,14 +4740,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 60259-2024</t>
+          <t>A 34419-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45642</v>
+        <v>45846.66137731481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4755,7 +4760,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4792,14 +4797,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38792-2024</t>
+          <t>A 17150-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45547.48993055556</v>
+        <v>45034</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4812,7 +4817,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4849,14 +4854,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47649-2023</t>
+          <t>A 27671-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45203</v>
+        <v>45813</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4869,7 +4874,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4906,14 +4911,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 33522-2024</t>
+          <t>A 58150-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45519</v>
+        <v>44900.7941087963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4926,7 +4931,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4963,14 +4968,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 9954-2025</t>
+          <t>A 22789-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45719.35216435185</v>
+        <v>44715</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4983,7 +4988,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5020,14 +5025,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 21738-2023</t>
+          <t>A 52631-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45063</v>
+        <v>45610.30113425926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5040,7 +5045,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5077,14 +5082,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 58633-2023</t>
+          <t>A 34530-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45251.56759259259</v>
+        <v>45525</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5097,7 +5102,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5134,14 +5139,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 1878-2022</t>
+          <t>A 45248-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44574</v>
+        <v>45919.61190972223</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5154,7 +5159,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5191,14 +5196,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 40671-2024</t>
+          <t>A 45821-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45558.36265046296</v>
+        <v>45923.59707175926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5211,7 +5216,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5248,14 +5253,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16924-2025</t>
+          <t>A 42016-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45755.3825462963</v>
+        <v>45177.47246527778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5267,13 +5272,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5310,14 +5310,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 59273-2023</t>
+          <t>A 10235-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45253.55516203704</v>
+        <v>44986.65542824074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5367,14 +5367,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 8969-2023</t>
+          <t>A 8877-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44979.50427083333</v>
+        <v>45713.37665509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>7.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5424,14 +5424,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58101-2023</t>
+          <t>A 506-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45249.38699074074</v>
+        <v>44930</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6.1</v>
+        <v>1.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5481,14 +5481,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 19306-2025</t>
+          <t>A 420-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45769.56755787037</v>
+        <v>44929</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5500,13 +5500,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5543,14 +5538,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 15684-2023</t>
+          <t>A 29648-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45021</v>
+        <v>45825</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5563,7 +5558,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5600,14 +5595,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 17611-2025</t>
+          <t>A 38792-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45757.79642361111</v>
+        <v>45547.48993055556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5620,7 +5615,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5657,14 +5652,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 54412-2024</t>
+          <t>A 47903-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45617</v>
+        <v>45932</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5677,7 +5672,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5714,14 +5709,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 16618-2025</t>
+          <t>A 48279-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45754.31761574074</v>
+        <v>45933.58763888889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5734,7 +5729,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5771,14 +5766,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 47650-2023</t>
+          <t>A 9954-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45203</v>
+        <v>45719.35216435185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5791,7 +5786,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5828,14 +5823,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 53160-2023</t>
+          <t>A 58101-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45229.37484953704</v>
+        <v>45249.38699074074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5848,7 +5843,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>6.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5885,14 +5880,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 53253-2023</t>
+          <t>A 19306-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45229.52552083333</v>
+        <v>45769.56755787037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5904,8 +5899,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5942,14 +5942,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 45881-2024</t>
+          <t>A 17611-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45580</v>
+        <v>45757.79642361111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5999,14 +5999,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 3572-2025</t>
+          <t>A 51117-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45680.71428240741</v>
+        <v>45947.52902777777</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6056,14 +6056,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 17335-2025</t>
+          <t>A 16618-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45756</v>
+        <v>45754.31761574074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6113,14 +6113,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60264-2024</t>
+          <t>A 47650-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45642.8599537037</v>
+        <v>45203</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.9</v>
+        <v>0.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6170,14 +6170,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 45669-2023</t>
+          <t>A 53160-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45194.87333333334</v>
+        <v>45229.37484953704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6227,14 +6227,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 22418-2025</t>
+          <t>A 53253-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45786.56079861111</v>
+        <v>45229.52552083333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6246,13 +6246,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6289,14 +6284,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 22028-2025</t>
+          <t>A 45881-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45785.21606481481</v>
+        <v>45580</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6309,7 +6304,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6346,14 +6341,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 40687-2025</t>
+          <t>A 17335-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45896.87452546296</v>
+        <v>45756</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6366,7 +6361,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6403,14 +6398,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 41130-2025</t>
+          <t>A 53651-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45898</v>
+        <v>45960.52734953703</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6423,7 +6418,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6460,14 +6455,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 40685-2025</t>
+          <t>A 35048-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45896.87293981481</v>
+        <v>45527.64537037037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6480,7 +6475,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6517,14 +6512,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 40686-2025</t>
+          <t>A 6355-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45896.87371527778</v>
+        <v>45338.47413194444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6537,7 +6532,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6574,14 +6569,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 22828-2025</t>
+          <t>A 7179-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45789.84356481482</v>
+        <v>44965</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6594,7 +6589,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6631,14 +6626,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 40758-2025</t>
+          <t>A 54449-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45897</v>
+        <v>45965.54233796296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6651,7 +6646,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6688,14 +6683,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 22358-2025</t>
+          <t>A 35055-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45786.46289351852</v>
+        <v>45527</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6707,13 +6702,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6750,14 +6740,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 22827-2025</t>
+          <t>A 61975-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45789.84092592593</v>
+        <v>44502</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6769,8 +6759,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6807,14 +6802,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 8450-2025</t>
+          <t>A 56101-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45709.45519675926</v>
+        <v>45973.71033564815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6827,7 +6822,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6864,14 +6859,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 12954-2025</t>
+          <t>A 39211-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45734.40412037037</v>
+        <v>45166.41819444444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6884,7 +6879,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6921,14 +6916,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 1191-2025</t>
+          <t>A 57527-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45666</v>
+        <v>45980.63293981482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6941,7 +6936,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6978,14 +6973,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 45599-2024</t>
+          <t>A 15684-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45579.43138888889</v>
+        <v>45021</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6998,7 +6993,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7035,14 +7030,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 35048-2024</t>
+          <t>A 61133-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45527.64537037037</v>
+        <v>46000.49719907407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7055,7 +7050,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7092,14 +7087,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 6355-2024</t>
+          <t>A 45669-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45338.47413194444</v>
+        <v>45194.87333333334</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7112,7 +7107,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7149,14 +7144,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 7179-2023</t>
+          <t>A 61701-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44965</v>
+        <v>46002.53532407407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7169,7 +7164,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7206,14 +7201,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 10462-2025</t>
+          <t>A 54948-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45720.7705787037</v>
+        <v>45619</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7226,7 +7221,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7263,14 +7258,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 43013-2025</t>
+          <t>A 20430-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45909.49075231481</v>
+        <v>45775.47766203704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7283,7 +7278,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7320,14 +7315,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 35055-2024</t>
+          <t>A 41931-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45527</v>
+        <v>45561.56418981482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7340,7 +7335,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7377,14 +7372,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 61975-2021</t>
+          <t>A 4002-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44502</v>
+        <v>46044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7396,13 +7391,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7439,14 +7429,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 43125-2025</t>
+          <t>A 64438-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45909.72638888889</v>
+        <v>45280.68280092593</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7459,7 +7449,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.7</v>
+        <v>5.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7496,14 +7486,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 43124-2025</t>
+          <t>A 7310-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45909.70793981481</v>
+        <v>46058.66219907408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7553,14 +7543,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 54948-2024</t>
+          <t>A 19310-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45619</v>
+        <v>45769.57109953704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7572,8 +7562,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7610,14 +7605,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 27671-2025</t>
+          <t>A 16921-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45813</v>
+        <v>45755.37600694445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7629,8 +7624,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>5.7</v>
+        <v>1.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7667,14 +7667,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 25065-2025</t>
+          <t>A 48901-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45799.70430555556</v>
+        <v>45209.52467592592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.2</v>
+        <v>18.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7724,14 +7724,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 25063-2025</t>
+          <t>A 39459-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45799.70287037037</v>
+        <v>45166.81715277778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7781,14 +7781,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 45248-2025</t>
+          <t>A 36868-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45919.61190972223</v>
+        <v>44805.6289699074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7838,14 +7838,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 45821-2025</t>
+          <t>A 4241-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45923.59707175926</v>
+        <v>44953</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7895,14 +7895,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 20430-2025</t>
+          <t>A 4242-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45775.47766203704</v>
+        <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7952,14 +7952,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 41931-2024</t>
+          <t>A 45054-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45561.56418981482</v>
+        <v>45191</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8009,14 +8009,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 47903-2025</t>
+          <t>A 29728-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45932</v>
+        <v>44755.45465277778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8066,14 +8066,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 48279-2025</t>
+          <t>A 48510-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45933.58763888889</v>
+        <v>45591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8123,14 +8123,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 28703-2025</t>
+          <t>A 6872-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45820.23819444444</v>
+        <v>44602.75136574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>7.8</v>
+        <v>0.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8180,14 +8180,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 29819-2025</t>
+          <t>A 29822-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45825.84666666666</v>
+        <v>45107.56379629629</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8237,14 +8237,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 64438-2023</t>
+          <t>A 62221-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45280.68280092593</v>
+        <v>44922</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8294,14 +8294,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 51117-2025</t>
+          <t>A 2763-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45947.52902777777</v>
+        <v>44944.62079861111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8351,14 +8351,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 31677-2025</t>
+          <t>A 19384-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45834.37809027778</v>
+        <v>45049</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8408,14 +8408,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 53651-2025</t>
+          <t>A 16687-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45960.52734953703</v>
+        <v>45754.45372685185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8465,14 +8465,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 19310-2025</t>
+          <t>A 62220-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45769.57109953704</v>
+        <v>44922.66780092593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8484,13 +8484,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8527,14 +8522,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 34402-2025</t>
+          <t>A 418-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45846.61403935185</v>
+        <v>44929</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8547,7 +8542,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8584,14 +8579,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 34411-2025</t>
+          <t>A 10836-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45846.64509259259</v>
+        <v>44991</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8604,7 +8599,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8641,14 +8636,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 34419-2025</t>
+          <t>A 14383-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45846.66137731481</v>
+        <v>45394</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8661,7 +8656,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8698,14 +8693,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 16921-2025</t>
+          <t>A 4316-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45755.37600694445</v>
+        <v>45324.65905092593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8717,13 +8712,8 @@
           <t>TIBRO</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8760,14 +8750,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 54449-2025</t>
+          <t>A 10737-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45965.54233796296</v>
+        <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8780,7 +8770,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8817,14 +8807,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 48901-2023</t>
+          <t>A 45588-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45209.52467592592</v>
+        <v>44845.54098379629</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8837,7 +8827,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>18.3</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8874,14 +8864,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56101-2025</t>
+          <t>A 58633-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45973.71033564815</v>
+        <v>45251.56759259259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8894,7 +8884,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8931,14 +8921,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 57527-2025</t>
+          <t>A 59273-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45980.63293981482</v>
+        <v>45253.55516203704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8951,7 +8941,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8988,14 +8978,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 34530-2024</t>
+          <t>A 8969-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45525</v>
+        <v>44979.50427083333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9008,7 +8998,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9045,14 +9035,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 39459-2023</t>
+          <t>A 54412-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45166.81715277778</v>
+        <v>45617</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9065,7 +9055,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9102,14 +9092,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 29648-2025</t>
+          <t>A 3572-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45825</v>
+        <v>45680.71428240741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9122,7 +9112,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9159,14 +9149,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 36868-2022</t>
+          <t>A 22418-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44805.6289699074</v>
+        <v>45786.56079861111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9178,8 +9168,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9216,14 +9211,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 4241-2023</t>
+          <t>A 22028-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44953</v>
+        <v>45785.21606481481</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9236,7 +9231,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9273,14 +9268,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 4242-2023</t>
+          <t>A 22828-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44953</v>
+        <v>45789.84356481482</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9293,7 +9288,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9330,14 +9325,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 61133-2025</t>
+          <t>A 22358-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46000.49719907407</v>
+        <v>45786.46289351852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9349,8 +9344,13 @@
           <t>TIBRO</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9387,14 +9387,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 45054-2023</t>
+          <t>A 22827-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45191</v>
+        <v>45789.84092592593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9444,14 +9444,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 29728-2022</t>
+          <t>A 8450-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44755.45465277778</v>
+        <v>45709.45519675926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 48510-2024</t>
+          <t>A 12954-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45591</v>
+        <v>45734.40412037037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9558,14 +9558,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 6872-2022</t>
+          <t>A 1191-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44602.75136574074</v>
+        <v>45666</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 29822-2023</t>
+          <t>A 45599-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45107.56379629629</v>
+        <v>45579.43138888889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>6.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9672,14 +9672,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 61701-2025</t>
+          <t>A 10462-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46002.53532407407</v>
+        <v>45720.7705787037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9729,14 +9729,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 4002-2026</t>
+          <t>A 25065-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46044</v>
+        <v>45799.70430555556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9786,14 +9786,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 7310-2026</t>
+          <t>A 25063-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46058.66219907408</v>
+        <v>45799.70287037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44944.62109953703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44453</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44272.31196759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>44334</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44396</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44396</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44602.74396990741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44602.57005787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44602</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44804</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44257</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44273.60354166666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>44512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44351.30972222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44715</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44515.4119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44851.38383101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44566.46680555555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44566.46861111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44396</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44515.39005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44515.41678240741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>45401.34701388889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45229.40875</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44901.62020833333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>45239</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>44944.61564814814</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44922.66564814815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>44929</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>45642</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>45642</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45203</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>45519</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>45063</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>44574</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>45558.36265046296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>45755.3825462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>45642.8599537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>45820.23819444444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>45825.84666666666</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>45896.87452546296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45898</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45896.87293981481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>45896.87371527778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>45897</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44922.67252314815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44986.34202546296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44441.32771990741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>45834.37809027778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>45909.49075231481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>45909.72638888889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>45909.70793981481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>45642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>45642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44960</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44929</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45846.61403935185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45846.64509259259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45846.66137731481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>45034</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45813</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44900.7941087963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44715</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45610.30113425926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45525</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>45919.61190972223</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>45923.59707175926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>45177.47246527778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44986.65542824074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>45713.37665509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>44930</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>44929</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>45825</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>45547.48993055556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45932</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>45933.58763888889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>45719.35216435185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>45249.38699074074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>45769.56755787037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>45757.79642361111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>45947.52902777777</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>45754.31761574074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>45203</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>45229.37484953704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>45229.52552083333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>45580</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>45756</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>45960.52734953703</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>45527.64537037037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>45338.47413194444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>44965</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>45965.54233796296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>45527</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>44502</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>45973.71033564815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45166.41819444444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45980.63293981482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45021</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>46000.49719907407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45194.87333333334</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>46002.53532407407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>45619</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>45775.47766203704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45561.56418981482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>46044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45280.68280092593</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>46058.66219907408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45769.57109953704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>45755.37600694445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>45209.52467592592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>45166.81715277778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44805.6289699074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44953</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>45191</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44755.45465277778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>45591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>44602.75136574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45107.56379629629</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>44922</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44944.62079861111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45049</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>45754.45372685185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>44922.66780092593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>44929</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>44991</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>45394</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>45324.65905092593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>44845.54098379629</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45251.56759259259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45253.55516203704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>44979.50427083333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45617</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>45680.71428240741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>45786.56079861111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>45785.21606481481</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>45789.84356481482</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>45786.46289351852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>45789.84092592593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45709.45519675926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>45734.40412037037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>45666</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>45579.43138888889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45720.7705787037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         <v>45799.70430555556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>45799.70287037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
